--- a/rotas/models_updated.xlsx
+++ b/rotas/models_updated.xlsx
@@ -16590,11 +16590,27 @@
       <c r="D437" t="n">
         <v>76.89999999850988</v>
       </c>
-      <c r="E437" t="inlineStr"/>
-      <c r="F437" t="inlineStr"/>
-      <c r="G437" t="inlineStr"/>
-      <c r="H437" t="inlineStr"/>
-      <c r="I437" t="inlineStr"/>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>[-41.76564551571862, -3.123203156711445]</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>[[-41.76564551571862, -3.123203156711445], [-41.765627522868144, -3.123203156711445]]</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>[[-41.76564551571862, -3.123203156711445], [-41.76564551571862, -3.123103679033983]]</t>
+        </is>
+      </c>
+      <c r="H437" t="n">
+        <v>11</v>
+      </c>
+      <c r="I437" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">

--- a/rotas/models_updated.xlsx
+++ b/rotas/models_updated.xlsx
@@ -520,7 +520,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ARGO_PARNAIBAIII_V2_LD::ECHO_FOX::REATOR2</t>
+          <t>ARGO_PARNAIBAIII_V2_LD::BASE::canaleta1</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -534,30 +534,30 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-41.765488913558606, -3.123912037816565]</t>
+          <t>[-41.76564551571862, -3.123203156711445]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[[-41.765488913558606, -3.123912037816565], [-41.76546143371416, -3.123912037816565]]</t>
+          <t>[[-41.76564551571862, -3.123203156711445], [2.0000183003511056, -3.123203156711445]]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[[-41.765488913558606, -3.123912037816565], [-41.765488913558606, -3.123898160264421]]</t>
+          <t>[[-41.76564551571862, -3.123203156711445], [-41.76564551571862, 11.00009944427427]]</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3.069092</v>
+        <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>6.109054</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ARGO_PARNAIBAIII_V2_LD::ECHO_FOX::REATOR3</t>
+          <t>ARGO_PARNAIBAIII_V2_LD::BASE::canaleta2</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -571,30 +571,30 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-41.76548891347889, -3.1238235239964123]</t>
+          <t>[-41.765605709177876, -3.123318578648746]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[[-41.76548891347889, -3.1238235239964123], [-41.765461433636744, -3.1238235239964123]]</t>
+          <t>[[-41.765605709177876, -3.123318578648746], [23.600212130769417, -3.123318578648746]]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[[-41.76548891347889, -3.1238235239964123], [-41.76548891347889, -3.123809646444245]]</t>
+          <t>[[-41.765605709177876, -3.123318578648746], [-41.765605709177876, 2.000018087154535]]</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3.069092</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>6.109054</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ARGO_PARNAIBAIII_V2_LD::ECHO_FOX::REATOR4</t>
+          <t>ARGO_PARNAIBAIII_V2_LD::BASE::canaleta3</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -608,24 +608,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-41.76548891339733, -3.123732963793457]</t>
+          <t>[-41.765605071205705, -3.123123144651083]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[[-41.76548891339733, -3.123732963793457], [-41.76546143355753, -3.123732963793457]]</t>
+          <t>[[-41.765605071205705, -3.123123144651083], [16.620149390397785, -3.123123144651083]]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[[-41.76548891339733, -3.123732963793457], [-41.76548891339733, -3.123719086241265]]</t>
+          <t>[[-41.765605071205705, -3.123123144651083], [-41.765605071205705, 2.000018087161486]]</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3.069092</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>6.109054</v>
+        <v>16.62</v>
       </c>
     </row>
     <row r="6">
@@ -16590,27 +16590,11 @@
       <c r="D437" t="n">
         <v>76.89999999850988</v>
       </c>
-      <c r="E437" t="inlineStr">
-        <is>
-          <t>[-41.76564551571862, -3.123203156711445]</t>
-        </is>
-      </c>
-      <c r="F437" t="inlineStr">
-        <is>
-          <t>[[-41.76564551571862, -3.123203156711445], [-41.765627522868144, -3.123203156711445]]</t>
-        </is>
-      </c>
-      <c r="G437" t="inlineStr">
-        <is>
-          <t>[[-41.76564551571862, -3.123203156711445], [-41.76564551571862, -3.123103679033983]]</t>
-        </is>
-      </c>
-      <c r="H437" t="n">
-        <v>11</v>
-      </c>
-      <c r="I437" t="n">
-        <v>2</v>
-      </c>
+      <c r="E437" t="inlineStr"/>
+      <c r="F437" t="inlineStr"/>
+      <c r="G437" t="inlineStr"/>
+      <c r="H437" t="inlineStr"/>
+      <c r="I437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">

--- a/rotas/models_updated.xlsx
+++ b/rotas/models_updated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I448"/>
+  <dimension ref="A1:I449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,12 +502,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[[-41.76548891364201, -3.1240046446088403], [-41.76546143379515, -3.1240046446088403]]</t>
+          <t>[[-41.76548891364201, -3.1240046446088403], [-41.765461433794435, -3.1240046446088403]]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[[-41.76548891364201, -3.1240046446088403], [-41.76548891364201, -3.1239907670567204]]</t>
+          <t>[[-41.76548891364201, -3.1240046446088403], [-41.76548891364201, -3.1240185221602337]]</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -520,7 +520,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ARGO_PARNAIBAIII_V2_LD::BASE::canaleta1</t>
+          <t>ARGO_PARNAIBAIII_V2_LD::ECHO_FOX::REATOR2</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -534,30 +534,30 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-41.76564551571862, -3.123203156711445]</t>
+          <t>[-41.765488913558606, -3.123912037816565]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[[-41.76564551571862, -3.123203156711445], [2.0000183003511056, -3.123203156711445]]</t>
+          <t>[[-41.765488913558606, -3.123912037816565], [-41.76546143371344, -3.123912037816565]]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[[-41.76564551571862, -3.123203156711445], [-41.76564551571862, 11.00009944427427]]</t>
+          <t>[[-41.765488913558606, -3.123912037816565], [-41.765488913558606, -3.123925915367983]]</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>11</v>
+        <v>3.069092</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>6.109054</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ARGO_PARNAIBAIII_V2_LD::BASE::canaleta2</t>
+          <t>ARGO_PARNAIBAIII_V2_LD::ECHO_FOX::REATOR3</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -571,30 +571,30 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-41.765605709177876, -3.123318578648746]</t>
+          <t>[-41.76548891347889, -3.1238235239964123]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[[-41.765605709177876, -3.123318578648746], [23.600212130769417, -3.123318578648746]]</t>
+          <t>[[-41.76548891347889, -3.1238235239964123], [-41.76546143363603, -3.1238235239964123]]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[[-41.765605709177876, -3.123318578648746], [-41.765605709177876, 2.000018087154535]]</t>
+          <t>[[-41.76548891347889, -3.1238235239964123], [-41.76548891347889, -3.123837401547855]]</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3.069092</v>
       </c>
       <c r="I4" t="n">
-        <v>23.6</v>
+        <v>6.109054</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ARGO_PARNAIBAIII_V2_LD::BASE::canaleta3</t>
+          <t>ARGO_PARNAIBAIII_V2_LD::ECHO_FOX::REATOR4</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -608,24 +608,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-41.765605071205705, -3.123123144651083]</t>
+          <t>[-41.76548891339733, -3.123732963793457]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[[-41.765605071205705, -3.123123144651083], [16.620149390397785, -3.123123144651083]]</t>
+          <t>[[-41.76548891339733, -3.123732963793457], [-41.765461433556816, -3.123732963793457]]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[[-41.765605071205705, -3.123123144651083], [-41.765605071205705, 2.000018087161486]]</t>
+          <t>[[-41.76548891339733, -3.123732963793457], [-41.76548891339733, -3.1237468413449223]]</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3.069092</v>
       </c>
       <c r="I5" t="n">
-        <v>16.62</v>
+        <v>6.109054</v>
       </c>
     </row>
     <row r="6">
@@ -650,12 +650,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[[-41.76548891331532, -3.1236418919170608], [-41.7654614334779, -3.1236418919170608]]</t>
+          <t>[[-41.76548891331532, -3.1236418919170608], [-41.76546143347718, -3.1236418919170608]]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[[-41.76548891331532, -3.1236418919170608], [-41.76548891331532, -3.123628014364846]]</t>
+          <t>[[-41.76548891331532, -3.1236418919170608], [-41.76548891331532, -3.123655769468552]]</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -687,12 +687,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[[-41.765488913231, -3.123548261881068], [-41.76546143339601, -3.123548261881068]]</t>
+          <t>[[-41.765488913231, -3.123548261881068], [-41.765461433395295, -3.123548261881068]]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[[-41.765488913231, -3.123548261881068], [-41.765488913231, -3.1235343843288277]]</t>
+          <t>[[-41.765488913231, -3.123548261881068], [-41.765488913231, -3.123562139432582]]</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -724,12 +724,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[[-41.76331666131079, -3.123713224110243], [-41.763289181471514, -3.123713224110243]]</t>
+          <t>[[-41.76331666131079, -3.123713224110243], [-41.76328918147079, -3.123713224110243]]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[[-41.76331666131079, -3.123713224110243], [-41.76331666131079, -3.123699346558048]]</t>
+          <t>[[-41.76331666131079, -3.123713224110243], [-41.76331666131079, -3.1237271016617156]]</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -761,12 +761,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[[-41.7633166614137, -3.1236240841868432], [-41.76328918157674, -3.1236240841868432]]</t>
+          <t>[[-41.7633166614137, -3.1236240841868432], [-41.76328918157601, -3.1236240841868432]]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[[-41.7633166614137, -3.1236240841868432], [-41.7633166614137, -3.1236102066346225]]</t>
+          <t>[[-41.7633166614137, -3.1236240841868432], [-41.7633166614137, -3.123637961738338]]</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -798,12 +798,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[[-41.76331666151744, -3.1235342283277663], [-41.76328918168282, -3.1235342283277663]]</t>
+          <t>[[-41.76331666151744, -3.1235342283277663], [-41.7632891816821, -3.1235342283277663]]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[[-41.76331666151744, -3.1235342283277663], [-41.76331666151744, -3.1235203507755216]]</t>
+          <t>[[-41.76331666151744, -3.1235342283277663], [-41.76331666151744, -3.1235481058792844]]</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -835,12 +835,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[[-41.76331666162531, -3.1234407926011687], [-41.76328918179311, -3.1234407926011687]]</t>
+          <t>[[-41.76331666162531, -3.1234407926011687], [-41.763289181792395, -3.1234407926011687]]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[[-41.76331666162531, -3.1234407926011687], [-41.76331666162531, -3.123426915048899]]</t>
+          <t>[[-41.76331666162531, -3.1234407926011687], [-41.76331666162531, -3.123454670152711]]</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -872,12 +872,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[[-41.765398188804326, -3.1239118980405847], [-41.76539262760227, -3.1239118980405847]]</t>
+          <t>[[-41.765398188804326, -3.1239118980405847], [-41.7653926276022, -3.1239118980405847]]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[[-41.765398188804326, -3.1239118980405847], [-41.765398188804326, -3.1239056842733555]]</t>
+          <t>[[-41.765398188804326, -3.1239118980405847], [-41.765398188804326, -3.1239181118077854]]</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -909,12 +909,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[[-41.765398188731375, -3.123822348247624], [-41.76539262752979, -3.123822348247624]]</t>
+          <t>[[-41.765398188731375, -3.123822348247624], [-41.76539262752972, -3.123822348247624]]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[[-41.765398188731375, -3.123822348247624], [-41.765398188731375, -3.1238161344803843]]</t>
+          <t>[[-41.765398188731375, -3.123822348247624], [-41.765398188731375, -3.1238285620148347]]</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[[-41.765398188665074, -3.12374098063882], [-41.76539262746392, -3.12374098063882]]</t>
+          <t>[[-41.765398188665074, -3.12374098063882], [-41.765392627463854, -3.12374098063882]]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[[-41.765398188665074, -3.12374098063882], [-41.765398188665074, -3.1237347668715696]]</t>
+          <t>[[-41.765398188665074, -3.12374098063882], [-41.765398188665074, -3.1237471944060404]]</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -983,12 +983,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[[-41.76539818858268, -3.1236398482693666], [-41.765392627382056, -3.1236398482693666]]</t>
+          <t>[[-41.76539818858268, -3.1236398482693666], [-41.765392627381985, -3.1236398482693666]]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[[-41.76539818858268, -3.1236398482693666], [-41.76539818858268, -3.123633634502104]]</t>
+          <t>[[-41.76539818858268, -3.1236398482693666], [-41.76539818858268, -3.1236460620365993]]</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1020,12 +1020,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[[-41.765398188507056, -3.1235470406295014], [-41.765392627306916, -3.1235470406295014]]</t>
+          <t>[[-41.765398188507056, -3.1235470406295014], [-41.76539262730685, -3.1235470406295014]]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[[-41.765398188507056, -3.1235470406295014], [-41.765398188507056, -3.1235408268622282]]</t>
+          <t>[[-41.765398188507056, -3.1235470406295014], [-41.765398188507056, -3.1235532543967444]]</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[[-41.76340927707149, -3.123716139737664], [-41.76340371587046, -3.123716139737664]]</t>
+          <t>[[-41.76340927707149, -3.123716139737664], [-41.763403715870396, -3.123716139737664]]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[[-41.76340927707149, -3.123716139737664], [-41.76340927707149, -3.123709925970411]]</t>
+          <t>[[-41.76340927707149, -3.123716139737664], [-41.76340927707149, -3.123722353504888]]</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1094,12 +1094,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[[-41.763409277169934, -3.123623862365605], [-41.763403715969396, -3.123623862365605]]</t>
+          <t>[[-41.763409277169934, -3.123623862365605], [-41.763403715969325, -3.123623862365605]]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[[-41.763409277169934, -3.123623862365605], [-41.763409277169934, -3.1236176485983407]]</t>
+          <t>[[-41.763409277169934, -3.123623862365605], [-41.763409277169934, -3.1236300761328395]]</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1131,12 +1131,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[[-41.7634092772713, -3.123528857621602], [-41.76340371607126, -3.123528857621602]]</t>
+          <t>[[-41.7634092772713, -3.123528857621602], [-41.763403716071196, -3.123528857621602]]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[[-41.7634092772713, -3.123528857621602], [-41.7634092772713, -3.1235226438543275]]</t>
+          <t>[[-41.7634092772713, -3.123528857621602], [-41.7634092772713, -3.1235350713888477]]</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[[-41.76340927736296, -3.1234429443237053], [-41.763403716163374, -3.1234429443237053]]</t>
+          <t>[[-41.76340927736296, -3.1234429443237053], [-41.7634037161633, -3.1234429443237053]]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[[-41.76340927736296, -3.1234429443237053], [-41.76340927736296, -3.1234367305564197]]</t>
+          <t>[[-41.76340927736296, -3.1234429443237053], [-41.76340927736296, -3.1234491580909607]]</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1205,12 +1205,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[[-41.762975854509605, -3.123719175584856], [-41.76297029330856, -3.123719175584856]]</t>
+          <t>[[-41.762975854509605, -3.123719175584856], [-41.7629702933085, -3.123719175584856]]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[[-41.762975854509605, -3.123719175584856], [-41.762975854509605, -3.123712961817603]]</t>
+          <t>[[-41.762975854509605, -3.123719175584856], [-41.762975854509605, -3.1237253893520793]]</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1242,12 +1242,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[[-41.76297585461114, -3.1236504278703285], [-41.76297029341046, -3.1236504278703285]]</t>
+          <t>[[-41.76297585461114, -3.1236504278703285], [-41.7629702934104, -3.1236504278703285]]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[[-41.76297585461114, -3.1236504278703285], [-41.76297585461114, -3.123644214103068]]</t>
+          <t>[[-41.76297585461114, -3.1236504278703285], [-41.76297585461114, -3.1236566416375595]]</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1279,12 +1279,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[[-41.762975854711726, -3.1235823224381543], [-41.7629702935114, -3.1235823224381543]]</t>
+          <t>[[-41.762975854711726, -3.1235823224381543], [-41.76297029351134, -3.1235823224381543]]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[[-41.762975854711726, -3.1235823224381543], [-41.762975854711726, -3.1235761086708846]]</t>
+          <t>[[-41.762975854711726, -3.1235823224381543], [-41.762975854711726, -3.123588536205393]]</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[[-41.76303231680404, -3.123718052622012], [-41.763025319573, -3.123718052622012]]</t>
+          <t>[[-41.76303231680404, -3.123718052622012], [-41.7630253195729, -3.123718052622012]]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[[-41.76303231680404, -3.123718052622012], [-41.76303231680404, -3.1237102345628927]]</t>
+          <t>[[-41.76303231680404, -3.123718052622012], [-41.76303231680404, -3.1237258706810858]]</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[[-41.76303231689832, -3.1236518243257407], [-41.76302531966771, -3.1236518243257407]]</t>
+          <t>[[-41.76303231689832, -3.1236518243257407], [-41.76302531966761, -3.1236518243257407]]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[[-41.76303231689832, -3.1236518243257407], [-41.76303231689832, -3.12364400626661]]</t>
+          <t>[[-41.76303231689832, -3.1236518243257407], [-41.76303231689832, -3.123659642384823]]</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1390,12 +1390,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[[-41.76303231699861, -3.1235813717234664], [-41.763025319768474, -3.1235813717234664]]</t>
+          <t>[[-41.76303231699861, -3.1235813717234664], [-41.763025319768374, -3.1235813717234664]]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[[-41.76303231699861, -3.1235813717234664], [-41.76303231699861, -3.1235735536643254]]</t>
+          <t>[[-41.76303231699861, -3.1235813717234664], [-41.76303231699861, -3.123589189782559]]</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1427,12 +1427,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[[-41.76533264802534, -3.123973657250745], [-41.76532793820036, -3.123973657250745]]</t>
+          <t>[[-41.76533264802534, -3.123973657250745], [-41.7653279382003, -3.123973657250745]]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[[-41.76533264802534, -3.123973657250745], [-41.76533264802534, -3.1239671106475013]]</t>
+          <t>[[-41.76533264802534, -3.123973657250745], [-41.76533264802534, -3.123980203853966]]</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[[-41.76533264797303, -3.123904160069039], [-41.76532793814836, -3.123904160069039]]</t>
+          <t>[[-41.76533264797303, -3.123904160069039], [-41.7653279381483, -3.123904160069039]]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[[-41.76533264797303, -3.123904160069039], [-41.76533264797303, -3.1238976134657865]]</t>
+          <t>[[-41.76533264797303, -3.123904160069039], [-41.76533264797303, -3.1239107066722687]]</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[[-41.76533264792137, -3.1238355427224214], [-41.765327938097, -3.1238355427224214]]</t>
+          <t>[[-41.76533264792137, -3.1238355427224214], [-41.765327938096945, -3.1238355427224214]]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[[-41.76533264792137, -3.1238355427224214], [-41.76533264792137, -3.123828996119161]]</t>
+          <t>[[-41.76533264792137, -3.1238355427224214], [-41.76533264792137, -3.12384208932566]]</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1538,12 +1538,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[[-41.76533264783396, -3.123719420899488], [-41.76532793801011, -3.123719420899488]]</t>
+          <t>[[-41.76533264783396, -3.123719420899488], [-41.76532793801005, -3.123719420899488]]</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[[-41.76533264783396, -3.123719420899488], [-41.76533264783396, -3.123712874296212]]</t>
+          <t>[[-41.76533264783396, -3.123719420899488], [-41.76533264783396, -3.1237259675027413]]</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -1575,12 +1575,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[[-41.76533264778231, -3.1236508036216226], [-41.765327937958766, -3.1236508036216226]]</t>
+          <t>[[-41.76533264778231, -3.1236508036216226], [-41.76532793795871, -3.1236508036216226]]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[[-41.76533264778231, -3.1236508036216226], [-41.76533264778231, -3.123644257018338]]</t>
+          <t>[[-41.76533264778231, -3.1236508036216226], [-41.76533264778231, -3.123657350224884]]</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1612,12 +1612,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[[-41.76533264773099, -3.123582626088772], [-41.76532793790775, -3.123582626088772]]</t>
+          <t>[[-41.76533264773099, -3.123582626088772], [-41.76532793790769, -3.123582626088772]]</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[[-41.76533264773099, -3.123582626088772], [-41.76533264773099, -3.123576079485478]]</t>
+          <t>[[-41.76533264773099, -3.123582626088772], [-41.76533264773099, -3.1235891726920424]]</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -1649,12 +1649,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[[-41.76516187593604, -3.123973657366696], [-41.76515716611105, -3.123973657366696]]</t>
+          <t>[[-41.76516187593604, -3.123973657366696], [-41.765157166110995, -3.123973657366696]]</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[[-41.76516187593604, -3.123973657366696], [-41.76516187593604, -3.123967110763452]]</t>
+          <t>[[-41.76516187593604, -3.123973657366696], [-41.76516187593604, -3.123980203969918]]</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -1686,12 +1686,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[[-41.76516187589496, -3.1239041601849897], [-41.76515716607029, -3.1239041601849897]]</t>
+          <t>[[-41.76516187589496, -3.1239041601849897], [-41.76515716607023, -3.1239041601849897]]</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[[-41.76516187589496, -3.1239041601849897], [-41.76516187589496, -3.1238976135817382]]</t>
+          <t>[[-41.76516187589496, -3.1239041601849897], [-41.76516187589496, -3.12391070678822]]</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[[-41.76516187585438, -3.123835542838369], [-41.765157166030015, -3.123835542838369]]</t>
+          <t>[[-41.76516187585438, -3.123835542838369], [-41.76515716602996, -3.123835542838369]]</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[[-41.76516187585438, -3.123835542838369], [-41.76516187585438, -3.1238289962351087]]</t>
+          <t>[[-41.76516187585438, -3.123835542838369], [-41.76516187585438, -3.1238420894416077]]</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -1760,12 +1760,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[[-41.765161875785736, -3.1237194210154358], [-41.76515716596189, -3.1237194210154358]]</t>
+          <t>[[-41.765161875785736, -3.1237194210154358], [-41.765157165961824, -3.1237194210154358]]</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[[-41.765161875785736, -3.1237194210154358], [-41.765161875785736, -3.1237128744121594]]</t>
+          <t>[[-41.765161875785736, -3.1237194210154358], [-41.765161875785736, -3.1237259676186886]]</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -1797,12 +1797,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[[-41.76516187574517, -3.1236508037375703], [-41.76515716592163, -3.1236508037375703]]</t>
+          <t>[[-41.76516187574517, -3.1236508037375703], [-41.76515716592157, -3.1236508037375703]]</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[[-41.76516187574517, -3.1236508037375703], [-41.76516187574517, -3.1236442571342855]]</t>
+          <t>[[-41.76516187574517, -3.1236508037375703], [-41.76516187574517, -3.1236573503408307]]</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -1834,12 +1834,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[[-41.76516187570487, -3.1235826262047173], [-41.76515716588163, -3.1235826262047173]]</t>
+          <t>[[-41.76516187570487, -3.1235826262047173], [-41.76515716588157, -3.1235826262047173]]</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[[-41.76516187570487, -3.1235826262047173], [-41.76516187570487, -3.123576079601424]]</t>
+          <t>[[-41.76516187570487, -3.1235826262047173], [-41.76516187570487, -3.1235891728079865]]</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[[-41.76365691488124, -3.1237194208318586], [-41.76365220505739, -3.1237194208318586]]</t>
+          <t>[[-41.76365691488124, -3.1237194208318586], [-41.76365220505733, -3.1237194208318586]]</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[[-41.76365691488124, -3.1237194208318586], [-41.76365691488124, -3.123712874228583]]</t>
+          <t>[[-41.76365691488124, -3.1237194208318586], [-41.76365691488124, -3.1237259674351123]]</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -1908,12 +1908,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[[-41.763656914938366, -3.1236508035539945], [-41.76365220511482, -3.1236508035539945]]</t>
+          <t>[[-41.763656914938366, -3.1236508035539945], [-41.76365220511477, -3.1236508035539945]]</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[[-41.763656914938366, -3.1236508035539945], [-41.763656914938366, -3.12364425695071]]</t>
+          <t>[[-41.763656914938366, -3.1236508035539945], [-41.763656914938366, -3.1236573501572558]]</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -1945,12 +1945,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[[-41.76365691499514, -3.123582626021144], [-41.7636522051719, -3.123582626021144]]</t>
+          <t>[[-41.76365691499514, -3.123582626021144], [-41.76365220517184, -3.123582626021144]]</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[[-41.76365691499514, -3.123582626021144], [-41.76365691499514, -3.1235760794178513]]</t>
+          <t>[[-41.76365691499514, -3.123582626021144], [-41.76365691499514, -3.123589172624414]]</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -1982,12 +1982,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[[-41.76348347901872, -3.123719420671569], [-41.76347876919487, -3.123719420671569]]</t>
+          <t>[[-41.76348347901872, -3.123719420671569], [-41.76347876919481, -3.123719420671569]]</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[[-41.76348347901872, -3.123719420671569], [-41.76348347901872, -3.1237128740682936]]</t>
+          <t>[[-41.76348347901872, -3.123719420671569], [-41.76348347901872, -3.123725967274822]]</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -2019,12 +2019,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[[-41.76348347908712, -3.1236508033937063], [-41.76347876926358, -3.1236508033937063]]</t>
+          <t>[[-41.76348347908712, -3.1236508033937063], [-41.76347876926352, -3.1236508033937063]]</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[[-41.76348347908712, -3.1236508033937063], [-41.76348347908712, -3.123644256790421]]</t>
+          <t>[[-41.76348347908712, -3.1236508033937063], [-41.76348347908712, -3.1236573499969666]]</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -2056,12 +2056,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[[-41.76348347915507, -3.1235826258608568], [-41.76347876933183, -3.1235826258608568]]</t>
+          <t>[[-41.76348347915507, -3.1235826258608568], [-41.76347876933177, -3.1235826258608568]]</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[[-41.76348347915507, -3.1235826258608568], [-41.76348347915507, -3.1235760792575644]]</t>
+          <t>[[-41.76348347915507, -3.1235826258608568], [-41.76348347915507, -3.123589172464128]]</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -2093,12 +2093,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[[-41.76526958898353, -3.123971897902436], [-41.76526481868914, -3.123971897902436]]</t>
+          <t>[[-41.76526958898353, -3.123971897902436], [-41.76526481868887, -3.123971897902436]]</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[[-41.76526958898353, -3.123971897902436], [-41.76526958898353, -3.1239420207682373]]</t>
+          <t>[[-41.76526958898353, -3.123971897902436], [-41.76526958898353, -3.1240017750365965]]</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -2130,12 +2130,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[[-41.765269588937066, -3.123904867460635], [-41.765264818642976, -3.123904867460635]]</t>
+          <t>[[-41.765269588937066, -3.123904867460635], [-41.765264818642706, -3.123904867460635]]</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[[-41.765269588937066, -3.123904867460635], [-41.765269588937066, -3.123874990326397]]</t>
+          <t>[[-41.765269588937066, -3.123904867460635], [-41.765269588937066, -3.123934744594833]]</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -2167,12 +2167,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[[-41.76526958888929, -3.123835928041353], [-41.76526481859551, -3.123835928041353]]</t>
+          <t>[[-41.76526958888929, -3.123835928041353], [-41.76526481859524, -3.123835928041353]]</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[[-41.76526958888929, -3.123835928041353], [-41.76526958888929, -3.1238060509070764]]</t>
+          <t>[[-41.76526958888929, -3.123835928041353], [-41.76526958888929, -3.123865805175592]]</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -2204,12 +2204,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[[-41.765269588807136, -3.123717411510178], [-41.76526481851389, -3.123717411510178]]</t>
+          <t>[[-41.765269588807136, -3.123717411510178], [-41.76526481851362, -3.123717411510178]]</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[[-41.765269588807136, -3.123717411510178], [-41.765269588807136, -3.1236875343758332]]</t>
+          <t>[[-41.765269588807136, -3.123717411510178], [-41.765269588807136, -3.1237472886444837]]</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -2241,12 +2241,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[[-41.76526958876057, -3.123650211476233], [-41.76526481846763, -3.123650211476233]]</t>
+          <t>[[-41.76526958876057, -3.123650211476233], [-41.76526481846736, -3.123650211476233]]</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[[-41.76526958876057, -3.123650211476233], [-41.76526958876057, -3.1236203343418505]]</t>
+          <t>[[-41.76526958876057, -3.123650211476233], [-41.76526958876057, -3.1236800886105773]]</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -2278,12 +2278,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[[-41.76526958871336, -3.123582094970218], [-41.765264818420725, -3.123582094970218]]</t>
+          <t>[[-41.76526958871336, -3.123582094970218], [-41.765264818420455, -3.123582094970218]]</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[[-41.76526958871336, -3.123582094970218], [-41.76526958871336, -3.123552217835797]]</t>
+          <t>[[-41.76526958871336, -3.123582094970218], [-41.76526958871336, -3.1236119721046016]]</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2315,12 +2315,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[[-41.76462414091238, -3.12397189815533], [-41.76461937061799, -3.12397189815533]]</t>
+          <t>[[-41.76462414091238, -3.12397189815533], [-41.76461937061772, -3.12397189815533]]</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[[-41.76462414091238, -3.12397189815533], [-41.76462414091238, -3.123942021021132]]</t>
+          <t>[[-41.76462414091238, -3.12397189815533], [-41.76462414091238, -3.124001775289491]]</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -2352,12 +2352,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[[-41.76462414090685, -3.1239048677135286], [-41.764619370612756, -3.1239048677135286]]</t>
+          <t>[[-41.76462414090685, -3.1239048677135286], [-41.764619370612486, -3.1239048677135286]]</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[[-41.76462414090685, -3.1239048677135286], [-41.76462414090685, -3.1238749905792917]]</t>
+          <t>[[-41.76462414090685, -3.1239048677135286], [-41.76462414090685, -3.1239347448477277]]</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -2389,12 +2389,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[[-41.76462414090117, -3.123835928294244], [-41.76461937060739, -3.123835928294244]]</t>
+          <t>[[-41.76462414090117, -3.123835928294244], [-41.76461937060712, -3.123835928294244]]</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[[-41.76462414090117, -3.123835928294244], [-41.76462414090117, -3.123806051159968]]</t>
+          <t>[[-41.76462414090117, -3.123835928294244], [-41.76462414090117, -3.123865805428483]]</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -2426,12 +2426,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[[-41.7646241408914, -3.1237174117630646], [-41.764619370598155, -3.1237174117630646]]</t>
+          <t>[[-41.7646241408914, -3.1237174117630646], [-41.764619370597885, -3.1237174117630646]]</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[[-41.7646241408914, -3.1237174117630646], [-41.7646241408914, -3.12368753462872]]</t>
+          <t>[[-41.7646241408914, -3.1237174117630646], [-41.7646241408914, -3.1237472888973703]]</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -2463,12 +2463,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[[-41.76462414088586, -3.12365021172912], [-41.76461937059292, -3.12365021172912]]</t>
+          <t>[[-41.76462414088586, -3.12365021172912], [-41.76461937059265, -3.12365021172912]]</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[[-41.76462414088586, -3.12365021172912], [-41.76462414088586, -3.1236203345947375]]</t>
+          <t>[[-41.76462414088586, -3.12365021172912], [-41.76462414088586, -3.1236800888634644]]</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[[-41.76462414088024, -3.123582095223101], [-41.7646193705876, -3.123582095223101]]</t>
+          <t>[[-41.76462414088024, -3.123582095223101], [-41.76461937058733, -3.123582095223101]]</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[[-41.76462414088024, -3.123582095223101], [-41.76462414088024, -3.123552218088678]]</t>
+          <t>[[-41.76462414088024, -3.123582095223101], [-41.76462414088024, -3.1236119723574833]]</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -2537,12 +2537,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[[-41.76430115537715, -3.1239718981323734], [-41.76429638508276, -3.1239718981323734]]</t>
+          <t>[[-41.76430115537715, -3.1239718981323734], [-41.76429638508249, -3.1239718981323734]]</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[[-41.76430115537715, -3.1239718981323734], [-41.76430115537715, -3.1239420209981748]]</t>
+          <t>[[-41.76430115537715, -3.1239718981323734], [-41.76430115537715, -3.1240017752665334]]</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[[-41.7643011553921, -3.1239048676905723], [-41.76429638509801, -3.1239048676905723]]</t>
+          <t>[[-41.7643011553921, -3.1239048676905723], [-41.76429638509774, -3.1239048676905723]]</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[[-41.7643011553921, -3.1239048676905723], [-41.7643011553921, -3.123874990556334]]</t>
+          <t>[[-41.7643011553921, -3.1239048676905723], [-41.7643011553921, -3.123934744824771]]</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -2611,12 +2611,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[[-41.76430115540748, -3.123835928271288], [-41.7642963851137, -3.123835928271288]]</t>
+          <t>[[-41.76430115540748, -3.123835928271288], [-41.76429638511343, -3.123835928271288]]</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[[-41.76430115540748, -3.123835928271288], [-41.76430115540748, -3.123806051137011]]</t>
+          <t>[[-41.76430115540748, -3.123835928271288], [-41.76430115540748, -3.123865805405526]]</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[[-41.76430115543393, -3.1237174117401088], [-41.76429638514068, -3.1237174117401088]]</t>
+          <t>[[-41.76430115543393, -3.1237174117401088], [-41.76429638514041, -3.1237174117401088]]</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[[-41.76430115543393, -3.1237174117401088], [-41.76430115543393, -3.1236875346057644]]</t>
+          <t>[[-41.76430115543393, -3.1237174117401088], [-41.76430115543393, -3.1237472888744144]]</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -2685,12 +2685,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[[-41.76430115544892, -3.123650211706163], [-41.76429638515598, -3.123650211706163]]</t>
+          <t>[[-41.76430115544892, -3.123650211706163], [-41.76429638515571, -3.123650211706163]]</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[[-41.76430115544892, -3.123650211706163], [-41.76430115544892, -3.1236203345717803]]</t>
+          <t>[[-41.76430115544892, -3.123650211706163], [-41.76430115544892, -3.1236800888405067]]</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -2722,12 +2722,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[[-41.76430115546412, -3.1235820952001454], [-41.764296385171484, -3.1235820952001454]]</t>
+          <t>[[-41.76430115546412, -3.1235820952001454], [-41.764296385171214, -3.1235820952001454]]</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[[-41.76430115546412, -3.1235820952001454], [-41.76430115546412, -3.1235522180657243]]</t>
+          <t>[[-41.76430115546412, -3.1235820952001454], [-41.76430115546412, -3.123611972334529]]</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[[-41.76420348993651, -3.1237174117135305], [-41.76419871964327, -3.1237174117135305]]</t>
+          <t>[[-41.76420348993651, -3.1237174117135305], [-41.764198719643, -3.1237174117135305]]</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[[-41.76420348993651, -3.1237174117135305], [-41.76420348993651, -3.1236875345791852]]</t>
+          <t>[[-41.76420348993651, -3.1237174117135305], [-41.76420348993651, -3.1237472888478357]]</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -2796,12 +2796,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[[-41.76420348995772, -3.123650211679585], [-41.76419871966478, -3.123650211679585]]</t>
+          <t>[[-41.76420348995772, -3.123650211679585], [-41.76419871966451, -3.123650211679585]]</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[[-41.76420348995772, -3.123650211679585], [-41.76420348995772, -3.123620334545203]]</t>
+          <t>[[-41.76420348995772, -3.123650211679585], [-41.76420348995772, -3.1236800888139293]]</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -2833,12 +2833,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[[-41.76420348997921, -3.123582095173568], [-41.764198719686576, -3.123582095173568]]</t>
+          <t>[[-41.76420348997921, -3.123582095173568], [-41.764198719686306, -3.123582095173568]]</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[[-41.76420348997921, -3.123582095173568], [-41.76420348997921, -3.1235522180391464]]</t>
+          <t>[[-41.76420348997921, -3.123582095173568], [-41.76420348997921, -3.123611972307951]]</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -2870,12 +2870,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[[-41.763547589569725, -3.123717411298799], [-41.76354281927648, -3.123717411298799]]</t>
+          <t>[[-41.763547589569725, -3.123717411298799], [-41.76354281927621, -3.123717411298799]]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[[-41.763547589569725, -3.123717411298799], [-41.763547589569725, -3.1236875341644548]]</t>
+          <t>[[-41.763547589569725, -3.123717411298799], [-41.763547589569725, -3.1237472884331052]]</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -2907,12 +2907,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[[-41.76354758963264, -3.123650211264855], [-41.7635428193397, -3.123650211264855]]</t>
+          <t>[[-41.76354758963264, -3.123650211264855], [-41.76354281933943, -3.123650211264855]]</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[[-41.76354758963264, -3.123650211264855], [-41.76354758963264, -3.123620334130473]]</t>
+          <t>[[-41.76354758963264, -3.123650211264855], [-41.76354758963264, -3.123680088399199]]</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -2944,12 +2944,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[[-41.7635475896964, -3.1235820947588424], [-41.76354281940377, -3.1235820947588424]]</t>
+          <t>[[-41.7635475896964, -3.1235820947588424], [-41.7635428194035, -3.1235820947588424]]</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[[-41.7635475896964, -3.1235820947588424], [-41.7635475896964, -3.123552217624421]]</t>
+          <t>[[-41.7635475896964, -3.1235820947588424], [-41.7635475896964, -3.1236119718932254]]</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -2981,12 +2981,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[[-41.76468855969304, -3.1239737325408505], [-41.76468222412363, -3.1239737325408505]]</t>
+          <t>[[-41.76468855969304, -3.1239737325408505], [-41.76468222412354, -3.1239737325408505]]</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[[-41.76468855969304, -3.1239737325408505], [-41.76468855969304, -3.123965984926436]]</t>
+          <t>[[-41.76468855969304, -3.1239737325408505], [-41.76468855969304, -3.1239814801552246]]</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -3018,12 +3018,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[[-41.76468855968342, -3.1239067169331607], [-41.764682224114416, -3.1239067169331607]]</t>
+          <t>[[-41.76468855968342, -3.1239067169331607], [-41.764682224114324, -3.1239067169331607]]</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[[-41.76468855968342, -3.1239067169331607], [-41.76468855968342, -3.123898969318737]]</t>
+          <t>[[-41.76468855968342, -3.1239067169331607], [-41.76468855968342, -3.1239144645475454]]</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -3055,12 +3055,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[[-41.76468855967352, -3.123837638901201], [-41.76468222410493, -3.123837638901201]]</t>
+          <t>[[-41.76468855967352, -3.123837638901201], [-41.76468222410484, -3.123837638901201]]</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[[-41.76468855967352, -3.123837638901201], [-41.76468855967352, -3.1238298912867672]]</t>
+          <t>[[-41.76468855967352, -3.123837638901201], [-41.76468855967352, -3.1238453865155966]]</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -3092,12 +3092,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[[-41.7646885596563, -3.1237175259438605], [-41.764682224088425, -3.1237175259438605]]</t>
+          <t>[[-41.7646885596563, -3.1237175259438605], [-41.76468222408833, -3.1237175259438605]]</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[[-41.7646885596563, -3.1237175259438605], [-41.7646885596563, -3.1237097783294088]]</t>
+          <t>[[-41.7646885596563, -3.1237175259438605], [-41.7646885596563, -3.1237252735582732]]</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -3129,12 +3129,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[[-41.764688559646686, -3.1236505100598606], [-41.764682224079216, -3.1236505100598606]]</t>
+          <t>[[-41.764688559646686, -3.1236505100598606], [-41.764682224079124, -3.1236505100598606]]</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[[-41.764688559646686, -3.1236505100598606], [-41.764688559646686, -3.1236427624453995]]</t>
+          <t>[[-41.764688559646686, -3.1236505100598606], [-41.764688559646686, -3.123658257674284]]</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -3166,12 +3166,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[[-41.764688559637, -3.1235829787767133], [-41.76468222406994, -3.1235829787767133]]</t>
+          <t>[[-41.764688559637, -3.1235829787767133], [-41.764682224069844, -3.1235829787767133]]</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[[-41.764688559637, -3.1235829787767133], [-41.764688559637, -3.123575231162242]]</t>
+          <t>[[-41.764688559637, -3.1235829787767133], [-41.764688559637, -3.123590726391146]]</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -3203,12 +3203,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[[-41.764367324426416, -3.123973732538068], [-41.76436098885701, -3.123973732538068]]</t>
+          <t>[[-41.764367324426416, -3.123973732538068], [-41.764360988856915, -3.123973732538068]]</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[[-41.764367324426416, -3.123973732538068], [-41.764367324426416, -3.123965984923654]]</t>
+          <t>[[-41.764367324426416, -3.123973732538068], [-41.764367324426416, -3.1239814801524424]]</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -3240,12 +3240,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[[-41.76436732443717, -3.12390671693038], [-41.76436098886816, -3.12390671693038]]</t>
+          <t>[[-41.76436732443717, -3.12390671693038], [-41.76436098886806, -3.12390671693038]]</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[[-41.76436732443717, -3.12390671693038], [-41.76436732443717, -3.123898969315956]]</t>
+          <t>[[-41.76436732443717, -3.12390671693038], [-41.76436732443717, -3.123914464544765]]</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -3277,12 +3277,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[[-41.76436732444826, -3.123837638898419], [-41.764360988879666, -3.123837638898419]]</t>
+          <t>[[-41.76436732444826, -3.123837638898419], [-41.764360988879574, -3.123837638898419]]</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[[-41.76436732444826, -3.123837638898419], [-41.76436732444826, -3.1238298912839846]]</t>
+          <t>[[-41.76436732444826, -3.123837638898419], [-41.76436732444826, -3.123845386512815]]</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -3314,12 +3314,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[[-41.764367324467536, -3.123717525941079], [-41.76436098889966, -3.123717525941079]]</t>
+          <t>[[-41.764367324467536, -3.123717525941079], [-41.76436098889957, -3.123717525941079]]</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[[-41.764367324467536, -3.123717525941079], [-41.764367324467536, -3.1237097783266283]]</t>
+          <t>[[-41.764367324467536, -3.123717525941079], [-41.764367324467536, -3.1237252735554923]]</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -3351,12 +3351,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[[-41.7643673244783, -3.1236505100570797], [-41.76436098891083, -3.1236505100570797]]</t>
+          <t>[[-41.7643673244783, -3.1236505100570797], [-41.76436098891074, -3.1236505100570797]]</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[[-41.7643673244783, -3.1236505100570797], [-41.7643673244783, -3.123642762442618]]</t>
+          <t>[[-41.7643673244783, -3.1236505100570797], [-41.7643673244783, -3.1236582576715035]]</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -3388,12 +3388,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[[-41.764367324489136, -3.1235829787739324], [-41.76436098892207, -3.1235829787739324]]</t>
+          <t>[[-41.764367324489136, -3.1235829787739324], [-41.76436098892198, -3.1235829787739324]]</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[[-41.764367324489136, -3.1235829787739324], [-41.764367324489136, -3.1235752311594607]]</t>
+          <t>[[-41.764367324489136, -3.1235829787739324], [-41.764367324489136, -3.123590726388365]]</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -3425,12 +3425,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[[-41.764136921382175, -3.123717525878335], [-41.7641305858143, -3.123717525878335]]</t>
+          <t>[[-41.764136921382175, -3.123717525878335], [-41.76413058581421, -3.123717525878335]]</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[[-41.764136921382175, -3.123717525878335], [-41.764136921382175, -3.123709778263884]]</t>
+          <t>[[-41.764136921382175, -3.123717525878335], [-41.764136921382175, -3.1237252734927483]]</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -3462,12 +3462,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[[-41.764136921407534, -3.123650509994336], [-41.764130585840064, -3.123650509994336]]</t>
+          <t>[[-41.764136921407534, -3.123650509994336], [-41.76413058583997, -3.123650509994336]]</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[[-41.764136921407534, -3.123650509994336], [-41.764136921407534, -3.1236427623798746]]</t>
+          <t>[[-41.764136921407534, -3.123650509994336], [-41.764136921407534, -3.12365825760876]]</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -3499,12 +3499,12 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[[-41.7641369214331, -3.123582978711189], [-41.764130585866035, -3.123582978711189]]</t>
+          <t>[[-41.7641369214331, -3.123582978711189], [-41.76413058586594, -3.123582978711189]]</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[[-41.7641369214331, -3.123582978711189], [-41.7641369214331, -3.123575231096717]]</t>
+          <t>[[-41.7641369214331, -3.123582978711189], [-41.7641369214331, -3.1235907263256215]]</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -3536,12 +3536,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[[-41.76510239646874, -3.123971897937168], [-41.7650974500502, -3.123971897937168]]</t>
+          <t>[[-41.76510239646874, -3.123971897937168], [-41.765097450050106, -3.123971897937168]]</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[[-41.76510239646874, -3.123971897937168], [-41.76510239646874, -3.12396204971056]]</t>
+          <t>[[-41.76510239646874, -3.123971897937168], [-41.76510239646874, -3.123981746163751]]</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -3573,12 +3573,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[[-41.765102396432326, -3.123903806822044], [-41.7650974500141, -3.123903806822044]]</t>
+          <t>[[-41.765102396432326, -3.123903806822044], [-41.76509745001401, -3.123903806822044]]</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[[-41.765102396432326, -3.123903806822044], [-41.765102396432326, -3.1238939585954233]]</t>
+          <t>[[-41.765102396432326, -3.123903806822044], [-41.765102396432326, -3.1239136550486397]]</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -3610,12 +3610,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[[-41.76510239639556, -3.123835079496027], [-41.76509744997766, -3.123835079496027]]</t>
+          <t>[[-41.76510239639556, -3.123835079496027], [-41.76509744997757, -3.123835079496027]]</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[[-41.76510239639556, -3.123835079496027], [-41.76510239639556, -3.123825231269393]]</t>
+          <t>[[-41.76510239639556, -3.123835079496027], [-41.76510239639556, -3.123844927722635]]</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -3647,12 +3647,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[[-41.7651023963338, -3.1237196175839754], [-41.76509744991644, -3.1237196175839754]]</t>
+          <t>[[-41.7651023963338, -3.1237196175839754], [-41.76509744991635, -3.1237196175839754]]</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[[-41.7651023963338, -3.1237196175839754], [-41.7651023963338, -3.1237097693573204]]</t>
+          <t>[[-41.7651023963338, -3.1237196175839754], [-41.7651023963338, -3.1237294658106056]]</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -3684,12 +3684,12 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>[[-41.76510239629694, -3.1236507068322275], [-41.7650974498799, -3.1236507068322275]]</t>
+          <t>[[-41.76510239629694, -3.1236507068322275], [-41.76509744987981, -3.1236507068322275]]</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[[-41.76510239629694, -3.1236507068322275], [-41.76510239629694, -3.1236408586055595]]</t>
+          <t>[[-41.76510239629694, -3.1236507068322275], [-41.76510239629694, -3.123660555058871]]</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -3721,12 +3721,12 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>[[-41.76510239626028, -3.1235821628278737], [-41.765097449843566, -3.1235821628278737]]</t>
+          <t>[[-41.76510239626028, -3.1235821628278737], [-41.76509744984347, -3.1235821628278737]]</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[[-41.76510239626028, -3.1235821628278737], [-41.76510239626028, -3.123572314601192]]</t>
+          <t>[[-41.76510239626028, -3.1235821628278737], [-41.76510239626028, -3.1235920110545305]]</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -3758,12 +3758,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[[-41.76451353013718, -3.1239718980897], [-41.76450858371864, -3.1239718980897]]</t>
+          <t>[[-41.76451353013718, -3.1239718980897], [-41.764508583718545, -3.1239718980897]]</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[[-41.76451353013718, -3.1239718980897], [-41.76451353013718, -3.123962049863092]]</t>
+          <t>[[-41.76451353013718, -3.1239718980897], [-41.76451353013718, -3.123981746316283]]</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -3795,12 +3795,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[[-41.764513530138686, -3.123903806974577], [-41.76450858372046, -3.123903806974577]]</t>
+          <t>[[-41.764513530138686, -3.123903806974577], [-41.76450858372037, -3.123903806974577]]</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[[-41.764513530138686, -3.123903806974577], [-41.764513530138686, -3.123893958747956]]</t>
+          <t>[[-41.764513530138686, -3.123903806974577], [-41.764513530138686, -3.123913655201173]]</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -3832,12 +3832,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[[-41.764513530140206, -3.1238350796485586], [-41.764508583722304, -3.1238350796485586]]</t>
+          <t>[[-41.764513530140206, -3.1238350796485586], [-41.76450858372221, -3.1238350796485586]]</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[[-41.764513530140206, -3.1238350796485586], [-41.764513530140206, -3.1238252314219244]]</t>
+          <t>[[-41.764513530140206, -3.1238350796485586], [-41.764513530140206, -3.123844927875167]]</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -3869,12 +3869,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>[[-41.76451353014278, -3.123719617736505], [-41.764508583725416, -3.123719617736505]]</t>
+          <t>[[-41.76451353014278, -3.123719617736505], [-41.76450858372532, -3.123719617736505]]</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[[-41.76451353014278, -3.123719617736505], [-41.76451353014278, -3.123709769509849]]</t>
+          <t>[[-41.76451353014278, -3.123719617736505], [-41.76451353014278, -3.123729465963135]]</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -3906,12 +3906,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>[[-41.76451353014431, -3.123650707053752], [-41.76450858372728, -3.123650707053752]]</t>
+          <t>[[-41.76451353014431, -3.123650707053752], [-41.764508583727185, -3.123650707053752]]</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[[-41.76451353014431, -3.123650707053752], [-41.76451353014431, -3.123640858827084]]</t>
+          <t>[[-41.76451353014431, -3.123650707053752], [-41.76451353014431, -3.123660555280395]]</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -3943,12 +3943,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[[-41.76451353014584, -3.123582162980401], [-41.764508583729125, -3.123582162980401]]</t>
+          <t>[[-41.76451353014584, -3.123582162980401], [-41.76450858372903, -3.123582162980401]]</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[[-41.76451353014584, -3.123582162980401], [-41.76451353014584, -3.123572314753719]]</t>
+          <t>[[-41.76451353014584, -3.123582162980401], [-41.76451353014584, -3.1235920112070574]]</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -3980,12 +3980,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>[[-41.763714383397, -3.1237196174133297], [-41.76370943697964, -3.1237196174133297]]</t>
+          <t>[[-41.763714383397, -3.1237196174133297], [-41.763709436979546, -3.1237196174133297]]</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[[-41.763714383397, -3.1237196174133297], [-41.763714383397, -3.123709769186674]]</t>
+          <t>[[-41.763714383397, -3.1237196174133297], [-41.763714383397, -3.123729465639961]]</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -4017,12 +4017,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[[-41.76371438345063, -3.1236507066615826], [-41.7637094370336, -3.1236507066615826]]</t>
+          <t>[[-41.76371438345063, -3.1236507066615826], [-41.763709437033505, -3.1236507066615826]]</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[[-41.76371438345063, -3.1236507066615826], [-41.76371438345063, -3.1236408584349147]]</t>
+          <t>[[-41.76371438345063, -3.1236507066615826], [-41.76371438345063, -3.1236605548882257]]</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -4054,12 +4054,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>[[-41.76371438350398, -3.123582162657231], [-41.763709437087265, -3.123582162657231]]</t>
+          <t>[[-41.76371438350398, -3.123582162657231], [-41.76370943708717, -3.123582162657231]]</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[[-41.76371438350398, -3.123582162657231], [-41.76371438350398, -3.1235723144305494]]</t>
+          <t>[[-41.76371438350398, -3.123582162657231], [-41.76371438350398, -3.1235920108838884]]</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -4091,12 +4091,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>[[-41.76475576509744, -3.123971897929096], [-41.76474912313123, -3.123971897929096]]</t>
+          <t>[[-41.76475576509744, -3.123971897929096], [-41.764749123130954, -3.123971897929096]]</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[[-41.76475576509744, -3.123971897929096], [-41.76475576509744, -3.12394966308594]]</t>
+          <t>[[-41.76475576509744, -3.123971897929096], [-41.76475576509744, -3.123994132772201]]</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -4128,12 +4128,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>[[-41.76475576508389, -3.123906432106364], [-41.764749123118094, -3.123906432106364]]</t>
+          <t>[[-41.76475576508389, -3.123906432106364], [-41.76474912311782, -3.123906432106364]]</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[[-41.76475576508389, -3.123906432106364], [-41.76475576508389, -3.1238841972631795]]</t>
+          <t>[[-41.76475576508389, -3.123906432106364], [-41.76475576508389, -3.1239286669494963]]</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -4165,12 +4165,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>[[-41.7647557650696, -3.1238373543503872], [-41.76474912310424, -3.1238373543503872]]</t>
+          <t>[[-41.7647557650696, -3.1238373543503872], [-41.76474912310396, -3.1238373543503872]]</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[[-41.7647557650696, -3.1238373543503872], [-41.7647557650696, -3.1238151195071735]]</t>
+          <t>[[-41.7647557650696, -3.1238373543503872], [-41.7647557650696, -3.1238595891935494]]</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -4202,12 +4202,12 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>[[-41.76475576504495, -3.123718272432652], [-41.764749123080335, -3.123718272432652]]</t>
+          <t>[[-41.76475576504495, -3.123718272432652], [-41.76474912308006, -3.123718272432652]]</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>[[-41.76475576504495, -3.123718272432652], [-41.76475576504495, -3.1236960375893883]]</t>
+          <t>[[-41.76475576504495, -3.123718272432652], [-41.76475576504495, -3.1237405072758646]]</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -4239,12 +4239,12 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>[[-41.76475576503129, -3.12365228758826], [-41.76474912306709, -3.12365228758826]]</t>
+          <t>[[-41.76475576503129, -3.12365228758826], [-41.76474912306681, -3.12365228758826]]</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[[-41.76475576503129, -3.12365228758826], [-41.76475576503129, -3.1236300527449683]]</t>
+          <t>[[-41.76475576503129, -3.12365228758826], [-41.76475576503129, -3.1236745224315]]</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -4276,12 +4276,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>[[-41.76475576501678, -3.1235821787578426], [-41.76474912305302, -3.1235821787578426]]</t>
+          <t>[[-41.76475576501678, -3.1235821787578426], [-41.76474912305274, -3.1235821787578426]]</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>[[-41.76475576501678, -3.1235821787578426], [-41.76475576501678, -3.1235599439145214]]</t>
+          <t>[[-41.76475576501678, -3.1235821787578426], [-41.76475576501678, -3.123604413601113]]</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -4313,12 +4313,12 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[[-41.76444440170394, -3.1237182724514287], [-41.76443775973932, -3.1237182724514287]]</t>
+          <t>[[-41.76444440170394, -3.1237182724514287], [-41.764437759739046, -3.1237182724514287]]</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>[[-41.76444440170394, -3.1237182724514287], [-41.76444440170394, -3.1236960376081644]]</t>
+          <t>[[-41.76444440170394, -3.1237182724514287], [-41.76444440170394, -3.123740507294642]]</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -4350,12 +4350,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[[-41.76444440170972, -3.1236522876070354], [-41.76443775974552, -3.1236522876070354]]</t>
+          <t>[[-41.76444440170972, -3.1236522876070354], [-41.764437759745235, -3.1236522876070354]]</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>[[-41.76444440170972, -3.1236522876070354], [-41.76444440170972, -3.123630052763743]]</t>
+          <t>[[-41.76444440170972, -3.1236522876070354], [-41.76444440170972, -3.1236745224502758]]</t>
         </is>
       </c>
       <c r="H106" t="n">
@@ -4387,12 +4387,12 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>[[-41.764444401715856, -3.123582178776618], [-41.7644377597521, -3.123582178776618]]</t>
+          <t>[[-41.764444401715856, -3.123582178776618], [-41.764437759751814, -3.123582178776618]]</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>[[-41.764444401715856, -3.123582178776618], [-41.764444401715856, -3.1235599439332966]]</t>
+          <t>[[-41.764444401715856, -3.123582178776618], [-41.764444401715856, -3.123604413619889]]</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -4424,12 +4424,12 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>[[-41.764060514731966, -3.1237182723470105], [-41.76405387276735, -3.1237182723470105]]</t>
+          <t>[[-41.764060514731966, -3.1237182723470105], [-41.76405387276707, -3.1237182723470105]]</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>[[-41.764060514731966, -3.1237182723470105], [-41.764060514731966, -3.1236960375037466]]</t>
+          <t>[[-41.764060514731966, -3.1237182723470105], [-41.764060514731966, -3.1237405071902233]]</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -4461,12 +4461,12 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>[[-41.76499550167243, -3.1240331142882614], [-41.76499055525359, -3.1240331142882614]]</t>
+          <t>[[-41.76499550167243, -3.1240331142882614], [-41.764990555253526, -3.1240331142882614]]</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>[[-41.76499550167243, -3.1240331142882614], [-41.76499550167243, -3.1240260554600034]]</t>
+          <t>[[-41.76499550167243, -3.1240331142882614], [-41.76499550167243, -3.1240401731164975]]</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>[[-41.76499550165394, -3.1239905134858774], [-41.7649905552353, -3.1239905134858774]]</t>
+          <t>[[-41.76499550165394, -3.1239905134858774], [-41.76499055523524, -3.1239905134858774]]</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>[[-41.76499550165394, -3.1239905134858774], [-41.76499550165394, -3.123983454657613]]</t>
+          <t>[[-41.76499550165394, -3.1239905134858774], [-41.76499550165394, -3.123997572314117]]</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -4535,12 +4535,12 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>[[-41.76499550163409, -3.123944728800605], [-41.76499055521566, -3.123944728800605]]</t>
+          <t>[[-41.76499550163409, -3.123944728800605], [-41.7649905552156, -3.123944728800605]]</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[[-41.76499550163409, -3.123944728800605], [-41.76499550163409, -3.123937669972334]]</t>
+          <t>[[-41.76499550163409, -3.123944728800605], [-41.76499550163409, -3.1239517876288514]]</t>
         </is>
       </c>
       <c r="H111" t="n">
@@ -4572,12 +4572,12 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>[[-41.7649955015985, -3.1238626896208057], [-41.764990555180454, -3.1238626896208057]]</t>
+          <t>[[-41.7649955015985, -3.1238626896208057], [-41.76499055518039, -3.1238626896208057]]</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[[-41.7649955015985, -3.1238626896208057], [-41.7649955015985, -3.1238556307925234]]</t>
+          <t>[[-41.7649955015985, -3.1238626896208057], [-41.7649955015985, -3.1238697484490623]]</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -4609,12 +4609,12 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>[[-41.764995501561295, -3.123776921180254], [-41.764990555143655, -3.123776921180254]]</t>
+          <t>[[-41.764995501561295, -3.123776921180254], [-41.764990555143584, -3.123776921180254]]</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>[[-41.764995501561295, -3.123776921180254], [-41.764995501561295, -3.1237698623519607]]</t>
+          <t>[[-41.764995501561295, -3.123776921180254], [-41.764995501561295, -3.1237839800085236]]</t>
         </is>
       </c>
       <c r="H113" t="n">
@@ -4646,12 +4646,12 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>[[-41.76499550154188, -3.123732172502104], [-41.76499055512445, -3.123732172502104]]</t>
+          <t>[[-41.76499550154188, -3.123732172502104], [-41.764990555124385, -3.123732172502104]]</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>[[-41.76499550154188, -3.123732172502104], [-41.76499550154188, -3.123725113673804]]</t>
+          <t>[[-41.76499550154188, -3.123732172502104], [-41.76499550154188, -3.123739231330379]]</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -4683,12 +4683,12 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>[[-41.76499550152403, -3.123691003674012], [-41.764990555106785, -3.123691003674012]]</t>
+          <t>[[-41.76499550152403, -3.123691003674012], [-41.76499055510672, -3.123691003674012]]</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>[[-41.76499550152403, -3.123691003674012], [-41.76499550152403, -3.1236839448457077]]</t>
+          <t>[[-41.76499550152403, -3.123691003674012], [-41.76499550152403, -3.1236980625022936]]</t>
         </is>
       </c>
       <c r="H115" t="n">
@@ -4720,12 +4720,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>[[-41.76499550148844, -3.123608964390322], [-41.764990555071584, -3.123608964390322]]</t>
+          <t>[[-41.76499550148844, -3.123608964390322], [-41.76499055507152, -3.123608964390322]]</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>[[-41.76499550148844, -3.123608964390322], [-41.76499550148844, -3.1236019055620057]]</t>
+          <t>[[-41.76499550148844, -3.123608964390322], [-41.76499550148844, -3.1236160232186134]]</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -4757,12 +4757,12 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>[[-41.76499550145065, -3.123521843941013], [-41.7649905550342, -3.123521843941013]]</t>
+          <t>[[-41.76499550145065, -3.123521843941013], [-41.76499055503413, -3.123521843941013]]</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>[[-41.76499550145065, -3.123521843941013], [-41.76499550145065, -3.1235147851126857]]</t>
+          <t>[[-41.76499550145065, -3.123521843941013], [-41.76499550145065, -3.123528902769317]]</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -4794,12 +4794,12 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>[[-41.76499550140727, -3.1234218360656363], [-41.76499055499129, -3.1234218360656363]]</t>
+          <t>[[-41.76499550140727, -3.1234218360656363], [-41.76499055499122, -3.1234218360656363]]</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>[[-41.76499550140727, -3.1234218360656363], [-41.76499550140727, -3.1234147772372953]]</t>
+          <t>[[-41.76499550140727, -3.1234218360656363], [-41.76499550140727, -3.1234288948939533]]</t>
         </is>
       </c>
       <c r="H118" t="n">
@@ -4831,12 +4831,12 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>[[-41.763972442796366, -3.124032183275293], [-41.76396749637753, -3.124032183275293]]</t>
+          <t>[[-41.763972442796366, -3.124032183275293], [-41.76396749637746, -3.124032183275293]]</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>[[-41.763972442796366, -3.124032183275293], [-41.763972442796366, -3.1240251244470345]]</t>
+          <t>[[-41.763972442796366, -3.124032183275293], [-41.763972442796366, -3.1240392421035286]]</t>
         </is>
       </c>
       <c r="H119" t="n">
@@ -4868,12 +4868,12 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>[[-41.76397244281862, -3.123990513434016], [-41.76396749639998, -3.123990513434016]]</t>
+          <t>[[-41.76397244281862, -3.123990513434016], [-41.763967496399914, -3.123990513434016]]</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>[[-41.76397244281862, -3.123990513434016], [-41.76397244281862, -3.123983454605751]]</t>
+          <t>[[-41.76397244281862, -3.123990513434016], [-41.76397244281862, -3.123997572262256]]</t>
         </is>
       </c>
       <c r="H120" t="n">
@@ -4905,12 +4905,12 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>[[-41.76397244284308, -3.123944728748744], [-41.76396749642465, -3.123944728748744]]</t>
+          <t>[[-41.76397244284308, -3.123944728748744], [-41.763967496424584, -3.123944728748744]]</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>[[-41.76397244284308, -3.123944728748744], [-41.76397244284308, -3.1239376699204726]]</t>
+          <t>[[-41.76397244284308, -3.123944728748744], [-41.76397244284308, -3.1239517875769898]]</t>
         </is>
       </c>
       <c r="H121" t="n">
@@ -4942,12 +4942,12 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>[[-41.763972442886896, -3.1238626895689445], [-41.76396749646885, -3.1238626895689445]]</t>
+          <t>[[-41.763972442886896, -3.1238626895689445], [-41.76396749646879, -3.1238626895689445]]</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>[[-41.763972442886896, -3.1238626895689445], [-41.763972442886896, -3.123855630740662]]</t>
+          <t>[[-41.763972442886896, -3.1238626895689445], [-41.763972442886896, -3.1238697483972016]]</t>
         </is>
       </c>
       <c r="H122" t="n">
@@ -4979,12 +4979,12 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>[[-41.76397244293271, -3.123776921128395], [-41.76396749651507, -3.123776921128395]]</t>
+          <t>[[-41.76397244293271, -3.123776921128395], [-41.763967496515, -3.123776921128395]]</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>[[-41.76397244293271, -3.123776921128395], [-41.76397244293271, -3.1237698623001013]]</t>
+          <t>[[-41.76397244293271, -3.123776921128395], [-41.76397244293271, -3.123783979956664]]</t>
         </is>
       </c>
       <c r="H123" t="n">
@@ -5016,12 +5016,12 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>[[-41.76397244295661, -3.123732172450243], [-41.76396749653917, -3.123732172450243]]</t>
+          <t>[[-41.76397244295661, -3.123732172450243], [-41.76396749653911, -3.123732172450243]]</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>[[-41.76397244295661, -3.123732172450243], [-41.76397244295661, -3.1237251136219433]]</t>
+          <t>[[-41.76397244295661, -3.123732172450243], [-41.76397244295661, -3.1237392312785177]]</t>
         </is>
       </c>
       <c r="H124" t="n">
@@ -5053,12 +5053,12 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>[[-41.7639724429786, -3.1236910036221524], [-41.76396749656136, -3.1236910036221524]]</t>
+          <t>[[-41.7639724429786, -3.1236910036221524], [-41.76396749656129, -3.1236910036221524]]</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>[[-41.7639724429786, -3.1236910036221524], [-41.7639724429786, -3.123683944793848]]</t>
+          <t>[[-41.7639724429786, -3.1236910036221524], [-41.7639724429786, -3.1236980624504334]]</t>
         </is>
       </c>
       <c r="H125" t="n">
@@ -5090,12 +5090,12 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>[[-41.763972442999936, -3.123651051811972], [-41.763967496582886, -3.123651051811972]]</t>
+          <t>[[-41.763972442999936, -3.123651051811972], [-41.763967496582815, -3.123651051811972]]</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>[[-41.763972442999936, -3.123651051811972], [-41.763972442999936, -3.123643992983661]]</t>
+          <t>[[-41.763972442999936, -3.123651051811972], [-41.763972442999936, -3.123658110640258]]</t>
         </is>
       </c>
       <c r="H126" t="n">
@@ -5127,12 +5127,12 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>[[-41.76397244302242, -3.1236089643384632], [-41.76396749660556, -3.1236089643384632]]</t>
+          <t>[[-41.76397244302242, -3.1236089643384632], [-41.763967496605495, -3.1236089643384632]]</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>[[-41.76397244302242, -3.1236089643384632], [-41.76397244302242, -3.1236019055101467]]</t>
+          <t>[[-41.76397244302242, -3.1236089643384632], [-41.76397244302242, -3.1236160231667545]]</t>
         </is>
       </c>
       <c r="H127" t="n">
@@ -5164,12 +5164,12 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>[[-41.76397244304398, -3.1235685830635003], [-41.763967496627316, -3.1235685830635003]]</t>
+          <t>[[-41.76397244304398, -3.1235685830635003], [-41.76396749662725, -3.1235685830635003]]</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>[[-41.76397244304398, -3.1235685830635003], [-41.76397244304398, -3.1235615242351793]]</t>
+          <t>[[-41.76397244304398, -3.1235685830635003], [-41.76397244304398, -3.1235756418917977]]</t>
         </is>
       </c>
       <c r="H128" t="n">
@@ -5201,12 +5201,12 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>[[-41.763972443068944, -3.1235218438891548], [-41.7639674966525, -3.1235218438891548]]</t>
+          <t>[[-41.763972443068944, -3.1235218438891548], [-41.76396749665243, -3.1235218438891548]]</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>[[-41.763972443068944, -3.1235218438891548], [-41.763972443068944, -3.1235147850608267]]</t>
+          <t>[[-41.763972443068944, -3.1235218438891548], [-41.763972443068944, -3.1235289027174584]]</t>
         </is>
       </c>
       <c r="H129" t="n">
@@ -5238,12 +5238,12 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>[[-41.76397244312236, -3.123421836013778], [-41.763967496706385, -3.123421836013778]]</t>
+          <t>[[-41.76397244312236, -3.123421836013778], [-41.763967496706314, -3.123421836013778]]</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>[[-41.76397244312236, -3.123421836013778], [-41.76397244312236, -3.123414777185437]]</t>
+          <t>[[-41.76397244312236, -3.123421836013778], [-41.76397244312236, -3.1234288948420947]]</t>
         </is>
       </c>
       <c r="H130" t="n">
@@ -5275,12 +5275,12 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>[[-41.76492103930845, -3.123990513515865], [-41.764916092889806, -3.123990513515865]]</t>
+          <t>[[-41.76492103930845, -3.123990513515865], [-41.76491609288974, -3.123990513515865]]</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>[[-41.76492103930845, -3.123990513515865], [-41.76492103930845, -3.123983454653235]]</t>
+          <t>[[-41.76492103930845, -3.123990513515865], [-41.76492103930845, -3.1239975723784696]]</t>
         </is>
       </c>
       <c r="H131" t="n">
@@ -5312,12 +5312,12 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>[[-41.76492103929376, -3.123950060554499], [-41.76491609287531, -3.123950060554499]]</t>
+          <t>[[-41.76492103929376, -3.123950060554499], [-41.76491609287524, -3.123950060554499]]</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>[[-41.76492103929376, -3.123950060554499], [-41.76492103929376, -3.123943001691864]]</t>
+          <t>[[-41.76492103929376, -3.123950060554499], [-41.76492103929376, -3.1239571194171107]]</t>
         </is>
       </c>
       <c r="H132" t="n">
@@ -5349,12 +5349,12 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>[[-41.76492103927854, -3.123908175791059], [-41.76491609286028, -3.123908175791059]]</t>
+          <t>[[-41.76492103927854, -3.123908175791059], [-41.76491609286022, -3.123908175791059]]</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>[[-41.76492103927854, -3.123908175791059], [-41.76492103927854, -3.123901116928418]]</t>
+          <t>[[-41.76492103927854, -3.123908175791059], [-41.76492103927854, -3.1239152346536763]]</t>
         </is>
       </c>
       <c r="H133" t="n">
@@ -5386,12 +5386,12 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>[[-41.764921039261885, -3.1238623532269894], [-41.76491609284385, -3.1238623532269894]]</t>
+          <t>[[-41.764921039261885, -3.1238623532269894], [-41.76491609284378, -3.1238623532269894]]</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>[[-41.764921039261885, -3.1238623532269894], [-41.764921039261885, -3.1238552943643425]]</t>
+          <t>[[-41.764921039261885, -3.1238623532269894], [-41.764921039261885, -3.1238694120896118]]</t>
         </is>
       </c>
       <c r="H134" t="n">
@@ -5423,12 +5423,12 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>[[-41.7649210392308, -3.1237767935334046], [-41.76491609281316, -3.1237767935334046]]</t>
+          <t>[[-41.7649210392308, -3.1237767935334046], [-41.764916092813095, -3.1237767935334046]]</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>[[-41.7649210392308, -3.1237767935334046], [-41.7649210392308, -3.1237697346707463]]</t>
+          <t>[[-41.7649210392308, -3.1237767935334046], [-41.7649210392308, -3.123783852396039]]</t>
         </is>
       </c>
       <c r="H135" t="n">
@@ -5460,12 +5460,12 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>[[-41.7649210392152, -3.1237338349182937], [-41.76491609279776, -3.1237338349182937]]</t>
+          <t>[[-41.7649210392152, -3.1237338349182937], [-41.7649160927977, -3.1237338349182937]]</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>[[-41.7649210392152, -3.1237338349182937], [-41.7649210392152, -3.1237267760556304]]</t>
+          <t>[[-41.7649210392152, -3.1237338349182937], [-41.7649210392152, -3.1237408937809334]]</t>
         </is>
       </c>
       <c r="H136" t="n">
@@ -5497,12 +5497,12 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>[[-41.76492103920154, -3.123696245940303], [-41.764916092784276, -3.123696245940303]]</t>
+          <t>[[-41.76492103920154, -3.123696245940303], [-41.76491609278421, -3.123696245940303]]</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>[[-41.76492103920154, -3.123696245940303], [-41.76492103920154, -3.1236891870776327]]</t>
+          <t>[[-41.76492103920154, -3.123696245940303], [-41.76492103920154, -3.123703304802948]]</t>
         </is>
       </c>
       <c r="H137" t="n">
@@ -5534,12 +5534,12 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>[[-41.76492103918489, -3.1236504233415494], [-41.76491609276784, -3.1236504233415494]]</t>
+          <t>[[-41.76492103918489, -3.1236504233415494], [-41.76491609276778, -3.1236504233415494]]</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>[[-41.76492103918489, -3.1236504233415494], [-41.76492103918489, -3.123643364478874]]</t>
+          <t>[[-41.76492103918489, -3.1236504233415494], [-41.76492103918489, -3.1236574822041994]]</t>
         </is>
       </c>
       <c r="H138" t="n">
@@ -5571,12 +5571,12 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>[[-41.7649210391698, -3.123608896528383], [-41.76491609275294, -3.123608896528383]]</t>
+          <t>[[-41.7649210391698, -3.123608896528383], [-41.76491609275288, -3.123608896528383]]</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>[[-41.7649210391698, -3.123608896528383], [-41.7649210391698, -3.1236018376657038]]</t>
+          <t>[[-41.7649210391698, -3.123608896528383], [-41.7649210391698, -3.1236159553910405]]</t>
         </is>
       </c>
       <c r="H139" t="n">
@@ -5608,12 +5608,12 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>[[-41.76492103913856, -3.123522910267492], [-41.7649160927221, -3.123522910267492]]</t>
+          <t>[[-41.76492103913856, -3.123522910267492], [-41.76491609272204, -3.123522910267492]]</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>[[-41.76492103913856, -3.123522910267492], [-41.76492103913856, -3.123515851404799]]</t>
+          <t>[[-41.76492103913856, -3.123522910267492], [-41.76492103913856, -3.12352996913016]]</t>
         </is>
       </c>
       <c r="H140" t="n">
@@ -5645,12 +5645,12 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>[[-41.764921039102376, -3.1234233146941173], [-41.76491609268639, -3.1234233146941173]]</t>
+          <t>[[-41.764921039102376, -3.1234233146941173], [-41.76491609268632, -3.1234233146941173]]</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>[[-41.764921039102376, -3.1234233146941173], [-41.764921039102376, -3.123416255831412]]</t>
+          <t>[[-41.764921039102376, -3.1234233146941173], [-41.764921039102376, -3.1234303735567988]]</t>
         </is>
       </c>
       <c r="H141" t="n">
@@ -5682,12 +5682,12 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>[[-41.76484497699237, -3.1239905136100194], [-41.76484003057373, -3.1239905136100194]]</t>
+          <t>[[-41.76484497699237, -3.1239905136100194], [-41.764840030573666, -3.1239905136100194]]</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>[[-41.76484497699237, -3.1239905136100194], [-41.76484497699237, -3.1239834547473904]]</t>
+          <t>[[-41.76484497699237, -3.1239905136100194], [-41.76484497699237, -3.123997572472624]]</t>
         </is>
       </c>
       <c r="H142" t="n">
@@ -5719,12 +5719,12 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>[[-41.764844976933006, -3.1239045960351297], [-41.76484003051477, -3.1239045960351297]]</t>
+          <t>[[-41.764844976933006, -3.1239045960351297], [-41.7648400305147, -3.1239045960351297]]</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>[[-41.764844976933006, -3.1239045960351297], [-41.764844976933006, -3.1238975371724886]]</t>
+          <t>[[-41.764844976933006, -3.1239045960351297], [-41.764844976933006, -3.1239116548977464]]</t>
         </is>
       </c>
       <c r="H143" t="n">
@@ -5756,12 +5756,12 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>[[-41.76484497692087, -3.1238629259177686], [-41.764840030502825, -3.1238629259177686]]</t>
+          <t>[[-41.76484497692087, -3.1238629259177686], [-41.76484003050276, -3.1238629259177686]]</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>[[-41.76484497692087, -3.1238629259177686], [-41.76484497692087, -3.1238558670551217]]</t>
+          <t>[[-41.76484497692087, -3.1238629259177686], [-41.76484497692087, -3.123869984780391]]</t>
         </is>
       </c>
       <c r="H144" t="n">
@@ -5793,12 +5793,12 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>[[-41.7648449769086, -3.123820826301157], [-41.76484003049075, -3.123820826301157]]</t>
+          <t>[[-41.7648449769086, -3.123820826301157], [-41.76484003049069, -3.123820826301157]]</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>[[-41.7648449769086, -3.123820826301157], [-41.7648449769086, -3.123813767438505]]</t>
+          <t>[[-41.7648449769086, -3.123820826301157], [-41.7648449769086, -3.1238278851637857]]</t>
         </is>
       </c>
       <c r="H145" t="n">
@@ -5830,12 +5830,12 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>[[-41.76484497689621, -3.1237782970473065], [-41.76484003047856, -3.1237782970473065]]</t>
+          <t>[[-41.76484497689621, -3.1237782970473065], [-41.76484003047849, -3.1237782970473065]]</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>[[-41.76484497689621, -3.1237782970473065], [-41.76484497689621, -3.1237712381846485]]</t>
+          <t>[[-41.76484497689621, -3.1237782970473065], [-41.76484497689621, -3.123785355909941]]</t>
         </is>
       </c>
       <c r="H146" t="n">
@@ -5867,12 +5867,12 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>[[-41.76484497688294, -3.123732760850431], [-41.76484003046551, -3.123732760850431]]</t>
+          <t>[[-41.76484497688294, -3.123732760850431], [-41.764840030465436, -3.123732760850431]]</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>[[-41.76484497688294, -3.123732760850431], [-41.76484497688294, -3.1237257019877664]]</t>
+          <t>[[-41.76484497688294, -3.123732760850431], [-41.76484497688294, -3.1237398197130712]]</t>
         </is>
       </c>
       <c r="H147" t="n">
@@ -5904,12 +5904,12 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>[[-41.764844976871046, -3.1236919498348605], [-41.764840030453804, -3.1236919498348605]]</t>
+          <t>[[-41.764844976871046, -3.1236919498348605], [-41.76484003045373, -3.1236919498348605]]</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>[[-41.764844976871046, -3.1236919498348605], [-41.764844976871046, -3.123684890972191]]</t>
+          <t>[[-41.764844976871046, -3.1236919498348605], [-41.764844976871046, -3.123699008697505]]</t>
         </is>
       </c>
       <c r="H148" t="n">
@@ -5941,12 +5941,12 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>[[-41.76484497685891, -3.123650279924318], [-41.76484003044186, -3.123650279924318]]</t>
+          <t>[[-41.76484497685891, -3.123650279924318], [-41.764840030441796, -3.123650279924318]]</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>[[-41.76484497685891, -3.123650279924318], [-41.76484497685891, -3.123643221061643]]</t>
+          <t>[[-41.76484497685891, -3.123650279924318], [-41.76484497685891, -3.123657338786969]]</t>
         </is>
       </c>
       <c r="H149" t="n">
@@ -5978,12 +5978,12 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>[[-41.764844976847264, -3.1236103282865955], [-41.7648400304304, -3.1236103282865955]]</t>
+          <t>[[-41.764844976847264, -3.1236103282865955], [-41.764840030430335, -3.1236103282865955]]</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>[[-41.764844976847264, -3.1236103282865955], [-41.764844976847264, -3.1236032694239158]]</t>
+          <t>[[-41.764844976847264, -3.1236103282865955], [-41.764844976847264, -3.123617387149252]]</t>
         </is>
       </c>
       <c r="H150" t="n">
@@ -6015,12 +6015,12 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>[[-41.76484497683488, -3.12356779910157], [-41.76484003041822, -3.12356779910157]]</t>
+          <t>[[-41.76484497683488, -3.12356779910157], [-41.76484003041815, -3.12356779910157]]</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>[[-41.76484497683488, -3.12356779910157], [-41.76484497683488, -3.1235607402388843]]</t>
+          <t>[[-41.76484497683488, -3.12356779910157], [-41.76484497683488, -3.123574857964233]]</t>
         </is>
       </c>
       <c r="H151" t="n">
@@ -6052,12 +6052,12 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>[[-41.76484497682124, -3.123520973958383], [-41.76484003040479, -3.123520973958383]]</t>
+          <t>[[-41.76484497682124, -3.123520973958383], [-41.76484003040473, -3.123520973958383]]</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>[[-41.76484497682124, -3.123520973958383], [-41.76484497682124, -3.1235139150956917]]</t>
+          <t>[[-41.76484497682124, -3.123520973958383], [-41.76484497682124, -3.123528032821053]]</t>
         </is>
       </c>
       <c r="H152" t="n">
@@ -6089,12 +6089,12 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>[[-41.764844976792816, -3.123423457661445], [-41.76484003037683, -3.123423457661445]]</t>
+          <t>[[-41.764844976792816, -3.123423457661445], [-41.76484003037676, -3.123423457661445]]</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>[[-41.764844976792816, -3.123423457661445], [-41.764844976792816, -3.12341639879874]]</t>
+          <t>[[-41.764844976792816, -3.123423457661445], [-41.764844976792816, -3.123430516524126]]</t>
         </is>
       </c>
       <c r="H153" t="n">
@@ -6126,12 +6126,12 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>[[-41.763897980438806, -3.123990513391179], [-41.763893034020164, -3.123990513391179]]</t>
+          <t>[[-41.763897980438806, -3.123990513391179], [-41.7638930340201, -3.123990513391179]]</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>[[-41.763897980438806, -3.123990513391179], [-41.763897980438806, -3.12398345452855]]</t>
+          <t>[[-41.763897980438806, -3.123990513391179], [-41.763897980438806, -3.123997572253784]]</t>
         </is>
       </c>
       <c r="H154" t="n">
@@ -6163,12 +6163,12 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>[[-41.76389798046327, -3.123950060429813], [-41.76389303404482, -3.123950060429813]]</t>
+          <t>[[-41.76389798046327, -3.123950060429813], [-41.76389303404475, -3.123950060429813]]</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>[[-41.76389798046327, -3.123950060429813], [-41.76389798046327, -3.1239430015671785]]</t>
+          <t>[[-41.76389798046327, -3.123950060429813], [-41.76389798046327, -3.123957119292424]]</t>
         </is>
       </c>
       <c r="H155" t="n">
@@ -6200,12 +6200,12 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>[[-41.763897980488586, -3.123908175666376], [-41.76389303407033, -3.123908175666376]]</t>
+          <t>[[-41.763897980488586, -3.123908175666376], [-41.763893034070264, -3.123908175666376]]</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>[[-41.763897980488586, -3.123908175666376], [-41.763897980488586, -3.123901116803735]]</t>
+          <t>[[-41.763897980488586, -3.123908175666376], [-41.763897980488586, -3.123915234528992]]</t>
         </is>
       </c>
       <c r="H156" t="n">
@@ -6237,12 +6237,12 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>[[-41.76389798051629, -3.123862353102305], [-41.76389303409825, -3.123862353102305]]</t>
+          <t>[[-41.76389798051629, -3.123862353102305], [-41.76389303409818, -3.123862353102305]]</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>[[-41.76389798051629, -3.123862353102305], [-41.76389798051629, -3.1238552942396582]]</t>
+          <t>[[-41.76389798051629, -3.123862353102305], [-41.76389798051629, -3.1238694119649284]]</t>
         </is>
       </c>
       <c r="H157" t="n">
@@ -6274,12 +6274,12 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>[[-41.76389798056802, -3.123776793408723], [-41.76389303415038, -3.123776793408723]]</t>
+          <t>[[-41.76389798056802, -3.123776793408723], [-41.76389303415031, -3.123776793408723]]</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>[[-41.76389798056802, -3.123776793408723], [-41.76389798056802, -3.1237697345460647]]</t>
+          <t>[[-41.76389798056802, -3.123776793408723], [-41.76389798056802, -3.1237838522713575]]</t>
         </is>
       </c>
       <c r="H158" t="n">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>[[-41.763897980593995, -3.123733834793612], [-41.763893034176554, -3.123733834793612]]</t>
+          <t>[[-41.763897980593995, -3.123733834793612], [-41.76389303417649, -3.123733834793612]]</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>[[-41.763897980593995, -3.123733834793612], [-41.763897980593995, -3.1237267759309475]]</t>
+          <t>[[-41.763897980593995, -3.123733834793612], [-41.763897980593995, -3.1237408936562527]]</t>
         </is>
       </c>
       <c r="H159" t="n">
@@ -6348,12 +6348,12 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>[[-41.76389798061672, -3.123696245815621], [-41.763893034199455, -3.123696245815621]]</t>
+          <t>[[-41.76389798061672, -3.123696245815621], [-41.76389303419939, -3.123696245815621]]</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>[[-41.76389798061672, -3.123696245815621], [-41.76389798061672, -3.123689186952952]]</t>
+          <t>[[-41.76389798061672, -3.123696245815621], [-41.76389798061672, -3.1237033046782656]]</t>
         </is>
       </c>
       <c r="H160" t="n">
@@ -6385,12 +6385,12 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>[[-41.763897980644415, -3.123650423216868], [-41.763893034227365, -3.123650423216868]]</t>
+          <t>[[-41.763897980644415, -3.123650423216868], [-41.7638930342273, -3.123650423216868]]</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>[[-41.763897980644415, -3.123650423216868], [-41.763897980644415, -3.123643364354193]]</t>
+          <t>[[-41.763897980644415, -3.123650423216868], [-41.763897980644415, -3.123657482079519]]</t>
         </is>
       </c>
       <c r="H161" t="n">
@@ -6422,12 +6422,12 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>[[-41.763897980669526, -3.1236088964037028], [-41.76389303425267, -3.1236088964037028]]</t>
+          <t>[[-41.763897980669526, -3.1236088964037028], [-41.763893034252604, -3.1236088964037028]]</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>[[-41.763897980669526, -3.1236088964037028], [-41.763897980669526, -3.123601837541022]]</t>
+          <t>[[-41.763897980669526, -3.1236088964037028], [-41.763897980669526, -3.1236159552663607]]</t>
         </is>
       </c>
       <c r="H162" t="n">
@@ -6459,12 +6459,12 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>[[-41.76389798069462, -3.1235673794569125], [-41.76389303427796, -3.1235673794569125]]</t>
+          <t>[[-41.76389798069462, -3.1235673794569125], [-41.76389303427789, -3.1235673794569125]]</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>[[-41.76389798069462, -3.1235673794569125], [-41.76389798069462, -3.1235603205942266]]</t>
+          <t>[[-41.76389798069462, -3.1235673794569125], [-41.76389798069462, -3.1235744383195745]]</t>
         </is>
       </c>
       <c r="H163" t="n">
@@ -6496,12 +6496,12 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>[[-41.7638979807215, -3.123522910142812], [-41.76389303430505, -3.123522910142812]]</t>
+          <t>[[-41.7638979807215, -3.123522910142812], [-41.763893034304985, -3.123522910142812]]</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>[[-41.7638979807215, -3.123522910142812], [-41.7638979807215, -3.12351585128012]]</t>
+          <t>[[-41.7638979807215, -3.123522910142812], [-41.7638979807215, -3.123529969005481]]</t>
         </is>
       </c>
       <c r="H164" t="n">
@@ -6533,12 +6533,12 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>[[-41.763897980781714, -3.12342331456944], [-41.76389303436573, -3.12342331456944]]</t>
+          <t>[[-41.763897980781714, -3.12342331456944], [-41.76389303436566, -3.12342331456944]]</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>[[-41.763897980781714, -3.12342331456944], [-41.763897980781714, -3.1234162557067346]]</t>
+          <t>[[-41.763897980781714, -3.12342331456944], [-41.763897980781714, -3.123430373432121]]</t>
         </is>
       </c>
       <c r="H165" t="n">
@@ -6570,12 +6570,12 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>[[-41.76382191812272, -3.123990513341949], [-41.76381697170408, -3.123990513341949]]</t>
+          <t>[[-41.76382191812272, -3.123990513341949], [-41.76381697170402, -3.123990513341949]]</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>[[-41.76382191812272, -3.123990513341949], [-41.76382191812272, -3.123983454479319]]</t>
+          <t>[[-41.76382191812272, -3.123990513341949], [-41.76382191812272, -3.123997572204554]]</t>
         </is>
       </c>
       <c r="H166" t="n">
@@ -6607,12 +6607,12 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>[[-41.763821918180845, -3.1239045958360574], [-41.76381697176261, -3.1239045958360574]]</t>
+          <t>[[-41.763821918180845, -3.1239045958360574], [-41.76381697176254, -3.1239045958360574]]</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>[[-41.763821918180845, -3.1239045958360574], [-41.763821918180845, -3.1238975369734163]]</t>
+          <t>[[-41.763821918180845, -3.1239045958360574], [-41.763821918180845, -3.1239116546986745]]</t>
         </is>
       </c>
       <c r="H167" t="n">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>[[-41.76382191820903, -3.1238629257186963], [-41.76381697179099, -3.1238629257186963]]</t>
+          <t>[[-41.76382191820903, -3.1238629257186963], [-41.763816971790924, -3.1238629257186963]]</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>[[-41.76382191820903, -3.1238629257186963], [-41.76382191820903, -3.1238558668560503]]</t>
+          <t>[[-41.76382191820903, -3.1238629257186963], [-41.76382191820903, -3.123869984581319]]</t>
         </is>
       </c>
       <c r="H168" t="n">
@@ -6681,12 +6681,12 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>[[-41.76382191823752, -3.123820826102087], [-41.76381697181967, -3.123820826102087]]</t>
+          <t>[[-41.76382191823752, -3.123820826102087], [-41.76381697181961, -3.123820826102087]]</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>[[-41.76382191823752, -3.123820826102087], [-41.76382191823752, -3.123813767239436]]</t>
+          <t>[[-41.76382191823752, -3.123820826102087], [-41.76382191823752, -3.1238278849647156]]</t>
         </is>
       </c>
       <c r="H169" t="n">
@@ -6718,12 +6718,12 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>[[-41.76382191826629, -3.123778296848236], [-41.76381697184864, -3.123778296848236]]</t>
+          <t>[[-41.76382191826629, -3.123778296848236], [-41.76381697184858, -3.123778296848236]]</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>[[-41.76382191826629, -3.123778296848236], [-41.76382191826629, -3.123771237985578]]</t>
+          <t>[[-41.76382191826629, -3.123778296848236], [-41.76382191826629, -3.1237853557108703]]</t>
         </is>
       </c>
       <c r="H170" t="n">
@@ -6755,12 +6755,12 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>[[-41.7638219182971, -3.1237327606513627], [-41.76381697187966, -3.1237327606513627]]</t>
+          <t>[[-41.7638219182971, -3.1237327606513627], [-41.76381697187959, -3.1237327606513627]]</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>[[-41.7638219182971, -3.1237327606513627], [-41.7638219182971, -3.1237257017886977]]</t>
+          <t>[[-41.7638219182971, -3.1237327606513627], [-41.7638219182971, -3.1237398195140025]]</t>
         </is>
       </c>
       <c r="H171" t="n">
@@ -6792,12 +6792,12 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>[[-41.7638219183247, -3.1236919496357927], [-41.76381697190746, -3.1236919496357927]]</t>
+          <t>[[-41.7638219183247, -3.1236919496357927], [-41.76381697190739, -3.1236919496357927]]</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>[[-41.7638219183247, -3.1236919496357927], [-41.7638219183247, -3.123684890773123]]</t>
+          <t>[[-41.7638219183247, -3.1236919496357927], [-41.7638219183247, -3.123699008498438]]</t>
         </is>
       </c>
       <c r="H172" t="n">
@@ -6829,12 +6829,12 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>[[-41.763821918352896, -3.123650279725251], [-41.763816971935846, -3.123650279725251]]</t>
+          <t>[[-41.763821918352896, -3.123650279725251], [-41.76381697193578, -3.123650279725251]]</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>[[-41.763821918352896, -3.123650279725251], [-41.763821918352896, -3.123643220862576]]</t>
+          <t>[[-41.763821918352896, -3.123650279725251], [-41.763821918352896, -3.1236573385879014]]</t>
         </is>
       </c>
       <c r="H173" t="n">
@@ -6866,12 +6866,12 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>[[-41.76382191837992, -3.1236103280875294], [-41.76381697196305, -3.1236103280875294]]</t>
+          <t>[[-41.76382191837992, -3.1236103280875294], [-41.76381697196299, -3.1236103280875294]]</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>[[-41.76382191837992, -3.1236103280875294], [-41.76382191837992, -3.123603269224849]]</t>
+          <t>[[-41.76382191837992, -3.1236103280875294], [-41.76382191837992, -3.1236173869501864]]</t>
         </is>
       </c>
       <c r="H174" t="n">
@@ -6903,12 +6903,12 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>[[-41.763821918408695, -3.1235677989025032], [-41.763816971992036, -3.1235677989025032]]</t>
+          <t>[[-41.763821918408695, -3.1235677989025032], [-41.763816971991965, -3.1235677989025032]]</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>[[-41.763821918408695, -3.1235677989025032], [-41.763821918408695, -3.1235607400398178]]</t>
+          <t>[[-41.763821918408695, -3.1235677989025032], [-41.763821918408695, -3.1235748577651656]]</t>
         </is>
       </c>
       <c r="H175" t="n">
@@ -6940,12 +6940,12 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>[[-41.76382191844037, -3.1235209737593186], [-41.763816972023925, -3.1235209737593186]]</t>
+          <t>[[-41.76382191844037, -3.1235209737593186], [-41.76381697202386, -3.1235209737593186]]</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>[[-41.76382191844037, -3.1235209737593186], [-41.76382191844037, -3.123513914896625]]</t>
+          <t>[[-41.76382191844037, -3.1235209737593186], [-41.76382191844037, -3.1235280326219867]]</t>
         </is>
       </c>
       <c r="H176" t="n">
@@ -6977,12 +6977,12 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>[[-41.76382191850634, -3.123423457462384], [-41.76381697209035, -3.123423457462384]]</t>
+          <t>[[-41.76382191850634, -3.123423457462384], [-41.76381697209028, -3.123423457462384]]</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>[[-41.76382191850634, -3.123423457462384], [-41.76382191850634, -3.1234163985996783]]</t>
+          <t>[[-41.76382191850634, -3.123423457462384], [-41.76382191850634, -3.1234305163250657]]</t>
         </is>
       </c>
       <c r="H177" t="n">
@@ -7009,17 +7009,17 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>[[-41.76510453126057, -3.123778556777093], [-41.76510453126057, -3.1235235321885964], [-41.76510453126057, -3.1240335813643494]]</t>
+          <t>[[-41.76510453126057, -3.123778556777093], [-41.76510453126057, -3.1240335813643494], [-41.76510453126057, -3.1235235321885964]]</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>[[[-41.76510453126057, -3.123778556777093], [-41.76509283590057, -3.123778556777093]], [[-41.76510453126057, -3.1235235321885964], [-41.76509283590339, -3.1235235321885964]], [[-41.76510453126057, -3.1240335813643494], [-41.76511622662394, -3.1240335813643494]]]</t>
+          <t>[[[-41.76510453126057, -3.123778556777093], [-41.76509283590002, -3.123778556777093]], [[-41.76510453126057, -3.1240335813643494], [-41.7650928358972, -3.1240335813643494]], [[-41.76510453126057, -3.1235235321885964], [-41.76511622661775, -3.1235235321885964]]]</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>[[[-41.76510453126057, -3.123778556777093], [-41.76510453126057, -3.123753777792242]], [[-41.76510453126057, -3.1235235321885964], [-41.76510453126057, -3.123498753203626]], [[-41.76510453126057, -3.1240335813643494], [-41.76510453126057, -3.1240583603489367]]]</t>
+          <t>[[[-41.76510453126057, -3.123778556777093], [-41.76510453126057, -3.1238033357618002]], [[-41.76510453126057, -3.1240335813643494], [-41.76510453126057, -3.1240583603489367]], [[-41.76510453126057, -3.1235235321885964], [-41.76510453126057, -3.123498753203626]]]</t>
         </is>
       </c>
       <c r="H178" t="n">
@@ -7046,17 +7046,17 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>[[-41.764510460618254, -3.1237785569307066], [-41.764510460618254, -3.12352353234221], [-41.764510460618254, -3.1240335815179625]]</t>
+          <t>[[-41.764510460618254, -3.1237785569307066], [-41.764510460618254, -3.1240335815179625], [-41.764510460618254, -3.12352353234221]]</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>[[[-41.764510460618254, -3.1237785569307066], [-41.76449876525825, -3.1237785569307066]], [[-41.764510460618254, -3.12352353234221], [-41.764498765261074, -3.12352353234221]], [[-41.764510460618254, -3.1240335815179625], [-41.76452215598162, -3.1240335815179625]]]</t>
+          <t>[[[-41.764510460618254, -3.1237785569307066], [-41.764498765257706, -3.1237785569307066]], [[-41.764510460618254, -3.1240335815179625], [-41.764498765254885, -3.1240335815179625]], [[-41.764510460618254, -3.12352353234221], [-41.764522155975435, -3.12352353234221]]]</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>[[[-41.764510460618254, -3.1237785569307066], [-41.764510460618254, -3.123753777945855]], [[-41.764510460618254, -3.12352353234221], [-41.764510460618254, -3.1234987533572394]], [[-41.764510460618254, -3.1240335815179625], [-41.764510460618254, -3.1240583605025503]]]</t>
+          <t>[[[-41.764510460618254, -3.1237785569307066], [-41.764510460618254, -3.123803335915414]], [[-41.764510460618254, -3.1240335815179625], [-41.764510460618254, -3.1240583605025503]], [[-41.764510460618254, -3.12352353234221], [-41.764510460618254, -3.1234987533572394]]]</t>
         </is>
       </c>
       <c r="H179" t="n">
@@ -7083,17 +7083,17 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>[[-41.763710580431706, -3.1237785559836437], [-41.763710580431706, -3.1235235313951475], [-41.763710580431706, -3.1240335805709]]</t>
+          <t>[[-41.763710580431706, -3.1237785559836437], [-41.763710580431706, -3.1240335805709], [-41.763710580431706, -3.1235235313951475]]</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>[[[-41.763710580431706, -3.1237785559836437], [-41.763698885071705, -3.1237785559836437]], [[-41.763710580431706, -3.1235235313951475], [-41.763698885074525, -3.1235235313951475]], [[-41.763710580431706, -3.1240335805709], [-41.763722275795075, -3.1240335805709]]]</t>
+          <t>[[[-41.763710580431706, -3.1237785559836437], [-41.76369888507116, -3.1237785559836437]], [[-41.763710580431706, -3.1240335805709], [-41.76369888506834, -3.1240335805709]], [[-41.763710580431706, -3.1235235313951475], [-41.763722275788886, -3.1235235313951475]]]</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>[[[-41.763710580431706, -3.1237785559836437], [-41.763710580431706, -3.1237537769987935]], [[-41.763710580431706, -3.1235235313951475], [-41.763710580431706, -3.123498752410176]], [[-41.763710580431706, -3.1240335805709], [-41.763710580431706, -3.1240583595554874]]]</t>
+          <t>[[[-41.763710580431706, -3.1237785559836437], [-41.763710580431706, -3.1238033349683514]], [[-41.763710580431706, -3.1240335805709], [-41.763710580431706, -3.1240583595554874]], [[-41.763710580431706, -3.1235235313951475], [-41.763710580431706, -3.123498752410176]]]</t>
         </is>
       </c>
       <c r="H180" t="n">
@@ -7120,17 +7120,17 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>[[-41.76309900848384, -3.123521220165442], [-41.76309900848384, -3.123778053438971]]</t>
+          <t>[[-41.76309900848384, -3.123778053438971], [-41.76309900848384, -3.123521220165442]]</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>[[[-41.76309900848384, -3.123521220165442], [-41.76308731312669, -3.123521220165442]], [[-41.76309900848384, -3.123778053438971], [-41.76311070384438, -3.123778053438971]]]</t>
+          <t>[[[-41.76309900848384, -3.123778053438971], [-41.7630873131233, -3.123778053438971]], [[-41.76309900848384, -3.123521220165442], [-41.763110703840994, -3.123521220165442]]]</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>[[[-41.76309900848384, -3.123521220165442], [-41.76309900848384, -3.12349644118047]], [[-41.76309900848384, -3.123778053438971], [-41.76309900848384, -3.1238028324236793]]]</t>
+          <t>[[[-41.76309900848384, -3.123778053438971], [-41.76309900848384, -3.1238028324236793]], [[-41.76309900848384, -3.123521220165442], [-41.76309900848384, -3.12349644118047]]]</t>
         </is>
       </c>
       <c r="H181" t="n">
@@ -7162,12 +7162,12 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>[[-41.76539818887996, -3.124004705541811], [-41.76539262767742, -3.124004705541811]]</t>
+          <t>[[-41.76539818887996, -3.124004705541811], [-41.76539262767735, -3.124004705541811]]</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>[[-41.76539818887996, -3.124004705541811], [-41.76539818887996, -3.123998491774592]]</t>
+          <t>[[-41.76539818887996, -3.124004705541811], [-41.76539818887996, -3.1240109193090007]]</t>
         </is>
       </c>
       <c r="H182" t="n">
@@ -7199,12 +7199,12 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>[[-41.764367324578366, -3.1230271177268043], [-41.764360989014634, -3.1230271177268043]]</t>
+          <t>[[-41.764367324578366, -3.1230271177268043], [-41.76436098901454, -3.1230271177268043]]</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>[[-41.764367324578366, -3.1230271177268043], [-41.764367324578366, -3.123019370112251]]</t>
+          <t>[[-41.764367324578366, -3.1230271177268043], [-41.764367324578366, -3.1230348653413196]]</t>
         </is>
       </c>
       <c r="H183" t="n">
@@ -7236,12 +7236,12 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>[[-41.76436732456728, -3.1230961955183454], [-41.76436098900313, -3.1230961955183454]]</t>
+          <t>[[-41.76436732456728, -3.1230961955183454], [-41.76436098900304, -3.1230961955183454]]</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>[[-41.76436732456728, -3.1230961955183454], [-41.76436732456728, -3.123088447903801]]</t>
+          <t>[[-41.76436732456728, -3.1230961955183454], [-41.76436732456728, -3.123103943132849]]</t>
         </is>
       </c>
       <c r="H184" t="n">
@@ -7273,12 +7273,12 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>[[-41.76436732455652, -3.1231632113426837], [-41.76436098899197, -3.1231632113426837]]</t>
+          <t>[[-41.76436732455652, -3.1231632113426837], [-41.764360988991875, -3.1231632113426837]]</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>[[-41.76436732455652, -3.1231632113426837], [-41.76436732455652, -3.1231554637281502]]</t>
+          <t>[[-41.76436732455652, -3.1231632113426837], [-41.76436732455652, -3.1231709589571786]]</t>
         </is>
       </c>
       <c r="H185" t="n">
@@ -7310,12 +7310,12 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>[[-41.7646885595208, -3.122772457583913], [-41.76468222395859, -3.122772457583913]]</t>
+          <t>[[-41.7646885595208, -3.122772457583913], [-41.764682223958495, -3.122772457583913]]</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>[[-41.7646885595208, -3.122772457583913], [-41.7646885595208, -3.1227647099693217]]</t>
+          <t>[[-41.7646885595208, -3.122772457583913], [-41.7646885595208, -3.1227802051984654]]</t>
         </is>
       </c>
       <c r="H186" t="n">
@@ -7347,12 +7347,12 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>[[-41.76468855953048, -3.1228399889371], [-41.76468222396786, -3.1228399889371]]</t>
+          <t>[[-41.76468855953048, -3.1228399889371], [-41.76468222396777, -3.1228399889371]]</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>[[-41.76468855953048, -3.1228399889371], [-41.76468855953048, -3.1228322413225187]]</t>
+          <t>[[-41.76468855953048, -3.1228399889371], [-41.76468855953048, -3.122847736551643]]</t>
         </is>
       </c>
       <c r="H187" t="n">
@@ -7384,12 +7384,12 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>[[-41.76468855954009, -3.12290700475314], [-41.764682223977076, -3.12290700475314]]</t>
+          <t>[[-41.76468855954009, -3.12290700475314], [-41.76468222397698, -3.12290700475314]]</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>[[-41.76468855954009, -3.12290700475314], [-41.76468855954009, -3.1228992571385685]]</t>
+          <t>[[-41.76468855954009, -3.12290700475314], [-41.76468855954009, -3.1229147523676732]]</t>
         </is>
       </c>
       <c r="H188" t="n">
@@ -7421,12 +7421,12 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>[[-41.76468855955731, -3.1230271177295847], [-41.764682223993574, -3.1230271177295847]]</t>
+          <t>[[-41.76468855955731, -3.1230271177295847], [-41.76468222399348, -3.1230271177295847]]</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>[[-41.76468855955731, -3.1230271177295847], [-41.76468855955731, -3.1230193701150313]]</t>
+          <t>[[-41.76468855955731, -3.1230271177295847], [-41.76468855955731, -3.1230348653440996]]</t>
         </is>
       </c>
       <c r="H189" t="n">
@@ -7458,12 +7458,12 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>[[-41.764688559567205, -3.1230961955211285], [-41.76468222400305, -3.1230961955211285]]</t>
+          <t>[[-41.764688559567205, -3.1230961955211285], [-41.76468222400296, -3.1230961955211285]]</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>[[-41.764688559567205, -3.1230961955211285], [-41.764688559567205, -3.123088447906585]]</t>
+          <t>[[-41.764688559567205, -3.1230961955211285], [-41.764688559567205, -3.123103943135633]]</t>
         </is>
       </c>
       <c r="H190" t="n">
@@ -7495,12 +7495,12 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>[[-41.76436732461924, -3.1227724575811315], [-41.76436098905703, -3.1227724575811315]]</t>
+          <t>[[-41.76436732461924, -3.1227724575811315], [-41.76436098905694, -3.1227724575811315]]</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>[[-41.76436732461924, -3.1227724575811315], [-41.76436732461924, -3.1227647099665403]]</t>
+          <t>[[-41.76436732461924, -3.1227724575811315], [-41.76436732461924, -3.122780205195684]]</t>
         </is>
       </c>
       <c r="H191" t="n">
@@ -7532,12 +7532,12 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>[[-41.76436732476283, -3.122839988934319], [-41.76436098920021, -3.122839988934319]]</t>
+          <t>[[-41.76436732476283, -3.122839988934319], [-41.76436098920012, -3.122839988934319]]</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>[[-41.76436732476283, -3.122839988934319], [-41.76436732476283, -3.1228322413197365]]</t>
+          <t>[[-41.76436732476283, -3.122839988934319], [-41.76436732476283, -3.122847736548861]]</t>
         </is>
       </c>
       <c r="H192" t="n">
@@ -7569,12 +7569,12 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>[[-41.76436732459764, -3.1229070047503584], [-41.76436098903463, -3.1229070047503584]]</t>
+          <t>[[-41.76436732459764, -3.1229070047503584], [-41.764360989034536, -3.1229070047503584]]</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>[[-41.76436732459764, -3.1229070047503584], [-41.76436732459764, -3.1228992571357854]]</t>
+          <t>[[-41.76436732459764, -3.1229070047503584], [-41.76436732459764, -3.1229147523648897]]</t>
         </is>
       </c>
       <c r="H193" t="n">
@@ -7606,12 +7606,12 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>[[-41.76468855957682, -3.123163211345465], [-41.76468222401227, -3.123163211345465]]</t>
+          <t>[[-41.76468855957682, -3.123163211345465], [-41.76468222401218, -3.123163211345465]]</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>[[-41.76468855957682, -3.123163211345465], [-41.76468855957682, -3.1231554637309316]]</t>
+          <t>[[-41.76468855957682, -3.123163211345465], [-41.76468855957682, -3.1231709589599594]]</t>
         </is>
       </c>
       <c r="H194" t="n">
@@ -7643,12 +7643,12 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>[[-41.76451353015821, -3.1230245584424043], [-41.7645085837441, -3.1230245584424043]]</t>
+          <t>[[-41.76451353015821, -3.1230245584424043], [-41.76450858374401, -3.1230245584424043]]</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>[[-41.76451353015821, -3.1230245584424043], [-41.76451353015821, -3.1230147102156187]]</t>
+          <t>[[-41.76451353015821, -3.1230245584424043], [-41.76451353015821, -3.1230344066691655]]</t>
         </is>
       </c>
       <c r="H195" t="n">
@@ -7680,12 +7680,12 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>[[-41.76451353015669, -3.1230932857608606], [-41.76450858374226, -3.1230932857608606]]</t>
+          <t>[[-41.76451353015669, -3.1230932857608606], [-41.76450858374217, -3.1230932857608606]]</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>[[-41.76451353015669, -3.1230932857608606], [-41.76451353015669, -3.123083437534088]]</t>
+          <t>[[-41.76451353015669, -3.1230932857608606], [-41.76451353015669, -3.1231031339876103]]</t>
         </is>
       </c>
       <c r="H196" t="n">
@@ -7717,12 +7717,12 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>[[-41.76451353015518, -3.1231613767519817], [-41.76450858374043, -3.1231613767519817]]</t>
+          <t>[[-41.76451353015518, -3.1231613767519817], [-41.76450858374034, -3.1231613767519817]]</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>[[-41.76451353015518, -3.1231613767519817], [-41.76451353015518, -3.1231515285252214]]</t>
+          <t>[[-41.76451353015518, -3.1231613767519817], [-41.76451353015518, -3.123171224978717]]</t>
         </is>
       </c>
       <c r="H197" t="n">
@@ -7754,12 +7754,12 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>[[-41.765102395826766, -3.1227716416350724], [-41.765097449413844, -3.1227716416350724]]</t>
+          <t>[[-41.765102395826766, -3.1227716416350724], [-41.76509744941375, -3.1227716416350724]]</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>[[-41.765102395826766, -3.1227716416350724], [-41.765102395826766, -3.1227617934082383]]</t>
+          <t>[[-41.765102395826766, -3.1227716416350724], [-41.765102395826766, -3.122781489861881]]</t>
         </is>
       </c>
       <c r="H198" t="n">
@@ -7791,12 +7791,12 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>[[-41.76510239586343, -3.1228401856749834], [-41.76509744945019, -3.1228401856749834]]</t>
+          <t>[[-41.76510239586343, -3.1228401856749834], [-41.76509744945009, -3.1228401856749834]]</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>[[-41.76510239586343, -3.1228401856749834], [-41.76510239586343, -3.1228303374481636]]</t>
+          <t>[[-41.76510239586343, -3.1228401856749834], [-41.76510239586343, -3.1228500339017806]]</t>
         </is>
       </c>
       <c r="H199" t="n">
@@ -7828,12 +7828,12 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>[[-41.765102395900286, -3.122909096358801], [-41.76509744948672, -3.122909096358801]]</t>
+          <t>[[-41.765102395900286, -3.122909096358801], [-41.765097449486625, -3.122909096358801]]</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>[[-41.765102395900286, -3.122909096358801], [-41.765102395900286, -3.1228992481319935]]</t>
+          <t>[[-41.765102395900286, -3.122909096358801], [-41.765102395900286, -3.1229189445855843]]</t>
         </is>
       </c>
       <c r="H200" t="n">
@@ -7865,12 +7865,12 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>[[-41.76510239596203, -3.123024558289887], [-41.76509744954792, -3.123024558289887]]</t>
+          <t>[[-41.76510239596203, -3.123024558289887], [-41.76509744954783, -3.123024558289887]]</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>[[-41.76510239596203, -3.123024558289887], [-41.76510239596203, -3.1230147100631007]]</t>
+          <t>[[-41.76510239596203, -3.123024558289887], [-41.76510239596203, -3.1230344065166484]]</t>
         </is>
       </c>
       <c r="H201" t="n">
@@ -7902,12 +7902,12 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>[[-41.765102395998795, -3.1230932856083427], [-41.76509744958437, -3.1230932856083427]]</t>
+          <t>[[-41.765102395998795, -3.1230932856083427], [-41.765097449584275, -3.1230932856083427]]</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>[[-41.765102395998795, -3.1230932856083427], [-41.765102395998795, -3.1230834373815695]]</t>
+          <t>[[-41.765102395998795, -3.1230932856083427], [-41.765102395998795, -3.123103133835091]]</t>
         </is>
       </c>
       <c r="H202" t="n">
@@ -7939,12 +7939,12 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>[[-41.76451353016383, -3.1227716417875864], [-41.76450858375091, -3.1227716417875864]]</t>
+          <t>[[-41.76451353016383, -3.1227716417875864], [-41.76450858375082, -3.1227716417875864]]</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>[[-41.76451353016383, -3.1227716417875864], [-41.76451353016383, -3.1227617935607523]]</t>
+          <t>[[-41.76451353016383, -3.1227716417875864], [-41.76451353016383, -3.1227814900143955]]</t>
         </is>
       </c>
       <c r="H203" t="n">
@@ -7976,12 +7976,12 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>[[-41.764513530162304, -3.122840185827499], [-41.764508583749056, -3.122840185827499]]</t>
+          <t>[[-41.764513530162304, -3.122840185827499], [-41.76450858374896, -3.122840185827499]]</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>[[-41.764513530162304, -3.122840185827499], [-41.764513530162304, -3.122830337600678]]</t>
+          <t>[[-41.764513530162304, -3.122840185827499], [-41.764513530162304, -3.122850034054295]]</t>
         </is>
       </c>
       <c r="H204" t="n">
@@ -8013,12 +8013,12 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>[[-41.76451353016078, -3.1229090965113167], [-41.76450858374721, -3.1229090965113167]]</t>
+          <t>[[-41.76451353016078, -3.1229090965113167], [-41.764508583747116, -3.1229090965113167]]</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>[[-41.76451353016078, -3.1229090965113167], [-41.76451353016078, -3.1228992482845093]]</t>
+          <t>[[-41.76451353016078, -3.1229090965113167], [-41.76451353016078, -3.1229189447381005]]</t>
         </is>
       </c>
       <c r="H205" t="n">
@@ -8050,12 +8050,12 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>[[-41.7651023960352, -3.1231613765994624], [-41.765097449620455, -3.1231613765994624]]</t>
+          <t>[[-41.7651023960352, -3.1231613765994624], [-41.76509744962036, -3.1231613765994624]]</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>[[-41.7651023960352, -3.1231613765994624], [-41.7651023960352, -3.1231515283727016]]</t>
+          <t>[[-41.7651023960352, -3.1231613765994624], [-41.7651023960352, -3.1231712248261974]]</t>
         </is>
       </c>
       <c r="H206" t="n">
@@ -8087,12 +8087,12 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>[[-41.76462414083436, -3.123025407019108], [-41.76461937054424, -3.123025407019108]]</t>
+          <t>[[-41.76462414083436, -3.123025407019108], [-41.76461937054397, -3.123025407019108]]</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>[[-41.76462414083436, -3.123025407019108], [-41.76462414083436, -3.12299552988437]]</t>
+          <t>[[-41.76462414083436, -3.123025407019108], [-41.76462414083436, -3.123055284153808]]</t>
         </is>
       </c>
       <c r="H207" t="n">
@@ -8124,12 +8124,12 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>[[-41.764624140840034, -3.1230943464480823], [-41.7646193705496, -3.1230943464480823]]</t>
+          <t>[[-41.764624140840034, -3.1230943464480823], [-41.76461937054933, -3.1230943464480823]]</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>[[-41.764624140840034, -3.1230943464480823], [-41.764624140840034, -3.123064469313383]]</t>
+          <t>[[-41.764624140840034, -3.1230943464480823], [-41.764624140840034, -3.123124223582743]]</t>
         </is>
       </c>
       <c r="H208" t="n">
@@ -8161,12 +8161,12 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>[[-41.76462414084556, -3.1231613767443034], [-41.764619370554826, -3.1231613767443034]]</t>
+          <t>[[-41.76462414084556, -3.1231613767443034], [-41.76461937055456, -3.1231613767443034]]</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>[[-41.76462414084556, -3.1231613767443034], [-41.76462414084556, -3.123131499609642]]</t>
+          <t>[[-41.76462414084556, -3.1231613767443034], [-41.76462414084556, -3.123191253878926]]</t>
         </is>
       </c>
       <c r="H209" t="n">
@@ -8198,12 +8198,12 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>[[-41.76430115564495, -3.122771574041831], [-41.764296385355976, -3.122771574041831]]</t>
+          <t>[[-41.76430115564495, -3.122771574041831], [-41.764296385355706, -3.122771574041831]]</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>[[-41.76430115564495, -3.122771574041831], [-41.76430115564495, -3.1227416969069477]]</t>
+          <t>[[-41.76430115564495, -3.122771574041831], [-41.76430115564495, -3.1228014511766755]]</t>
         </is>
       </c>
       <c r="H210" t="n">
@@ -8235,12 +8235,12 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>[[-41.76430115562975, -3.122839690548902], [-41.76429638534047, -3.122839690548902]]</t>
+          <t>[[-41.76430115562975, -3.122839690548902], [-41.7642963853402, -3.122839690548902]]</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>[[-41.76430115562975, -3.122839690548902], [-41.76430115562975, -3.122809813414058]]</t>
+          <t>[[-41.76430115562975, -3.122839690548902], [-41.76430115562975, -3.1228695676837077]]</t>
         </is>
       </c>
       <c r="H211" t="n">
@@ -8272,12 +8272,12 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>[[-41.76430115561476, -3.122906890583885], [-41.764296385325174, -3.122906890583885]]</t>
+          <t>[[-41.76430115561476, -3.122906890583885], [-41.764296385324904, -3.122906890583885]]</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>[[-41.76430115561476, -3.122906890583885], [-41.76430115561476, -3.122877013449078]]</t>
+          <t>[[-41.76430115561476, -3.122906890583885], [-41.76430115561476, -3.122936767718651]]</t>
         </is>
       </c>
       <c r="H212" t="n">
@@ -8309,12 +8309,12 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>[[-41.76430115558832, -3.1230254069961534], [-41.7642963852982, -3.1230254069961534]]</t>
+          <t>[[-41.76430115558832, -3.1230254069961534], [-41.76429638529793, -3.1230254069961534]]</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>[[-41.76430115558832, -3.1230254069961534], [-41.76430115558832, -3.122995529861414]]</t>
+          <t>[[-41.76430115558832, -3.1230254069961534], [-41.76430115558832, -3.123055284130853]]</t>
         </is>
       </c>
       <c r="H213" t="n">
@@ -8346,12 +8346,12 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>[[-41.76430115557294, -3.123094346425128], [-41.764296385282506, -3.123094346425128]]</t>
+          <t>[[-41.76430115557294, -3.123094346425128], [-41.764296385282236, -3.123094346425128]]</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>[[-41.76430115557294, -3.123094346425128], [-41.76430115557294, -3.1230644692904295]]</t>
+          <t>[[-41.76430115557294, -3.123094346425128], [-41.76430115557294, -3.1231242235597887]]</t>
         </is>
       </c>
       <c r="H214" t="n">
@@ -8383,12 +8383,12 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>[[-41.764301155557995, -3.123161376721349], [-41.76429638526726, -3.123161376721349]]</t>
+          <t>[[-41.764301155557995, -3.123161376721349], [-41.764296385266995, -3.123161376721349]]</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>[[-41.764301155557995, -3.123161376721349], [-41.764301155557995, -3.1231314995866875]]</t>
+          <t>[[-41.764301155557995, -3.123161376721349], [-41.764301155557995, -3.1231912538559716]]</t>
         </is>
       </c>
       <c r="H215" t="n">
@@ -8420,12 +8420,12 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>[[-41.76462414081343, -3.1227715740647843], [-41.76461937052446, -3.1227715740647843]]</t>
+          <t>[[-41.76462414081343, -3.1227715740647843], [-41.76461937052419, -3.1227715740647843]]</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>[[-41.76462414081343, -3.1227715740647843], [-41.76462414081343, -3.1227416969299013]]</t>
+          <t>[[-41.76462414081343, -3.1227715740647843], [-41.76462414081343, -3.1228014511996287]]</t>
         </is>
       </c>
       <c r="H216" t="n">
@@ -8457,12 +8457,12 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>[[-41.764624140819045, -3.122839690571856], [-41.764619370529765, -3.122839690571856]]</t>
+          <t>[[-41.764624140819045, -3.122839690571856], [-41.764619370529495, -3.122839690571856]]</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>[[-41.764624140819045, -3.122839690571856], [-41.764624140819045, -3.1228098134370117]]</t>
+          <t>[[-41.764624140819045, -3.122839690571856], [-41.764624140819045, -3.122869567706662]]</t>
         </is>
       </c>
       <c r="H217" t="n">
@@ -8494,12 +8494,12 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>[[-41.76462414082459, -3.12290689060684], [-41.764619370535, -3.12290689060684]]</t>
+          <t>[[-41.76462414082459, -3.12290689060684], [-41.76461937053473, -3.12290689060684]]</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>[[-41.76462414082459, -3.12290689060684], [-41.76462414082459, -3.1228770134720345]]</t>
+          <t>[[-41.76462414082459, -3.12290689060684], [-41.76462414082459, -3.1229367677416078]]</t>
         </is>
       </c>
       <c r="H218" t="n">
@@ -8531,12 +8531,12 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>[[-41.76516187537525, -3.123025021580492], [-41.76515716555449, -3.123025021580492]]</t>
+          <t>[[-41.76516187537525, -3.123025021580492], [-41.765157165554434, -3.123025021580492]]</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>[[-41.76516187537525, -3.123025021580492], [-41.76516187537525, -3.123018474977129]]</t>
+          <t>[[-41.76516187537525, -3.123025021580492], [-41.76516187537525, -3.1230315681838317]]</t>
         </is>
       </c>
       <c r="H219" t="n">
@@ -8568,12 +8568,12 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>[[-41.76516187541581, -3.1230936388850496], [-41.765157165594744, -3.1230936388850496]]</t>
+          <t>[[-41.76516187541581, -3.1230936388850496], [-41.76515716559469, -3.1230936388850496]]</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>[[-41.76516187541581, -3.1230936388850496], [-41.76516187541581, -3.1230870922816965]]</t>
+          <t>[[-41.76516187541581, -3.1230936388850496], [-41.76516187541581, -3.123100185488381]]</t>
         </is>
       </c>
       <c r="H220" t="n">
@@ -8605,12 +8605,12 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>[[-41.76516187545689, -3.123163135962181], [-41.76515716563552, -3.123163135962181]]</t>
+          <t>[[-41.76516187545689, -3.123163135962181], [-41.76515716563546, -3.123163135962181]]</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>[[-41.76516187545689, -3.123163135962181], [-41.76516187545689, -3.1231565893588353]]</t>
+          <t>[[-41.76516187545689, -3.123163135962181], [-41.76516187545689, -3.1231696825655035]]</t>
         </is>
       </c>
       <c r="H221" t="n">
@@ -8642,12 +8642,12 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>[[-41.76516187522576, -3.122772105080924], [-41.76515716540613, -3.122772105080924]]</t>
+          <t>[[-41.76516187522576, -3.122772105080924], [-41.76515716540607, -3.122772105080924]]</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>[[-41.76516187522576, -3.122772105080924], [-41.76516187522576, -3.1227655584775307]]</t>
+          <t>[[-41.76516187522576, -3.122772105080924], [-41.76516187522576, -3.122778651684296]]</t>
         </is>
       </c>
       <c r="H222" t="n">
@@ -8679,12 +8679,12 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>[[-41.76516187526606, -3.122840282580331], [-41.765157165446126, -3.122840282580331]]</t>
+          <t>[[-41.76516187526606, -3.122840282580331], [-41.76515716544607, -3.122840282580331]]</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>[[-41.76516187526606, -3.122840282580331], [-41.76516187526606, -3.1228337359769456]]</t>
+          <t>[[-41.76516187526606, -3.122840282580331], [-41.76516187526606, -3.122846829183694]]</t>
         </is>
       </c>
       <c r="H223" t="n">
@@ -8716,12 +8716,12 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>[[-41.76516187530662, -3.1229088998592567], [-41.76515716548638, -3.1229088998592567]]</t>
+          <t>[[-41.76516187530662, -3.1229088998592567], [-41.76515716548632, -3.1229088998592567]]</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>[[-41.76516187530662, -3.1229088998592567], [-41.76516187530662, -3.1229023532558795]]</t>
+          <t>[[-41.76516187530662, -3.1229088998592567], [-41.76516187530662, -3.1229154464626108]]</t>
         </is>
       </c>
       <c r="H224" t="n">
@@ -8753,12 +8753,12 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>[[-41.76444440176451, -3.123026833111299], [-41.76443775980424, -3.123026833111299]]</t>
+          <t>[[-41.76444440176451, -3.123026833111299], [-41.764437759803954, -3.123026833111299]]</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>[[-41.76444440176451, -3.123026833111299], [-41.76444440176451, -3.123004598267742]]</t>
+          <t>[[-41.76444440176451, -3.123026833111299], [-41.76444440176451, -3.123049067954804]]</t>
         </is>
       </c>
       <c r="H225" t="n">
@@ -8790,12 +8790,12 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>[[-41.764444401758446, -3.1230959109028404], [-41.764437759797744, -3.1230959109028404]]</t>
+          <t>[[-41.764444401758446, -3.1230959109028404], [-41.76443775979746, -3.1230959109028404]]</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>[[-41.764444401758446, -3.1230959109028404], [-41.764444401758446, -3.123073676059313]]</t>
+          <t>[[-41.764444401758446, -3.1230959109028404], [-41.764444401758446, -3.1231181457463166]]</t>
         </is>
       </c>
       <c r="H226" t="n">
@@ -8827,12 +8827,12 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>[[-41.76444440175272, -3.123161376752458], [-41.764437759791605, -3.123161376752458]]</t>
+          <t>[[-41.76444440175272, -3.123161376752458], [-41.76443775979133, -3.123161376752458]]</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>[[-41.76444440175272, -3.123161376752458], [-41.76444440175272, -3.123139141908959]]</t>
+          <t>[[-41.76444440175272, -3.123161376752458], [-41.76444440175272, -3.123183611595907]]</t>
         </is>
       </c>
       <c r="H227" t="n">
@@ -8864,12 +8864,12 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>[[-41.76475576484905, -3.1227716575650293], [-41.76474912289038, -3.1227716575650293]]</t>
+          <t>[[-41.76475576484905, -3.1227716575650293], [-41.7647491228901, -3.1227716575650293]]</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>[[-41.76475576484905, -3.1227716575650293], [-41.76475576484905, -3.122749422721363]]</t>
+          <t>[[-41.76475576484905, -3.1227716575650293], [-41.76475576484905, -3.1227938924086427]]</t>
         </is>
       </c>
       <c r="H228" t="n">
@@ -8901,12 +8901,12 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>[[-41.76475576486355, -3.1228417664310286], [-41.76474912290444, -3.1228417664310286]]</t>
+          <t>[[-41.76475576486355, -3.1228417664310286], [-41.76474912290416, -3.1228417664310286]]</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>[[-41.76475576486355, -3.1228417664310286], [-41.76475576486355, -3.1228195315873934]]</t>
+          <t>[[-41.76475576486355, -3.1228417664310286], [-41.76475576486355, -3.1228640012746127]]</t>
         </is>
       </c>
       <c r="H229" t="n">
@@ -8938,12 +8938,12 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>[[-41.76475576487721, -3.122907751241943], [-41.764749122917685, -3.122907751241943]]</t>
+          <t>[[-41.76475576487721, -3.122907751241943], [-41.76474912291741, -3.122907751241943]]</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>[[-41.76475576487721, -3.122907751241943], [-41.76475576487721, -3.122885516398335]]</t>
+          <t>[[-41.76475576487721, -3.122907751241943], [-41.76475576487721, -3.1229299860854987]]</t>
         </is>
       </c>
       <c r="H230" t="n">
@@ -8975,12 +8975,12 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>[[-41.76475576490185, -3.123026833092524], [-41.76474912294158, -3.123026833092524]]</t>
+          <t>[[-41.76475576490185, -3.123026833092524], [-41.7647491229413, -3.123026833092524]]</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>[[-41.76475576490185, -3.123026833092524], [-41.76475576490185, -3.1230045982489667]]</t>
+          <t>[[-41.76475576490185, -3.123026833092524], [-41.76475576490185, -3.1230490679360297]]</t>
         </is>
       </c>
       <c r="H231" t="n">
@@ -9012,12 +9012,12 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>[[-41.76475576491615, -3.1230959108840666], [-41.76474912295545, -3.1230959108840666]]</t>
+          <t>[[-41.76475576491615, -3.1230959108840666], [-41.764749122955166, -3.1230959108840666]]</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>[[-41.76475576491615, -3.1230959108840666], [-41.76475576491615, -3.123073676040538]]</t>
+          <t>[[-41.76475576491615, -3.1230959108840666], [-41.76475576491615, -3.1231181457275423]]</t>
         </is>
       </c>
       <c r="H232" t="n">
@@ -9049,12 +9049,12 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>[[-41.76444440178686, -3.122771657583804], [-41.76443775982819, -3.122771657583804]]</t>
+          <t>[[-41.76444440178686, -3.122771657583804], [-41.76443775982791, -3.122771657583804]]</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>[[-41.76444440178686, -3.122771657583804], [-41.76444440178686, -3.122749422740139]]</t>
+          <t>[[-41.76444440178686, -3.122771657583804], [-41.76444440178686, -3.122793892427418]]</t>
         </is>
       </c>
       <c r="H233" t="n">
@@ -9086,12 +9086,12 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>[[-41.76444440178072, -3.1228417664498034], [-41.76443775982161, -3.1228417664498034]]</t>
+          <t>[[-41.76444440178072, -3.1228417664498034], [-41.764437759821334, -3.1228417664498034]]</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>[[-41.76444440178072, -3.1228417664498034], [-41.76444440178072, -3.1228195316061673]]</t>
+          <t>[[-41.76444440178072, -3.1228417664498034], [-41.76444440178072, -3.122864001293387]]</t>
         </is>
       </c>
       <c r="H234" t="n">
@@ -9123,12 +9123,12 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>[[-41.76444440177494, -3.122907751260718], [-41.764437759815415, -3.122907751260718]]</t>
+          <t>[[-41.76444440177494, -3.122907751260718], [-41.76443775981514, -3.122907751260718]]</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>[[-41.76444440177494, -3.122907751260718], [-41.76444440177494, -3.12288551641711]]</t>
+          <t>[[-41.76444440177494, -3.122907751260718], [-41.76444440177494, -3.122929986104274]]</t>
         </is>
       </c>
       <c r="H235" t="n">
@@ -9160,12 +9160,12 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>[[-41.764755764929696, -3.123161376733684], [-41.76474912296858, -3.123161376733684]]</t>
+          <t>[[-41.764755764929696, -3.123161376733684], [-41.764749122968304, -3.123161376733684]]</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>[[-41.764755764929696, -3.123161376733684], [-41.764755764929696, -3.1231391418901833]]</t>
+          <t>[[-41.764755764929696, -3.123161376733684], [-41.764755764929696, -3.1231836115771325]]</t>
         </is>
       </c>
       <c r="H236" t="n">
@@ -9197,12 +9197,12 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>[[-41.76492103887535, -3.122798375335988], [-41.764916092462286, -3.122798375335988]]</t>
+          <t>[[-41.76492103887535, -3.122798375335988], [-41.76491609246222, -3.122798375335988]]</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>[[-41.76492103887535, -3.122798375335988], [-41.76492103887535, -3.122791316473199]]</t>
+          <t>[[-41.76492103887535, -3.122798375335988], [-41.76492103887535, -3.122805434198754]]</t>
         </is>
       </c>
       <c r="H237" t="n">
@@ -9234,12 +9234,12 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>[[-41.76492103889044, -3.122839902218792], [-41.764916092477186, -3.122839902218792]]</t>
+          <t>[[-41.76492103889044, -3.122839902218792], [-41.764916092477115, -3.122839902218792]]</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>[[-41.76492103889044, -3.122839902218792], [-41.76492103889044, -3.1228328433560075]]</t>
+          <t>[[-41.76492103889044, -3.122839902218792], [-41.76492103889044, -3.122846961081552]]</t>
         </is>
       </c>
       <c r="H238" t="n">
@@ -9271,12 +9271,12 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>[[-41.76492103890708, -3.1228857247492576], [-41.764916092493614, -3.1228857247492576]]</t>
+          <t>[[-41.76492103890708, -3.1228857247492576], [-41.76491609249354, -3.1228857247492576]]</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>[[-41.76492103890708, -3.1228857247492576], [-41.76492103890708, -3.122878665886479]]</t>
+          <t>[[-41.76492103890708, -3.1228857247492576], [-41.76492103890708, -3.1228927836120115]]</t>
         </is>
       </c>
       <c r="H239" t="n">
@@ -9308,12 +9308,12 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>[[-41.764921038920725, -3.122923313624336], [-41.76491609250708, -3.122923313624336]]</t>
+          <t>[[-41.764921038920725, -3.122923313624336], [-41.764916092507015, -3.122923313624336]]</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>[[-41.764921038920725, -3.122923313624336], [-41.764921038920725, -3.1229162547615625]]</t>
+          <t>[[-41.764921038920725, -3.122923313624336], [-41.764921038920725, -3.1229303724870845]]</t>
         </is>
       </c>
       <c r="H240" t="n">
@@ -9345,12 +9345,12 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>[[-41.764921038936336, -3.122966272378105], [-41.76491609252249, -3.122966272378105]]</t>
+          <t>[[-41.764921038936336, -3.122966272378105], [-41.76491609252242, -3.122966272378105]]</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>[[-41.764921038936336, -3.122966272378105], [-41.764921038936336, -3.1229592135153372]]</t>
+          <t>[[-41.764921038936336, -3.122966272378105], [-41.764921038936336, -3.1229733312408476]]</t>
         </is>
       </c>
       <c r="H241" t="n">
@@ -9382,12 +9382,12 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>[[-41.76381912853492, -3.122618546491055], [-41.7638141821227, -3.122618546491055]]</t>
+          <t>[[-41.76381912853492, -3.122618546491055], [-41.76381418212263, -3.122618546491055]]</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>[[-41.76381912853492, -3.122618546491055], [-41.76381912853492, -3.1226114876282414]]</t>
+          <t>[[-41.76381912853492, -3.122618546491055], [-41.76381912853492, -3.122625605353846]]</t>
         </is>
       </c>
       <c r="H242" t="n">
@@ -9419,12 +9419,12 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>[[-41.76382191898863, -3.1227104526345766], [-41.76381697257598, -3.1227104526345766]]</t>
+          <t>[[-41.76382191898863, -3.1227104526345766], [-41.76381697257592, -3.1227104526345766]]</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>[[-41.76382191898863, -3.1227104526345766], [-41.76382191898863, -3.1227033937717743]]</t>
+          <t>[[-41.76382191898863, -3.1227104526345766], [-41.76382191898863, -3.1227175114973544]]</t>
         </is>
       </c>
       <c r="H243" t="n">
@@ -9456,12 +9456,12 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>[[-41.76382191895696, -3.1227572776404933], [-41.763816972544085, -3.1227572776404933]]</t>
+          <t>[[-41.76382191895696, -3.1227572776404933], [-41.76381697254402, -3.1227572776404933]]</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>[[-41.76382191895696, -3.1227572776404933], [-41.76382191895696, -3.1227502187776977]]</t>
+          <t>[[-41.76382191895696, -3.1227572776404933], [-41.76382191895696, -3.1227643365032645]]</t>
         </is>
       </c>
       <c r="H244" t="n">
@@ -9493,12 +9493,12 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>[[-41.763821918928194, -3.122799806895171], [-41.76381697251512, -3.122799806895171]]</t>
+          <t>[[-41.763821918928194, -3.122799806895171], [-41.76381697251506, -3.122799806895171]]</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>[[-41.763821918928194, -3.122799806895171], [-41.763821918928194, -3.1227927480323814]]</t>
+          <t>[[-41.763821918928194, -3.122799806895171], [-41.763821918928194, -3.1228068657579366]]</t>
         </is>
       </c>
       <c r="H245" t="n">
@@ -9530,12 +9530,12 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>[[-41.763821918901165, -3.1228397585680083], [-41.76381697248791, -3.1228397585680083]]</t>
+          <t>[[-41.763821918901165, -3.1228397585680083], [-41.763816972487845, -3.1228397585680083]]</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>[[-41.763821918901165, -3.1228397585680083], [-41.763821918901165, -3.1228326997052234]]</t>
+          <t>[[-41.763821918901165, -3.1228397585680083], [-41.763821918901165, -3.1228468174307684]]</t>
         </is>
       </c>
       <c r="H246" t="n">
@@ -9567,12 +9567,12 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>[[-41.763821918872985, -3.122881428513693], [-41.76381697245953, -3.122881428513693]]</t>
+          <t>[[-41.763821918872985, -3.122881428513693], [-41.763816972459466, -3.122881428513693]]</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>[[-41.763821918872985, -3.122881428513693], [-41.763821918872985, -3.1228743696509134]]</t>
+          <t>[[-41.763821918872985, -3.122881428513693], [-41.763821918872985, -3.122888487376446]]</t>
         </is>
       </c>
       <c r="H247" t="n">
@@ -9604,12 +9604,12 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>[[-41.76382191884538, -3.1229222393229055], [-41.76381697243174, -3.1229222393229055]]</t>
+          <t>[[-41.76382191884538, -3.1229222393229055], [-41.76381697243167, -3.1229222393229055]]</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>[[-41.76382191884538, -3.1229222393229055], [-41.76382191884538, -3.1229151804601325]]</t>
+          <t>[[-41.76382191884538, -3.1229222393229055], [-41.76382191884538, -3.1229292981856545]]</t>
         </is>
       </c>
       <c r="H248" t="n">
@@ -9641,12 +9641,12 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>[[-41.76382191881458, -3.122967775675724], [-41.763816972400726, -3.122967775675724]]</t>
+          <t>[[-41.76382191881458, -3.122967775675724], [-41.763816972400654, -3.122967775675724]]</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>[[-41.76382191881458, -3.122967775675724], [-41.76382191881458, -3.1229607168129583]]</t>
+          <t>[[-41.76382191881458, -3.122967775675724], [-41.76382191881458, -3.122974834538468]]</t>
         </is>
       </c>
       <c r="H249" t="n">
@@ -9678,12 +9678,12 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>[[-41.76492103896742, -3.1230518319005203], [-41.76491609255317, -3.1230518319005203]]</t>
+          <t>[[-41.76492103896742, -3.1230518319005203], [-41.76491609255311, -3.1230518319005203]]</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>[[-41.76492103896742, -3.1230518319005203], [-41.76492103896742, -3.123044773037764]]</t>
+          <t>[[-41.76492103896742, -3.1230518319005203], [-41.76492103896742, -3.1230588907632533]]</t>
         </is>
       </c>
       <c r="H250" t="n">
@@ -9715,12 +9715,12 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>[[-41.763821918785816, -3.123010304843988], [-41.763816972371764, -3.123010304843988]]</t>
+          <t>[[-41.763821918785816, -3.123010304843988], [-41.76381697237169, -3.123010304843988]]</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>[[-41.763821918785816, -3.123010304843988], [-41.763821918785816, -3.1230032459812276]]</t>
+          <t>[[-41.763821918785816, -3.123010304843988], [-41.763821918785816, -3.123017363706726]]</t>
         </is>
       </c>
       <c r="H251" t="n">
@@ -9752,12 +9752,12 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>[[-41.76382191875734, -3.123052404461248], [-41.763816972343086, -3.123052404461248]]</t>
+          <t>[[-41.76382191875734, -3.123052404461248], [-41.76381697234302, -3.123052404461248]]</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>[[-41.76382191875734, -3.123052404461248], [-41.76382191875734, -3.1230453455984915]]</t>
+          <t>[[-41.76382191875734, -3.123052404461248], [-41.76382191875734, -3.1230594633239788]]</t>
         </is>
       </c>
       <c r="H252" t="n">
@@ -9789,12 +9789,12 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>[[-41.763821918700685, -3.1231361506127975], [-41.763816972286044, -3.1231361506127975]]</t>
+          <t>[[-41.763821918700685, -3.1231361506127975], [-41.76381697228597, -3.1231361506127975]]</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>[[-41.763821918700685, -3.1231361506127975], [-41.763821918700685, -3.1231290917500534]]</t>
+          <t>[[-41.763821918700685, -3.1231361506127975], [-41.763821918700685, -3.1231432094755185]]</t>
         </is>
       </c>
       <c r="H253" t="n">
@@ -9826,12 +9826,12 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>[[-41.76389407471076, -3.122618403580375], [-41.763889128298544, -3.122618403580375]]</t>
+          <t>[[-41.76389407471076, -3.122618403580375], [-41.76388912829847, -3.122618403580375]]</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>[[-41.76389407471076, -3.122618403580375], [-41.76389407471076, -3.1226113447175625]]</t>
+          <t>[[-41.76389407471076, -3.122618403580375], [-41.76389407471076, -3.1226254624431653]]</t>
         </is>
       </c>
       <c r="H254" t="n">
@@ -9863,12 +9863,12 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>[[-41.76389798121145, -3.1227123890180954], [-41.76389303479879, -3.1227123890180954]]</t>
+          <t>[[-41.76389798121145, -3.1227123890180954], [-41.76389303479873, -3.1227123890180954]]</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>[[-41.76389798121145, -3.1227123890180954], [-41.76389798121145, -3.1227053301552936]]</t>
+          <t>[[-41.76389798121145, -3.1227123890180954], [-41.76389798121145, -3.1227194478808724]]</t>
         </is>
       </c>
       <c r="H255" t="n">
@@ -9900,12 +9900,12 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>[[-41.76389798118457, -3.122756858194891], [-41.763893034771705, -3.122756858194891]]</t>
+          <t>[[-41.76389798118457, -3.122756858194891], [-41.763893034771634, -3.122756858194891]]</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>[[-41.76389798118457, -3.122756858194891], [-41.76389798118457, -3.122749799332096]]</t>
+          <t>[[-41.76389798118457, -3.122756858194891], [-41.76389798118457, -3.122763917057663]]</t>
         </is>
       </c>
       <c r="H256" t="n">
@@ -9937,12 +9937,12 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>[[-41.763897981159474, -3.1227983752113184], [-41.76389303474641, -3.1227983752113184]]</t>
+          <t>[[-41.763897981159474, -3.1227983752113184], [-41.763893034746346, -3.1227983752113184]]</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>[[-41.763897981159474, -3.1227983752113184], [-41.763897981159474, -3.122791316348528]]</t>
+          <t>[[-41.763897981159474, -3.1227983752113184], [-41.763897981159474, -3.1228054340740834]]</t>
         </is>
       </c>
       <c r="H257" t="n">
@@ -9974,12 +9974,12 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>[[-41.76389798113438, -3.122839902094121], [-41.76389303472112, -3.122839902094121]]</t>
+          <t>[[-41.76389798113438, -3.122839902094121], [-41.76389303472105, -3.122839902094121]]</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>[[-41.76389798113438, -3.122839902094121], [-41.76389798113438, -3.122832843231336]]</t>
+          <t>[[-41.76389798113438, -3.122839902094121], [-41.76389798113438, -3.1228469609568807]]</t>
         </is>
       </c>
       <c r="H258" t="n">
@@ -10011,12 +10011,12 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>[[-41.76389798110668, -3.1228857246245867], [-41.76389303469321, -3.1228857246245867]]</t>
+          <t>[[-41.76389798110668, -3.1228857246245867], [-41.76389303469314, -3.1228857246245867]]</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>[[-41.76389798110668, -3.1228857246245867], [-41.76389798110668, -3.122878665761809]]</t>
+          <t>[[-41.76389798110668, -3.1228857246245867], [-41.76389798110668, -3.122892783487341]]</t>
         </is>
       </c>
       <c r="H259" t="n">
@@ -10048,12 +10048,12 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>[[-41.76492103898406, -3.123097654508423], [-41.7649160925696, -3.123097654508423]]</t>
+          <t>[[-41.76492103898406, -3.123097654508423], [-41.764916092569536, -3.123097654508423]]</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>[[-41.76492103898406, -3.123097654508423], [-41.76492103898406, -3.123090595645673]]</t>
+          <t>[[-41.76492103898406, -3.123097654508423], [-41.76492103898406, -3.1231047133711485]]</t>
         </is>
       </c>
       <c r="H260" t="n">
@@ -10085,12 +10085,12 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>[[-41.76389798108396, -3.122923313499665], [-41.76389303467031, -3.122923313499665]]</t>
+          <t>[[-41.76389798108396, -3.122923313499665], [-41.76389303467025, -3.122923313499665]]</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>[[-41.76389798108396, -3.122923313499665], [-41.76389798108396, -3.122916254636892]]</t>
+          <t>[[-41.76389798108396, -3.122923313499665], [-41.76389798108396, -3.122930372362415]]</t>
         </is>
       </c>
       <c r="H261" t="n">
@@ -10122,12 +10122,12 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>[[-41.763897981057994, -3.122966272253432], [-41.76389303464415, -3.122966272253432]]</t>
+          <t>[[-41.763897981057994, -3.122966272253432], [-41.76389303464408, -3.122966272253432]]</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>[[-41.763897981057994, -3.122966272253432], [-41.763897981057994, -3.1229592133906645]]</t>
+          <t>[[-41.763897981057994, -3.122966272253432], [-41.763897981057994, -3.122973331116176]]</t>
         </is>
       </c>
       <c r="H262" t="n">
@@ -10159,12 +10159,12 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>[[-41.763897981006274, -3.123051831775848], [-41.76389303459202, -3.123051831775848]]</t>
+          <t>[[-41.763897981006274, -3.123051831775848], [-41.76389303459196, -3.123051831775848]]</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>[[-41.763897981006274, -3.123051831775848], [-41.763897981006274, -3.123044772913092]]</t>
+          <t>[[-41.763897981006274, -3.123051831775848], [-41.763897981006274, -3.1230588906385806]]</t>
         </is>
       </c>
       <c r="H263" t="n">
@@ -10196,12 +10196,12 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>[[-41.76389798097858, -3.123097654383748], [-41.76389303456411, -3.123097654383748]]</t>
+          <t>[[-41.76389798097858, -3.123097654383748], [-41.76389303456405, -3.123097654383748]]</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>[[-41.76389798097858, -3.123097654383748], [-41.76389798097858, -3.123090595520999]]</t>
+          <t>[[-41.76389798097858, -3.123097654383748], [-41.76389798097858, -3.123104713246474]]</t>
         </is>
       </c>
       <c r="H264" t="n">
@@ -10233,12 +10233,12 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>[[-41.763897980953246, -3.1231395391521466], [-41.76389303453859, -3.1231395391521466]]</t>
+          <t>[[-41.763897980953246, -3.1231395391521466], [-41.76389303453852, -3.1231395391521466]]</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>[[-41.763897980953246, -3.1231395391521466], [-41.763897980953246, -3.123132480289403]]</t>
+          <t>[[-41.763897980953246, -3.1231395391521466], [-41.763897980953246, -3.123146598014867]]</t>
         </is>
       </c>
       <c r="H265" t="n">
@@ -10270,12 +10270,12 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>[[-41.7638979809288, -3.1231799919761447], [-41.763893034513956, -3.1231799919761447]]</t>
+          <t>[[-41.7638979809288, -3.1231799919761447], [-41.76389303451389, -3.1231799919761447]]</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>[[-41.7638979809288, -3.1231799919761447], [-41.7638979809288, -3.1231729331134077]]</t>
+          <t>[[-41.7638979809288, -3.1231799919761447], [-41.7638979809288, -3.1231870508388595]]</t>
         </is>
       </c>
       <c r="H266" t="n">
@@ -10307,12 +10307,12 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>[[-41.76484497655905, -3.122621006877376], [-41.764840030146814, -3.122621006877376]]</t>
+          <t>[[-41.76484497655905, -3.122621006877376], [-41.76484003014675, -3.122621006877376]]</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>[[-41.76484497655905, -3.122621006877376], [-41.76484497655905, -3.1226139480145623]]</t>
+          <t>[[-41.76484497655905, -3.122621006877376], [-41.76484497655905, -3.1226280657401664]]</t>
         </is>
       </c>
       <c r="H267" t="n">
@@ -10344,12 +10344,12 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>[[-41.7648449765851, -3.1227104528336227], [-41.76484003017245, -3.1227104528336227]]</t>
+          <t>[[-41.7648449765851, -3.1227104528336227], [-41.76484003017239, -3.1227104528336227]]</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>[[-41.7648449765851, -3.1227104528336227], [-41.7648449765851, -3.122703393970821]]</t>
+          <t>[[-41.7648449765851, -3.1227104528336227], [-41.7648449765851, -3.1227175116964005]]</t>
         </is>
       </c>
       <c r="H268" t="n">
@@ -10381,12 +10381,12 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>[[-41.764844976598745, -3.12275727783954], [-41.76484003018587, -3.12275727783954]]</t>
+          <t>[[-41.764844976598745, -3.12275727783954], [-41.76484003018581, -3.12275727783954]]</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>[[-41.764844976598745, -3.12275727783954], [-41.764844976598745, -3.122750218976745]]</t>
+          <t>[[-41.764844976598745, -3.12275727783954], [-41.764844976598745, -3.1227643367023115]]</t>
         </is>
       </c>
       <c r="H269" t="n">
@@ -10418,12 +10418,12 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>[[-41.76484497661114, -3.1227998070942204], [-41.764840030198066, -3.1227998070942204]]</t>
+          <t>[[-41.76484497661114, -3.1227998070942204], [-41.764840030198, -3.1227998070942204]]</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>[[-41.76484497661114, -3.1227998070942204], [-41.76484497661114, -3.122792748231431]]</t>
+          <t>[[-41.76484497661114, -3.1227998070942204], [-41.76484497661114, -3.1228068659569863]]</t>
         </is>
       </c>
       <c r="H270" t="n">
@@ -10455,12 +10455,12 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>[[-41.76492103899928, -3.12313953927682], [-41.76491609258463, -3.12313953927682]]</t>
+          <t>[[-41.76492103899928, -3.12313953927682], [-41.764916092584556, -3.12313953927682]]</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>[[-41.76492103899928, -3.12313953927682], [-41.76492103899928, -3.123132480414076]]</t>
+          <t>[[-41.76492103899928, -3.12313953927682], [-41.76492103899928, -3.1231465981395403]]</t>
         </is>
       </c>
       <c r="H271" t="n">
@@ -10492,12 +10492,12 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>[[-41.76484497662277, -3.1228397587670598], [-41.76484003020951, -3.1228397587670598]]</t>
+          <t>[[-41.76484497662277, -3.1228397587670598], [-41.76484003020945, -3.1228397587670598]]</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>[[-41.76484497662277, -3.1228397587670598], [-41.76484497662277, -3.122832699904275]]</t>
+          <t>[[-41.76484497662277, -3.1228397587670598], [-41.76484497662277, -3.1228468176298203]]</t>
         </is>
       </c>
       <c r="H272" t="n">
@@ -10529,12 +10529,12 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>[[-41.76484497663491, -3.1228814287127427], [-41.76484003022146, -3.1228814287127427]]</t>
+          <t>[[-41.76484497663491, -3.1228814287127427], [-41.76484003022139, -3.1228814287127427]]</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>[[-41.76484497663491, -3.1228814287127427], [-41.76484497663491, -3.1228743698499626]]</t>
+          <t>[[-41.76484497663491, -3.1228814287127427], [-41.76484497663491, -3.122888487575497]]</t>
         </is>
       </c>
       <c r="H273" t="n">
@@ -10566,12 +10566,12 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>[[-41.7648449766468, -3.122922239521957], [-41.76484003023316, -3.122922239521957]]</t>
+          <t>[[-41.7648449766468, -3.122922239521957], [-41.76484003023309, -3.122922239521957]]</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>[[-41.7648449766468, -3.122922239521957], [-41.7648449766468, -3.122915180659184]]</t>
+          <t>[[-41.7648449766468, -3.122922239521957], [-41.7648449766468, -3.1229292983847055]]</t>
         </is>
       </c>
       <c r="H274" t="n">
@@ -10603,12 +10603,12 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>[[-41.76484497666007, -3.122967775874777], [-41.76484003024622, -3.122967775874777]]</t>
+          <t>[[-41.76484497666007, -3.122967775874777], [-41.76484003024615, -3.122967775874777]]</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>[[-41.76484497666007, -3.122967775874777], [-41.76484497666007, -3.122960717012009]]</t>
+          <t>[[-41.76484497666007, -3.122967775874777], [-41.76484497666007, -3.1229748347375197]]</t>
         </is>
       </c>
       <c r="H275" t="n">
@@ -10640,12 +10640,12 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>[[-41.76484497667246, -3.123010305043041], [-41.764840030258405, -3.123010305043041]]</t>
+          <t>[[-41.76484497667246, -3.123010305043041], [-41.764840030258334, -3.123010305043041]]</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>[[-41.76484497667246, -3.123010305043041], [-41.76484497667246, -3.12300324618028]]</t>
+          <t>[[-41.76484497667246, -3.123010305043041], [-41.76484497667246, -3.123017363905778]]</t>
         </is>
       </c>
       <c r="H276" t="n">
@@ -10677,12 +10677,12 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>[[-41.76484497668472, -3.123052404660302], [-41.76484003027047, -3.123052404660302]]</t>
+          <t>[[-41.76484497668472, -3.123052404660302], [-41.764840030270406, -3.123052404660302]]</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>[[-41.76484497668472, -3.123052404660302], [-41.76484497668472, -3.1230453457975456]]</t>
+          <t>[[-41.76484497668472, -3.123052404660302], [-41.76484497668472, -3.1230594635230338]]</t>
         </is>
       </c>
       <c r="H277" t="n">
@@ -10714,12 +10714,12 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>[[-41.76484497669686, -3.123094074631692], [-41.76484003028241, -3.123094074631692]]</t>
+          <t>[[-41.76484497669686, -3.123094074631692], [-41.76484003028234, -3.123094074631692]]</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>[[-41.76484497669686, -3.123094074631692], [-41.76484497669686, -3.123087015768942]]</t>
+          <t>[[-41.76484497669686, -3.123094074631692], [-41.76484497669686, -3.1231011334944183]]</t>
         </is>
       </c>
       <c r="H278" t="n">
@@ -10751,12 +10751,12 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>[[-41.76484497672189, -3.1231799921259764], [-41.76484003030704, -3.1231799921259764]]</t>
+          <t>[[-41.76484497672189, -3.1231799921259764], [-41.76484003030698, -3.1231799921259764]]</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>[[-41.76484497672189, -3.1231799921259764], [-41.76484497672189, -3.1231729332632385]]</t>
+          <t>[[-41.76484497672189, -3.1231799921259764], [-41.76484497672189, -3.1231870509886903]]</t>
         </is>
       </c>
       <c r="H279" t="n">
@@ -10788,12 +10788,12 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>[[-41.76491925475741, -3.1226213121250534], [-41.764914308345176, -3.1226213121250534]]</t>
+          <t>[[-41.76491925475741, -3.1226213121250534], [-41.764914308345105, -3.1226213121250534]]</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>[[-41.76491925475741, -3.1226213121250534], [-41.76491925475741, -3.1226142532622387]]</t>
+          <t>[[-41.76491925475741, -3.1226213121250534], [-41.76491925475741, -3.122628370987843]]</t>
         </is>
       </c>
       <c r="H280" t="n">
@@ -10825,12 +10825,12 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>[[-41.76492103884412, -3.122712389142764], [-41.76491609243146, -3.122712389142764]]</t>
+          <t>[[-41.76492103884412, -3.122712389142764], [-41.7649160924314, -3.122712389142764]]</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>[[-41.76492103884412, -3.122712389142764], [-41.76492103884412, -3.1227053302799628]]</t>
+          <t>[[-41.76492103884412, -3.122712389142764], [-41.76492103884412, -3.1227194480055416]]</t>
         </is>
       </c>
       <c r="H281" t="n">
@@ -10862,12 +10862,12 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>[[-41.76492103901398, -3.12317999210082], [-41.76491609259913, -3.12317999210082]]</t>
+          <t>[[-41.76492103901398, -3.12317999210082], [-41.764916092599066, -3.12317999210082]]</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>[[-41.76492103901398, -3.12317999210082], [-41.76492103901398, -3.123172933238081]]</t>
+          <t>[[-41.76492103901398, -3.12317999210082], [-41.76492103901398, -3.123187050963534]]</t>
         </is>
       </c>
       <c r="H282" t="n">
@@ -10899,12 +10899,12 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>[[-41.76499550109912, -3.1227113227127776], [-41.76499055468647, -3.1227113227127776]]</t>
+          <t>[[-41.76499550109912, -3.1227113227127776], [-41.7649905546864, -3.1227113227127776]]</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>[[-41.76499550109912, -3.1227113227127776], [-41.76499550109912, -3.1227042638843416]]</t>
+          <t>[[-41.76499550109912, -3.1227113227127776], [-41.76499550109912, -3.1227183815411905]]</t>
         </is>
       </c>
       <c r="H283" t="n">
@@ -10936,12 +10936,12 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>[[-41.764995501136895, -3.1227984431979303], [-41.76499055472383, -3.1227984431979303]]</t>
+          <t>[[-41.764995501136895, -3.1227984431979303], [-41.76499055472377, -3.1227984431979303]]</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>[[-41.764995501136895, -3.1227984431979303], [-41.764995501136895, -3.1227913843695045]]</t>
+          <t>[[-41.764995501136895, -3.1227984431979303], [-41.764995501136895, -3.122805502026331]]</t>
         </is>
       </c>
       <c r="H284" t="n">
@@ -10973,12 +10973,12 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>[[-41.76499550117247, -3.122880482448391], [-41.764990554759024, -3.122880482448391]]</t>
+          <t>[[-41.76499550117247, -3.122880482448391], [-41.76499055475896, -3.122880482448391]]</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>[[-41.76499550117247, -3.122880482448391], [-41.76499550117247, -3.1228734236199758]]</t>
+          <t>[[-41.76499550117247, -3.122880482448391], [-41.76499550117247, -3.12288754127678]]</t>
         </is>
       </c>
       <c r="H285" t="n">
@@ -11010,12 +11010,12 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>[[-41.76499550119033, -3.1229216512771174], [-41.76499055477669, -3.1229216512771174]]</t>
+          <t>[[-41.76499550119033, -3.1229216512771174], [-41.764990554776624, -3.1229216512771174]]</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>[[-41.76499550119033, -3.1229216512771174], [-41.76499550119033, -3.122914592448709]]</t>
+          <t>[[-41.76499550119033, -3.1229216512771174], [-41.76499550119033, -3.122928710105502]]</t>
         </is>
       </c>
       <c r="H286" t="n">
@@ -11047,12 +11047,12 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>[[-41.76499550120974, -3.1229663999387127], [-41.764990554795894, -3.1229663999387127]]</t>
+          <t>[[-41.76499550120974, -3.1229663999387127], [-41.76499055479582, -3.1229663999387127]]</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>[[-41.76499550120974, -3.1229663999387127], [-41.76499550120974, -3.1229593411103105]]</t>
+          <t>[[-41.76499550120974, -3.1229663999387127], [-41.76499550120974, -3.122973458767091]]</t>
         </is>
       </c>
       <c r="H287" t="n">
@@ -11084,12 +11084,12 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>[[-41.764995501246936, -3.1230521682943446], [-41.764990554832686, -3.1230521682943446]]</t>
+          <t>[[-41.764995501246936, -3.1230521682943446], [-41.76499055483262, -3.1230521682943446]]</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>[[-41.764995501246936, -3.1230521682943446], [-41.764995501246936, -3.123045109465954]]</t>
+          <t>[[-41.764995501246936, -3.1230521682943446], [-41.764995501246936, -3.123059227122712]]</t>
         </is>
       </c>
       <c r="H288" t="n">
@@ -11121,12 +11121,12 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>[[-41.76499550128251, -3.1231342075228468], [-41.76499055486788, -3.1231342075228468]]</t>
+          <t>[[-41.76499550128251, -3.1231342075228468], [-41.764990554867815, -3.1231342075228468]]</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>[[-41.76499550128251, -3.1231342075228468], [-41.76499550128251, -3.1231271486944676]]</t>
+          <t>[[-41.76499550128251, -3.1231342075228468], [-41.76499550128251, -3.1231412663512024]]</t>
         </is>
       </c>
       <c r="H289" t="n">
@@ -11158,12 +11158,12 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>[[-41.76397132726976, -3.122618046985399], [-41.76396638085754, -3.122618046985399]]</t>
+          <t>[[-41.76397132726976, -3.122618046985399], [-41.763966380857475, -3.122618046985399]]</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>[[-41.76397132726976, -3.122618046985399], [-41.76397132726976, -3.122610988156949]]</t>
+          <t>[[-41.76397132726976, -3.122618046985399], [-41.76397132726976, -3.1226251058138232]]</t>
         </is>
       </c>
       <c r="H290" t="n">
@@ -11195,12 +11195,12 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>[[-41.7639724435018, -3.1227113226609235], [-41.76396749708915, -3.1227113226609235]]</t>
+          <t>[[-41.7639724435018, -3.1227113226609235], [-41.76396749708908, -3.1227113226609235]]</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>[[-41.7639724435018, -3.1227113226609235], [-41.7639724435018, -3.1227042638324867]]</t>
+          <t>[[-41.7639724435018, -3.1227113226609235], [-41.7639724435018, -3.122718381489337]]</t>
         </is>
       </c>
       <c r="H291" t="n">
@@ -11232,12 +11232,12 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>[[-41.76397244347684, -3.122758061835992], [-41.763967497063966, -3.122758061835992]]</t>
+          <t>[[-41.76397244347684, -3.122758061835992], [-41.763967497063895, -3.122758061835992]]</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>[[-41.76397244347684, -3.122758061835992], [-41.76397244347684, -3.122751003007562]]</t>
+          <t>[[-41.76397244347684, -3.122758061835992], [-41.76397244347684, -3.122765120664399]]</t>
         </is>
       </c>
       <c r="H292" t="n">
@@ -11269,12 +11269,12 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>[[-41.76499550130238, -3.123179992070835], [-41.76499055488753, -3.123179992070835]]</t>
+          <t>[[-41.76499550130238, -3.123179992070835], [-41.76499055488747, -3.123179992070835]]</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>[[-41.76499550130238, -3.123179992070835], [-41.76499550130238, -3.1231729332424627]]</t>
+          <t>[[-41.76499550130238, -3.123179992070835], [-41.76499550130238, -3.1231870508991855]]</t>
         </is>
       </c>
       <c r="H293" t="n">
@@ -11306,12 +11306,12 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>[[-41.76397244345527, -3.122798443146076], [-41.76396749704221, -3.122798443146076]]</t>
+          <t>[[-41.76397244345527, -3.122798443146076], [-41.763967497042145, -3.122798443146076]]</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>[[-41.76397244345527, -3.122798443146076], [-41.76397244345527, -3.1227913843176514]]</t>
+          <t>[[-41.76397244345527, -3.122798443146076], [-41.76397244345527, -3.1228055019744767]]</t>
         </is>
       </c>
       <c r="H294" t="n">
@@ -11343,12 +11343,12 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>[[-41.7639724434328, -3.1228405306892304], [-41.763967497019536, -3.1228405306892304]]</t>
+          <t>[[-41.7639724434328, -3.1228405306892304], [-41.76396749701947, -3.1228405306892304]]</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>[[-41.7639724434328, -3.1228405306892304], [-41.7639724434328, -3.1228334718608113]]</t>
+          <t>[[-41.7639724434328, -3.1228405306892304], [-41.7639724434328, -3.1228475895176255]]</t>
         </is>
       </c>
       <c r="H295" t="n">
@@ -11380,12 +11380,12 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>[[-41.76397244341146, -3.122880482396536], [-41.76396749699801, -3.122880482396536]]</t>
+          <t>[[-41.76397244341146, -3.122880482396536], [-41.76396749699795, -3.122880482396536]]</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>[[-41.76397244341146, -3.122880482396536], [-41.76397244341146, -3.1228734235681217]]</t>
+          <t>[[-41.76397244341146, -3.122880482396536], [-41.76397244341146, -3.1228875412249253]]</t>
         </is>
       </c>
       <c r="H296" t="n">
@@ -11417,12 +11417,12 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>[[-41.76397244338949, -3.1229216512252624], [-41.76396749697585, -3.1229216512252624]]</t>
+          <t>[[-41.76397244338949, -3.1229216512252624], [-41.76396749697579, -3.1229216512252624]]</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>[[-41.76397244338949, -3.1229216512252624], [-41.76397244338949, -3.1229145923968544]]</t>
+          <t>[[-41.76397244338949, -3.1229216512252624], [-41.76397244338949, -3.122928710053647]]</t>
         </is>
       </c>
       <c r="H297" t="n">
@@ -11454,12 +11454,12 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>[[-41.76397244336558, -3.1229663998868573], [-41.763967496951736, -3.1229663998868573]]</t>
+          <t>[[-41.76397244336558, -3.1229663998868573], [-41.763967496951665, -3.1229663998868573]]</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>[[-41.76397244336558, -3.1229663998868573], [-41.76397244336558, -3.122959341058455]]</t>
+          <t>[[-41.76397244336558, -3.1229663998868573], [-41.76397244336558, -3.122973458715235]]</t>
         </is>
       </c>
       <c r="H298" t="n">
@@ -11491,12 +11491,12 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>[[-41.76397244331978, -3.123052168242488], [-41.76396749690553, -3.123052168242488]]</t>
+          <t>[[-41.76397244331978, -3.123052168242488], [-41.763967496905465, -3.123052168242488]]</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>[[-41.76397244331978, -3.123052168242488], [-41.76397244331978, -3.123045109414098]]</t>
+          <t>[[-41.76397244331978, -3.123052168242488], [-41.76397244331978, -3.1230592270708555]]</t>
         </is>
       </c>
       <c r="H299" t="n">
@@ -11528,12 +11528,12 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>[[-41.76397244327597, -3.1231342074709896], [-41.76396749686133, -3.1231342074709896]]</t>
+          <t>[[-41.76397244327597, -3.1231342074709896], [-41.76396749686127, -3.1231342074709896]]</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>[[-41.76397244327597, -3.1231342074709896], [-41.76397244327597, -3.1231271486426095]]</t>
+          <t>[[-41.76397244327597, -3.1231342074709896], [-41.76397244327597, -3.123141266299345]]</t>
         </is>
       </c>
       <c r="H300" t="n">
@@ -11565,12 +11565,12 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>[[-41.76397244325152, -3.1231799920189784], [-41.76396749683667, -3.1231799920189784]]</t>
+          <t>[[-41.76397244325152, -3.1231799920189784], [-41.76396749683661, -3.1231799920189784]]</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>[[-41.76397244325152, -3.1231799920189784], [-41.76397244325152, -3.1231729331906055]]</t>
+          <t>[[-41.76397244325152, -3.1231799920189784], [-41.76397244325152, -3.1231870508473287]]</t>
         </is>
       </c>
       <c r="H301" t="n">
@@ -11602,12 +11602,12 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>[[-41.763972443229264, -3.123221662074354], [-41.763967496814224, -3.123221662074354]]</t>
+          <t>[[-41.763972443229264, -3.123221662074354], [-41.76396749681415, -3.123221662074354]]</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>[[-41.763972443229264, -3.123221662074354], [-41.763972443229264, -3.1232146032459864]]</t>
+          <t>[[-41.763972443229264, -3.123221662074354], [-41.763972443229264, -3.1232287209026985]]</t>
         </is>
       </c>
       <c r="H302" t="n">
@@ -11639,12 +11639,12 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>[[-41.76499773108376, -3.122620281985255], [-41.764992784671534, -3.122620281985255]]</t>
+          <t>[[-41.76499773108376, -3.122620281985255], [-41.76499278467146, -3.122620281985255]]</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>[[-41.76499773108376, -3.122620281985255], [-41.76499773108376, -3.122613223156806]]</t>
+          <t>[[-41.76499773108376, -3.122620281985255], [-41.76499773108376, -3.1226273408136795]]</t>
         </is>
       </c>
       <c r="H303" t="n">
@@ -11676,12 +11676,12 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>[[-41.76499550132085, -3.123222592878189], [-41.7649905549058, -3.123222592878189]]</t>
+          <t>[[-41.76499550132085, -3.123222592878189], [-41.76499055490574, -3.123222592878189]]</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>[[-41.76499550132085, -3.123222592878189], [-41.76499550132085, -3.1232155340498213]]</t>
+          <t>[[-41.76499550132085, -3.123222592878189], [-41.76499550132085, -3.123229651706533]]</t>
         </is>
       </c>
       <c r="H304" t="n">
@@ -11713,12 +11713,12 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>[[-41.765362587617645, -3.1231663822808757], [-41.76533510779258, -3.1231663822808757]]</t>
+          <t>[[-41.765362587617645, -3.1231663822808757], [-41.76533510779186, -3.1231663822808757]]</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>[[-41.765362587617645, -3.1231663822808757], [-41.765362587617645, -3.1231525047285347]]</t>
+          <t>[[-41.765362587617645, -3.1231663822808757], [-41.765362587617645, -3.1231802598324916]]</t>
         </is>
       </c>
       <c r="H305" t="n">
@@ -11750,12 +11750,12 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>[[-41.765362587545326, -3.123073775493587], [-41.76533510772267, -3.123073775493587]]</t>
+          <t>[[-41.765362587545326, -3.123073775493587], [-41.76533510772195, -3.123073775493587]]</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>[[-41.765362587545326, -3.123073775493587], [-41.765362587545326, -3.123059897941221]]</t>
+          <t>[[-41.765362587545326, -3.123073775493587], [-41.765362587545326, -3.1230876530452276]]</t>
         </is>
       </c>
       <c r="H306" t="n">
@@ -11787,12 +11787,12 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>[[-41.76536258747621, -3.1229852618186333], [-41.76533510765586, -3.1229852618186333]]</t>
+          <t>[[-41.76536258747621, -3.1229852618186333], [-41.76533510765513, -3.1229852618186333]]</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>[[-41.76536258747621, -3.1229852618186333], [-41.76536258747621, -3.122971384266244]]</t>
+          <t>[[-41.76536258747621, -3.1229852618186333], [-41.76536258747621, -3.122999139370297]]</t>
         </is>
       </c>
       <c r="H307" t="n">
@@ -11824,12 +11824,12 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>[[-41.76536258740549, -3.122894701545234], [-41.76533510758749, -3.122894701545234]]</t>
+          <t>[[-41.76536258740549, -3.122894701545234], [-41.76533510758677, -3.122894701545234]]</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>[[-41.76536258740549, -3.122894701545234], [-41.76536258740549, -3.1228808239928205]]</t>
+          <t>[[-41.76536258740549, -3.122894701545234], [-41.76536258740549, -3.122908579096922]]</t>
         </is>
       </c>
       <c r="H308" t="n">
@@ -11861,12 +11861,12 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>[[-41.765362587334366, -3.122803629736376], [-41.76533510751873, -3.122803629736376]]</t>
+          <t>[[-41.765362587334366, -3.122803629736376], [-41.76533510751801, -3.122803629736376]]</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>[[-41.765362587334366, -3.122803629736376], [-41.765362587334366, -3.122789752183938]]</t>
+          <t>[[-41.765362587334366, -3.122803629736376], [-41.765362587334366, -3.1228175072880875]]</t>
         </is>
       </c>
       <c r="H309" t="n">
@@ -11898,12 +11898,12 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>[[-41.76536258726125, -3.12270999962989], [-41.76533510744805, -3.12270999962989]]</t>
+          <t>[[-41.76536258726125, -3.12270999962989], [-41.76533510744733, -3.12270999962989]]</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>[[-41.76536258726125, -3.12270999962989], [-41.76536258726125, -3.122696122077428]]</t>
+          <t>[[-41.76536258726125, -3.12270999962989], [-41.76536258726125, -3.1227238771816266]]</t>
         </is>
       </c>
       <c r="H310" t="n">
@@ -11935,12 +11935,12 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>[[-41.76492021816184, -3.123222592908475], [-41.764915271746794, -3.123222592908475]]</t>
+          <t>[[-41.76492021816184, -3.123222592908475], [-41.76491527174673, -3.123222592908475]]</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>[[-41.76492021816184, -3.123222592908475], [-41.76492021816184, -3.123215534045742]]</t>
+          <t>[[-41.76492021816184, -3.123222592908475], [-41.76492021816184, -3.1232296517711835]]</t>
         </is>
       </c>
       <c r="H311" t="n">
@@ -11972,12 +11972,12 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>[[-41.76492021819814, -3.1233227247266684], [-41.76491527178263, -3.1233227247266684]]</t>
+          <t>[[-41.76492021819814, -3.1233227247266684], [-41.76491527178256, -3.1233227247266684]]</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>[[-41.76492021819814, -3.1233227247266684], [-41.76492021819814, -3.1233156658639487]]</t>
+          <t>[[-41.76492021819814, -3.1233227247266684], [-41.76492021819814, -3.123329783589363]]</t>
         </is>
       </c>
       <c r="H312" t="n">
@@ -12009,12 +12009,12 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>[[-41.76492021817959, -3.1232715379410614], [-41.764915271764316, -3.1232715379410614]]</t>
+          <t>[[-41.76492021817959, -3.1232715379410614], [-41.764915271764245, -3.1232715379410614]]</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>[[-41.76492021817959, -3.1232715379410614], [-41.76492021817959, -3.123264479078335]]</t>
+          <t>[[-41.76492021817959, -3.1232715379410614], [-41.76492021817959, -3.1232785968037646]]</t>
         </is>
       </c>
       <c r="H313" t="n">
@@ -12046,12 +12046,12 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>[[-41.76484573232278, -3.1233227247513016], [-41.76484078590727, -3.1233227247513016]]</t>
+          <t>[[-41.76484573232278, -3.1233227247513016], [-41.764840785907204, -3.1233227247513016]]</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>[[-41.76484573232278, -3.1233227247513016], [-41.76484573232278, -3.123315665888582]]</t>
+          <t>[[-41.76484573232278, -3.1233227247513016], [-41.76484573232278, -3.1233297836139964]]</t>
         </is>
       </c>
       <c r="H314" t="n">
@@ -12083,12 +12083,12 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>[[-41.764845732292656, -3.123219603827676], [-41.764840785877624, -3.123219603827676]]</t>
+          <t>[[-41.764845732292656, -3.123219603827676], [-41.76484078587756, -3.123219603827676]]</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>[[-41.764845732292656, -3.123219603827676], [-41.764845732292656, -3.123212544964943]]</t>
+          <t>[[-41.764845732292656, -3.123219603827676], [-41.764845732292656, -3.1232266626903846]]</t>
         </is>
       </c>
       <c r="H315" t="n">
@@ -12120,12 +12120,12 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>[[-41.76484497670805, -3.123132466825405], [-41.76484003029342, -3.123132466825405]]</t>
+          <t>[[-41.76484497670805, -3.123132466825405], [-41.76484003029336, -3.123132466825405]]</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>[[-41.76484497670805, -3.123132466825405], [-41.76484497670805, -3.123125407962659]]</t>
+          <t>[[-41.76484497670805, -3.123132466825405], [-41.76484497670805, -3.123139525688126]]</t>
         </is>
       </c>
       <c r="H316" t="n">
@@ -12157,12 +12157,12 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>[[-41.7648449765328, -3.122530888073352], [-41.764840030120986, -3.122530888073352]]</t>
+          <t>[[-41.7648449765328, -3.122530888073352], [-41.76484003012092, -3.122530888073352]]</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>[[-41.7648449765328, -3.122530888073352], [-41.7648449765328, -3.122523829210526]]</t>
+          <t>[[-41.7648449765328, -3.122530888073352], [-41.7648449765328, -3.1225379469361543]]</t>
         </is>
       </c>
       <c r="H317" t="n">
@@ -12194,12 +12194,12 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>[[-41.764919254724816, -3.1225311934935207], [-41.764914308313, -3.1225311934935207]]</t>
+          <t>[[-41.764919254724816, -3.1225311934935207], [-41.76491430831294, -3.1225311934935207]]</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>[[-41.764919254724816, -3.1225311934935207], [-41.764919254724816, -3.122524134630695]]</t>
+          <t>[[-41.764919254724816, -3.1225311934935207], [-41.764919254724816, -3.1225382523563225]]</t>
         </is>
       </c>
       <c r="H318" t="n">
@@ -12231,12 +12231,12 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>[[-41.76499773104449, -3.1225301632157287], [-41.76499278463268, -3.1225301632157287]]</t>
+          <t>[[-41.76499773104449, -3.1225301632157287], [-41.76499278463261, -3.1225301632157287]]</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>[[-41.76499773104449, -3.1225301632157287], [-41.76499773104449, -3.1225231043872683]]</t>
+          <t>[[-41.76499773104449, -3.1225301632157287], [-41.76499773104449, -3.122537222044167]]</t>
         </is>
       </c>
       <c r="H319" t="n">
@@ -12268,12 +12268,12 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>[[-41.76382191864289, -3.123221600591074], [-41.76381697222785, -3.123221600591074]]</t>
+          <t>[[-41.76382191864289, -3.123221600591074], [-41.76381697222778, -3.123221600591074]]</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>[[-41.76382191864289, -3.123221600591074], [-41.76382191864289, -3.1232145417283417]]</t>
+          <t>[[-41.76382191864289, -3.123221600591074], [-41.76382191864289, -3.1232286594537833]]</t>
         </is>
       </c>
       <c r="H320" t="n">
@@ -12305,12 +12305,12 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>[[-41.763894936702776, -3.123221600638436], [-41.76388999028774, -3.123221600638436]]</t>
+          <t>[[-41.763894936702776, -3.123221600638436], [-41.763889990287666, -3.123221600638436]]</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>[[-41.763894936702776, -3.123221600638436], [-41.763894936702776, -3.123214541775704]]</t>
+          <t>[[-41.763894936702776, -3.123221600638436], [-41.763894936702776, -3.123228659501145]]</t>
         </is>
       </c>
       <c r="H321" t="n">
@@ -12342,12 +12342,12 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>[[-41.763894936671534, -3.1232730270639566], [-41.76388999025625, -3.1232730270639566]]</t>
+          <t>[[-41.763894936671534, -3.1232730270639566], [-41.76388999025618, -3.1232730270639566]]</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>[[-41.763894936671534, -3.1232730270639566], [-41.763894936671534, -3.12326596820123]]</t>
+          <t>[[-41.763894936671534, -3.1232730270639566], [-41.763894936671534, -3.123280085926659]]</t>
         </is>
       </c>
       <c r="H322" t="n">
@@ -12379,12 +12379,12 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>[[-41.76389493664088, -3.1233235184834247], [-41.76388999022536, -3.1233235184834247]]</t>
+          <t>[[-41.76389493664088, -3.1233235184834247], [-41.763889990225294, -3.1233235184834247]]</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>[[-41.76389493664088, -3.1233235184834247], [-41.76389493664088, -3.1233164596207055]]</t>
+          <t>[[-41.76389493664088, -3.1233235184834247], [-41.76389493664088, -3.12333057734612]]</t>
         </is>
       </c>
       <c r="H323" t="n">
@@ -12416,12 +12416,12 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>[[-41.76381726771105, -3.1233235184328727], [-41.763812321295525, -3.1233235184328727]]</t>
+          <t>[[-41.76381726771105, -3.1233235184328727], [-41.76381232129546, -3.1233235184328727]]</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>[[-41.76381726771105, -3.1233235184328727], [-41.76381726771105, -3.123316459570154]]</t>
+          <t>[[-41.76381726771105, -3.1233235184328727], [-41.76381726771105, -3.123330577295568]]</t>
         </is>
       </c>
       <c r="H324" t="n">
@@ -12453,12 +12453,12 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>[[-41.76397167529516, -3.123323518527708], [-41.76396672887964, -3.123323518527708]]</t>
+          <t>[[-41.76397167529516, -3.123323518527708], [-41.76396672887957, -3.123323518527708]]</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>[[-41.76397167529516, -3.123323518527708], [-41.76397167529516, -3.1233164596993537]]</t>
+          <t>[[-41.76397167529516, -3.123323518527708], [-41.76397167529516, -3.1233305773560383]]</t>
         </is>
       </c>
       <c r="H325" t="n">
@@ -12490,12 +12490,12 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>[[-41.764995501365455, -3.123325423598759], [-41.764990554949925, -3.123325423598759]]</t>
+          <t>[[-41.764995501365455, -3.123325423598759], [-41.76499055494986, -3.123325423598759]]</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>[[-41.764995501365455, -3.123325423598759], [-41.764995501365455, -3.123318364770405]]</t>
+          <t>[[-41.764995501365455, -3.123325423598759], [-41.764995501365455, -3.123332482427089]]</t>
         </is>
       </c>
       <c r="H326" t="n">
@@ -12522,17 +12522,17 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>[[-41.76510477431613, -3.122968046954263], [-41.76510477431613, -3.122713022361824], [-41.76510477431613, -3.1232230715454605]]</t>
+          <t>[[-41.76510477431613, -3.122968046954263], [-41.76510477431613, -3.1232230715454605], [-41.76510477431613, -3.122713022361824]]</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>[[[-41.76510477431613, -3.122968046954263], [-41.765093078965094, -3.122968046954263]], [[-41.76510477431613, -3.122713022361824], [-41.765093078967915, -3.122713022361824]], [[-41.76510477431613, -3.1232230715454605], [-41.76511646967053, -3.1232230715454605]]]</t>
+          <t>[[[-41.76510477431613, -3.122968046954263], [-41.76509307896455, -3.122968046954263]], [[-41.76510477431613, -3.1232230715454605], [-41.765093078961726, -3.1232230715454605]], [[-41.76510477431613, -3.122713022361824], [-41.76511646966434, -3.122713022361824]]]</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>[[[-41.76510477431613, -3.122968046954263], [-41.76510477431613, -3.122943267969028]], [[-41.76510477431613, -3.122713022361824], [-41.76510477431613, -3.122688243376471]], [[-41.76510477431613, -3.1232230715454605], [-41.76510477431613, -3.123247850530431]]]</t>
+          <t>[[[-41.76510477431613, -3.122968046954263], [-41.76510477431613, -3.1229928259393533]], [[-41.76510477431613, -3.1232230715454605], [-41.76510477431613, -3.123247850530431]], [[-41.76510477431613, -3.122713022361824], [-41.76510477431613, -3.122688243376471]]]</t>
         </is>
       </c>
       <c r="H327" t="n">
@@ -12559,17 +12559,17 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>[[-41.764510526723434, -3.1229680471079964], [-41.764510526723434, -3.1227130225155575], [-41.764510526723434, -3.1232230716991944]]</t>
+          <t>[[-41.764510526723434, -3.1229680471079964], [-41.764510526723434, -3.1232230716991944], [-41.764510526723434, -3.1227130225155575]]</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>[[[-41.764510526723434, -3.1229680471079964], [-41.7644988313724, -3.1229680471079964]], [[-41.764510526723434, -3.1227130225155575], [-41.76449883137522, -3.1227130225155575]], [[-41.764510526723434, -3.1232230716991944], [-41.76452222207784, -3.1232230716991944]]]</t>
+          <t>[[[-41.764510526723434, -3.1229680471079964], [-41.76449883137185, -3.1229680471079964]], [[-41.764510526723434, -3.1232230716991944], [-41.76449883136903, -3.1232230716991944]], [[-41.764510526723434, -3.1227130225155575], [-41.76452222207165, -3.1227130225155575]]]</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>[[[-41.764510526723434, -3.1229680471079964], [-41.764510526723434, -3.1229432681227616]], [[-41.764510526723434, -3.1227130225155575], [-41.764510526723434, -3.122688243530203]], [[-41.764510526723434, -3.1232230716991944], [-41.764510526723434, -3.123247850684165]]]</t>
+          <t>[[[-41.764510526723434, -3.1229680471079964], [-41.764510526723434, -3.1229928260930873]], [[-41.764510526723434, -3.1232230716991944], [-41.764510526723434, -3.123247850684165]], [[-41.764510526723434, -3.1227130225155575], [-41.764510526723434, -3.122688243530203]]]</t>
         </is>
       </c>
       <c r="H328" t="n">
@@ -12596,17 +12596,17 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>[[-41.76371054640354, -3.1229680467818954], [-41.76371054640354, -3.122713022189457], [-41.76371054640354, -3.1232230713730935]]</t>
+          <t>[[-41.76371054640354, -3.1229680467818954], [-41.76371054640354, -3.1232230713730935], [-41.76371054640354, -3.122713022189457]]</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>[[[-41.76371054640354, -3.1229680467818954], [-41.7636988510525, -3.1229680467818954]], [[-41.76371054640354, -3.122713022189457], [-41.763698851055324, -3.122713022189457]], [[-41.76371054640354, -3.1232230713730935], [-41.76372224175794, -3.1232230713730935]]]</t>
+          <t>[[[-41.76371054640354, -3.1229680467818954], [-41.763698851051956, -3.1229680467818954]], [[-41.76371054640354, -3.1232230713730935], [-41.763698851049135, -3.1232230713730935]], [[-41.76371054640354, -3.122713022189457], [-41.76372224175175, -3.122713022189457]]]</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>[[[-41.76371054640354, -3.1229680467818954], [-41.76371054640354, -3.122943267796661]], [[-41.76371054640354, -3.122713022189457], [-41.76371054640354, -3.1226882432041037]], [[-41.76371054640354, -3.1232230713730935], [-41.76371054640354, -3.1232478503580645]]]</t>
+          <t>[[[-41.76371054640354, -3.1229680467818954], [-41.76371054640354, -3.1229928257669872]], [[-41.76371054640354, -3.1232230713730935], [-41.76371054640354, -3.1232478503580645]], [[-41.76371054640354, -3.122713022189457], [-41.76371054640354, -3.1226882432041037]]]</t>
         </is>
       </c>
       <c r="H329" t="n">
@@ -12638,12 +12638,12 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>[[-41.76532008466448, -3.123162422242333], [-41.765314523466365, -3.123162422242333]]</t>
+          <t>[[-41.76532008466448, -3.123162422242333], [-41.7653145234663, -3.123162422242333]]</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>[[-41.76532008466448, -3.123162422242333], [-41.76532008466448, -3.1231562084750135]]</t>
+          <t>[[-41.76532008466448, -3.123162422242333], [-41.76532008466448, -3.123168636009621]]</t>
         </is>
       </c>
       <c r="H330" t="n">
@@ -12675,12 +12675,12 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>[[-41.76532008459572, -3.1230696147396158], [-41.7653145233981, -3.1230696147396158]]</t>
+          <t>[[-41.76532008459572, -3.1230696147396158], [-41.76531452339803, -3.1230696147396158]]</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>[[-41.76532008459572, -3.1230696147396158], [-41.76532008459572, -3.123063400972286]]</t>
+          <t>[[-41.76532008459572, -3.1230696147396158], [-41.76532008459572, -3.1230758285069156]]</t>
         </is>
       </c>
       <c r="H331" t="n">
@@ -12712,12 +12712,12 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>[[-41.76532008452939, -3.122980064945214], [-41.765314523332236, -3.122980064945214]]</t>
+          <t>[[-41.76532008452939, -3.122980064945214], [-41.76531452333217, -3.122980064945214]]</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>[[-41.76532008452939, -3.122980064945214], [-41.76532008452939, -3.1229738511778744]]</t>
+          <t>[[-41.76532008452939, -3.122980064945214], [-41.76532008452939, -3.122986278712525]]</t>
         </is>
       </c>
       <c r="H332" t="n">
@@ -12749,12 +12749,12 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>[[-41.76532008446912, -3.1228986973351027], [-41.76531452327239, -3.1228986973351027]]</t>
+          <t>[[-41.76532008446912, -3.1228986973351027], [-41.76531452327232, -3.1228986973351027]]</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>[[-41.76532008446912, -3.1228986973351027], [-41.76532008446912, -3.1228924835677527]]</t>
+          <t>[[-41.76532008446912, -3.1228986973351027], [-41.76532008446912, -3.1229049111024234]]</t>
         </is>
       </c>
       <c r="H333" t="n">
@@ -12786,12 +12786,12 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>[[-41.765320084394205, -3.1227975649640247], [-41.76531452319801, -3.1227975649640247]]</t>
+          <t>[[-41.765320084394205, -3.1227975649640247], [-41.765314523197944, -3.1227975649640247]]</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>[[-41.765320084394205, -3.1227975649640247], [-41.765320084394205, -3.122791351196663]]</t>
+          <t>[[-41.765320084394205, -3.1227975649640247], [-41.765320084394205, -3.1228037787313574]]</t>
         </is>
       </c>
       <c r="H334" t="n">
@@ -12823,12 +12823,12 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>[[-41.76532008432936, -3.122710015980088], [-41.765314523133625, -3.122710015980088]]</t>
+          <t>[[-41.76532008432936, -3.122710015980088], [-41.76531452313356, -3.122710015980088]]</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>[[-41.76532008432936, -3.122710015980088], [-41.76532008432936, -3.1227038022127154]]</t>
+          <t>[[-41.76532008432936, -3.122710015980088], [-41.76532008432936, -3.122716229747431]]</t>
         </is>
       </c>
       <c r="H335" t="n">
@@ -12860,12 +12860,12 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>[[-41.7652545438848, -3.1231614535443586], [-41.76524983406344, -3.1231614535443586]]</t>
+          <t>[[-41.7652545438848, -3.1231614535443586], [-41.76524983406338, -3.1231614535443586]]</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>[[-41.7652545438848, -3.1231614535443586], [-41.7652545438848, -3.1231549069410134]]</t>
+          <t>[[-41.7652545438848, -3.1231614535443586], [-41.7652545438848, -3.1231680001476816]]</t>
         </is>
       </c>
       <c r="H336" t="n">
@@ -12897,12 +12897,12 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>[[-41.76525454382192, -3.123068818203556], [-41.76524983400097, -3.123068818203556]]</t>
+          <t>[[-41.76525454382192, -3.123068818203556], [-41.76524983400091, -3.123068818203556]]</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>[[-41.76525454382192, -3.123068818203556], [-41.76525454382192, -3.1230622716001983]]</t>
+          <t>[[-41.76525454382192, -3.123068818203556], [-41.76525454382192, -3.1230753648068905]]</t>
         </is>
       </c>
       <c r="H337" t="n">
@@ -12934,12 +12934,12 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>[[-41.76525454376036, -3.122978114427537], [-41.76524983393982, -3.122978114427537]]</t>
+          <t>[[-41.76525454376036, -3.122978114427537], [-41.76524983393976, -3.122978114427537]]</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>[[-41.76525454376036, -3.122978114427537], [-41.76525454376036, -3.1229715678241683]]</t>
+          <t>[[-41.76525454376036, -3.122978114427537], [-41.76525454376036, -3.1229846610308827]]</t>
         </is>
       </c>
       <c r="H338" t="n">
@@ -12971,12 +12971,12 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>[[-41.76525454370902, -3.122902484357831], [-41.76524983388881, -3.122902484357831]]</t>
+          <t>[[-41.76525454370902, -3.122902484357831], [-41.76524983388875, -3.122902484357831]]</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>[[-41.76525454370902, -3.122902484357831], [-41.76525454370902, -3.1228959377544534]]</t>
+          <t>[[-41.76525454370902, -3.122902484357831], [-41.76525454370902, -3.1229090309611864]]</t>
         </is>
       </c>
       <c r="H339" t="n">
@@ -13008,12 +13008,12 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>[[-41.7652545436471, -3.1228112547899545], [-41.7652498338273, -3.1228112547899545]]</t>
+          <t>[[-41.7652545436471, -3.1228112547899545], [-41.76524983382724, -3.1228112547899545]]</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>[[-41.7652545436471, -3.1228112547899545], [-41.7652545436471, -3.1228047081865657]]</t>
+          <t>[[-41.7652545436471, -3.1228112547899545], [-41.7652545436471, -3.1228178013933214]]</t>
         </is>
       </c>
       <c r="H340" t="n">
@@ -13045,12 +13045,12 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>[[-41.76525454357876, -3.1227105611633768], [-41.765249833759405, -3.1227105611633768]]</t>
+          <t>[[-41.76525454357876, -3.1227105611633768], [-41.76524983375935, -3.1227105611633768]]</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>[[-41.76525454357876, -3.1227105611633768], [-41.76525454357876, -3.1227040145599765]]</t>
+          <t>[[-41.76525454357876, -3.1227105611633768], [-41.76525454357876, -3.1227171077667566]]</t>
         </is>
       </c>
       <c r="H341" t="n">
@@ -13082,12 +13082,12 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>[[-41.76468855944476, -3.1222419827786982], [-41.76468222388573, -3.1222419827786982]]</t>
+          <t>[[-41.76468855944476, -3.1222419827786982], [-41.764682223885636, -3.1222419827786982]]</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>[[-41.76468855944476, -3.1222419827786982], [-41.76468855944476, -3.1222342351640284]]</t>
+          <t>[[-41.76468855944476, -3.1222419827786982], [-41.76468855944476, -3.1222497303933294]]</t>
         </is>
       </c>
       <c r="H342" t="n">
@@ -13119,12 +13119,12 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>[[-41.764688559454434, -3.1223095140635717], [-41.764682223895, -3.1223095140635717]]</t>
+          <t>[[-41.764688559454434, -3.1223095140635717], [-41.76468222389491, -3.1223095140635717]]</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>[[-41.764688559454434, -3.1223095140635717], [-41.764688559454434, -3.1223017664489117]]</t>
+          <t>[[-41.764688559454434, -3.1223095140635717], [-41.764688559454434, -3.1223172616781927]]</t>
         </is>
       </c>
       <c r="H343" t="n">
@@ -13156,12 +13156,12 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>[[-41.76468855946404, -3.1223765298112944], [-41.7646822239042, -3.1223765298112944]]</t>
+          <t>[[-41.76468855946404, -3.1223765298112944], [-41.76468222390411, -3.1223765298112944]]</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>[[-41.76468855946404, -3.1223765298112944], [-41.76468855946404, -3.122368782196644]]</t>
+          <t>[[-41.76468855946404, -3.1223765298112944], [-41.76468855946404, -3.122384277425905]]</t>
         </is>
       </c>
       <c r="H344" t="n">
@@ -13193,12 +13193,12 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>[[-41.76436732470437, -3.1222419827759174], [-41.76436098914534, -3.1222419827759174]]</t>
+          <t>[[-41.76436732470437, -3.1222419827759174], [-41.764360989145246, -3.1222419827759174]]</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>[[-41.76436732470437, -3.1222419827759174], [-41.76436732470437, -3.122234235161248]]</t>
+          <t>[[-41.76436732470437, -3.1222419827759174], [-41.76436732470437, -3.1222497303905485]]</t>
         </is>
       </c>
       <c r="H345" t="n">
@@ -13230,12 +13230,12 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>[[-41.76436732469353, -3.1223095140607904], [-41.7643609891341, -3.1223095140607904]]</t>
+          <t>[[-41.76436732469353, -3.1223095140607904], [-41.764360989134005, -3.1223095140607904]]</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>[[-41.76436732469353, -3.1223095140607904], [-41.76436732469353, -3.1223017664461303]]</t>
+          <t>[[-41.76436732469353, -3.1223095140607904], [-41.76436732469353, -3.122317261675411]]</t>
         </is>
       </c>
       <c r="H346" t="n">
@@ -13267,12 +13267,12 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>[[-41.764367324682766, -3.122376529808513], [-41.76436098912293, -3.122376529808513]]</t>
+          <t>[[-41.764367324682766, -3.122376529808513], [-41.764360989122835, -3.122376529808513]]</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>[[-41.764367324682766, -3.122376529808513], [-41.764367324682766, -3.122368782193864]]</t>
+          <t>[[-41.764367324682766, -3.122376529808513], [-41.764367324682766, -3.122384277423125]]</t>
         </is>
       </c>
       <c r="H347" t="n">
@@ -13304,12 +13304,12 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>[[-41.76510239554309, -3.12224116662287], [-41.76509744913265, -3.12224116662287]]</t>
+          <t>[[-41.76510239554309, -3.12224116662287], [-41.765097449132554, -3.12224116662287]]</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>[[-41.76510239554309, -3.12224116662287], [-41.76510239554309, -3.122231318395936]]</t>
+          <t>[[-41.76510239554309, -3.12224116662287], [-41.76510239554309, -3.1222510148497786]]</t>
         </is>
       </c>
       <c r="H348" t="n">
@@ -13341,12 +13341,12 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>[[-41.76510239557975, -3.122309710766969], [-41.76509744916899, -3.122309710766969]]</t>
+          <t>[[-41.76510239557975, -3.122309710766969], [-41.7650974491689, -3.122309710766969]]</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>[[-41.76510239557975, -3.122309710766969], [-41.76510239557975, -3.1222998625400478]]</t>
+          <t>[[-41.76510239557975, -3.122309710766969], [-41.76510239557975, -3.1223195589938637]]</t>
         </is>
       </c>
       <c r="H349" t="n">
@@ -13378,12 +13378,12 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>[[-41.765102395616594, -3.122378621416984], [-41.765097449205506, -3.122378621416984]]</t>
+          <t>[[-41.765102395616594, -3.122378621416984], [-41.76509744920541, -3.122378621416984]]</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>[[-41.765102395616594, -3.122378621416984], [-41.765102395616594, -3.1223687731900767]]</t>
+          <t>[[-41.765102395616594, -3.122378621416984], [-41.765102395616594, -3.122388469643867]]</t>
         </is>
       </c>
       <c r="H350" t="n">
@@ -13415,12 +13415,12 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>[[-41.764513530175606, -3.122241166775375], [-41.76450858376516, -3.122241166775375]]</t>
+          <t>[[-41.764513530175606, -3.122241166775375], [-41.76450858376507, -3.122241166775375]]</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>[[-41.764513530175606, -3.122241166775375], [-41.764513530175606, -3.122231318548442]]</t>
+          <t>[[-41.764513530175606, -3.122241166775375], [-41.764513530175606, -3.1222510150022837]]</t>
         </is>
       </c>
       <c r="H351" t="n">
@@ -13452,12 +13452,12 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>[[-41.76451353017408, -3.1223097109194744], [-41.764508583763316, -3.1223097109194744]]</t>
+          <t>[[-41.76451353017408, -3.1223097109194744], [-41.764508583763224, -3.1223097109194744]]</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>[[-41.76451353017408, -3.1223097109194744], [-41.76451353017408, -3.1222998626925538]]</t>
+          <t>[[-41.76451353017408, -3.1223097109194744], [-41.76451353017408, -3.12231955914637]]</t>
         </is>
       </c>
       <c r="H352" t="n">
@@ -13489,12 +13489,12 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>[[-41.76451353017255, -3.122378621569492], [-41.76450858376146, -3.122378621569492]]</t>
+          <t>[[-41.76451353017255, -3.122378621569492], [-41.76450858376137, -3.122378621569492]]</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>[[-41.76451353017255, -3.122378621569492], [-41.76451353017255, -3.1223687733425844]]</t>
+          <t>[[-41.76451353017255, -3.122378621569492], [-41.76451353017255, -3.1223884697963746]]</t>
         </is>
       </c>
       <c r="H353" t="n">
@@ -13526,12 +13526,12 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>[[-41.76430115576328, -3.1222410991331144], [-41.7642963854767, -3.1222410991331144]]</t>
+          <t>[[-41.76430115576328, -3.1222410991331144], [-41.76429638547643, -3.1222410991331144]]</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>[[-41.76430115576328, -3.1222410991331144], [-41.76430115576328, -3.122211221997929]]</t>
+          <t>[[-41.76430115576328, -3.1222410991331144], [-41.76430115576328, -3.122270976268261]]</t>
         </is>
       </c>
       <c r="H354" t="n">
@@ -13563,12 +13563,12 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>[[-41.764301155748086, -3.122309215571877], [-41.7642963854612, -3.122309215571877]]</t>
+          <t>[[-41.764301155748086, -3.122309215571877], [-41.76429638546093, -3.122309215571877]]</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>[[-41.764301155748086, -3.122309215571877], [-41.764301155748086, -3.12227933843673]]</t>
+          <t>[[-41.764301155748086, -3.122309215571877], [-41.764301155748086, -3.1223390927069845]]</t>
         </is>
       </c>
       <c r="H355" t="n">
@@ -13600,12 +13600,12 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>[[-41.76430115573309, -3.122376415676537], [-41.764296385445896, -3.122376415676537]]</t>
+          <t>[[-41.76430115573309, -3.122376415676537], [-41.764296385445626, -3.122376415676537]]</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>[[-41.76430115573309, -3.122376415676537], [-41.76430115573309, -3.1223465385414286]]</t>
+          <t>[[-41.76430115573309, -3.122376415676537], [-41.76430115573309, -3.1224062928116054]]</t>
         </is>
       </c>
       <c r="H356" t="n">
@@ -13637,12 +13637,12 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>[[-41.76462414076971, -3.1222410991560663], [-41.76461937048313, -3.1222410991560663]]</t>
+          <t>[[-41.76462414076971, -3.1222410991560663], [-41.76461937048286, -3.1222410991560663]]</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>[[-41.76462414076971, -3.1222410991560663], [-41.76462414076971, -3.122211222020881]]</t>
+          <t>[[-41.76462414076971, -3.1222410991560663], [-41.76462414076971, -3.1222709762912118]]</t>
         </is>
       </c>
       <c r="H357" t="n">
@@ -13674,12 +13674,12 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>[[-41.764624140775325, -3.12230921559483], [-41.76461937048844, -3.12230921559483]]</t>
+          <t>[[-41.764624140775325, -3.12230921559483], [-41.76461937048817, -3.12230921559483]]</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>[[-41.764624140775325, -3.12230921559483], [-41.764624140775325, -3.122279338459684]]</t>
+          <t>[[-41.764624140775325, -3.12230921559483], [-41.764624140775325, -3.1223390927299377]]</t>
         </is>
       </c>
       <c r="H358" t="n">
@@ -13711,12 +13711,12 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>[[-41.76462414078086, -3.1223764156994904], [-41.76461937049367, -3.1223764156994904]]</t>
+          <t>[[-41.76462414078086, -3.1223764156994904], [-41.7646193704934, -3.1223764156994904]]</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>[[-41.76462414078086, -3.1223764156994904], [-41.76462414078086, -3.1223465385643823]]</t>
+          <t>[[-41.76462414078086, -3.1223764156994904], [-41.76462414078086, -3.12240629283456]]</t>
         </is>
       </c>
       <c r="H359" t="n">
@@ -13748,12 +13748,12 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>[[-41.76516187491224, -3.122241630172221], [-41.76515716509497, -3.122241630172221]]</t>
+          <t>[[-41.76516187491224, -3.122241630172221], [-41.76515716509491, -3.122241630172221]]</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>[[-41.76516187491224, -3.122241630172221], [-41.76516187491224, -3.1222350835687616]]</t>
+          <t>[[-41.76516187491224, -3.122241630172221], [-41.76516187491224, -3.122248176775659]]</t>
         </is>
       </c>
       <c r="H360" t="n">
@@ -13785,12 +13785,12 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>[[-41.765161874952526, -3.122309807603322], [-41.76515716513496, -3.122309807603322]]</t>
+          <t>[[-41.765161874952526, -3.122309807603322], [-41.765157165134895, -3.122309807603322]]</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>[[-41.765161874952526, -3.122309807603322], [-41.765161874952526, -3.12230326099987]]</t>
+          <t>[[-41.765161874952526, -3.122309807603322], [-41.765161874952526, -3.122316354206751]]</t>
         </is>
       </c>
       <c r="H361" t="n">
@@ -13822,12 +13822,12 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>[[-41.76516187499308, -3.1223784251589266], [-41.76515716517521, -3.1223784251589266]]</t>
+          <t>[[-41.76516187499308, -3.1223784251589266], [-41.76515716517515, -3.1223784251589266]]</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>[[-41.76516187499308, -3.1223784251589266], [-41.76516187499308, -3.1223718785554833]]</t>
+          <t>[[-41.76516187499308, -3.1223784251589266], [-41.76516187499308, -3.122384971762347]]</t>
         </is>
       </c>
       <c r="H362" t="n">
@@ -13859,12 +13859,12 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>[[-41.76475576473928, -3.122241182828803], [-41.76474912278394, -3.122241182828803]]</t>
+          <t>[[-41.76475576473928, -3.122241182828803], [-41.76474912278366, -3.122241182828803]]</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>[[-41.76475576473928, -3.122241182828803], [-41.76475576473928, -3.1222189479849125]]</t>
+          <t>[[-41.76475576473928, -3.122241182828803], [-41.76475576473928, -3.122263417672642]]</t>
         </is>
       </c>
       <c r="H363" t="n">
@@ -13896,12 +13896,12 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>[[-41.76475576475379, -3.122311291454026], [-41.76474912279801, -3.122311291454026]]</t>
+          <t>[[-41.76475576475379, -3.122311291454026], [-41.76474912279773, -3.122311291454026]]</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>[[-41.76475576475379, -3.122311291454026], [-41.76475576475379, -3.1222890566101658]]</t>
+          <t>[[-41.76475576475379, -3.122311291454026], [-41.76475576475379, -3.122333526297835]]</t>
         </is>
       </c>
       <c r="H364" t="n">
@@ -13933,12 +13933,12 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>[[-41.76475576476744, -3.1223772764036], [-41.76474912281125, -3.1223772764036]]</t>
+          <t>[[-41.76475576476744, -3.1223772764036], [-41.764749122810976, -3.1223772764036]]</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>[[-41.76475576476744, -3.1223772764036], [-41.76475576476744, -3.1223550415597687]]</t>
+          <t>[[-41.76475576476744, -3.1223772764036], [-41.76475576476744, -3.1223995112473815]]</t>
         </is>
       </c>
       <c r="H365" t="n">
@@ -13970,12 +13970,12 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>[[-41.76444440183332, -3.122241182847576], [-41.764437759877985, -3.122241182847576]]</t>
+          <t>[[-41.76444440183332, -3.122241182847576], [-41.76443775987771, -3.122241182847576]]</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>[[-41.76444440183332, -3.122241182847576], [-41.76444440183332, -3.122218948003686]]</t>
+          <t>[[-41.76444440183332, -3.122241182847576], [-41.76444440183332, -3.122263417691415]]</t>
         </is>
       </c>
       <c r="H366" t="n">
@@ -14007,12 +14007,12 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>[[-41.76444440182718, -3.1223112914728], [-41.7644377598714, -3.1223112914728]]</t>
+          <t>[[-41.76444440182718, -3.1223112914728], [-41.76443775987112, -3.1223112914728]]</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>[[-41.76444440182718, -3.1223112914728], [-41.76444440182718, -3.122289056628939]]</t>
+          <t>[[-41.76444440182718, -3.1223112914728], [-41.76444440182718, -3.1223335263166088]]</t>
         </is>
       </c>
       <c r="H367" t="n">
@@ -14044,12 +14044,12 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>[[-41.7644444018214, -3.1223772764223736], [-41.76443775986521, -3.1223772764223736]]</t>
+          <t>[[-41.7644444018214, -3.1223772764223736], [-41.76443775986493, -3.1223772764223736]]</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>[[-41.7644444018214, -3.1223772764223736], [-41.7644444018214, -3.1223550415785413]]</t>
+          <t>[[-41.7644444018214, -3.1223772764223736], [-41.7644444018214, -3.122399511266155]]</t>
         </is>
       </c>
       <c r="H368" t="n">
@@ -14081,12 +14081,12 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>[[-41.76492103868266, -3.122267900531039], [-41.764916092272074, -3.122267900531039]]</t>
+          <t>[[-41.76492103868266, -3.122267900531039], [-41.76491609227201, -3.122267900531039]]</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>[[-41.76492103868266, -3.122267900531039], [-41.76492103868266, -3.122260841668178]]</t>
+          <t>[[-41.76492103868266, -3.122267900531039], [-41.76492103868266, -3.1222749593938763]]</t>
         </is>
       </c>
       <c r="H369" t="n">
@@ -14118,12 +14118,12 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>[[-41.76492103869774, -3.1223094273452667], [-41.76491609228697, -3.1223094273452667]]</t>
+          <t>[[-41.76492103869774, -3.1223094273452667], [-41.7649160922869, -3.1223094273452667]]</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>[[-41.76492103869774, -3.1223094273452667], [-41.76492103869774, -3.1223023684824107]]</t>
+          <t>[[-41.76492103869774, -3.1223094273452667], [-41.76492103869774, -3.1223164862080983]]</t>
         </is>
       </c>
       <c r="H370" t="n">
@@ -14155,12 +14155,12 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>[[-41.76492103871439, -3.1223552499106937], [-41.7649160923034, -3.1223552499106937]]</t>
+          <t>[[-41.76492103871439, -3.1223552499106937], [-41.76491609230334, -3.1223552499106937]]</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>[[-41.76492103871439, -3.1223552499106937], [-41.76492103871439, -3.1223481910478443]]</t>
+          <t>[[-41.76492103871439, -3.1223552499106937], [-41.76492103871439, -3.1223623087735195]]</t>
         </is>
       </c>
       <c r="H371" t="n">
@@ -14192,12 +14192,12 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>[[-41.76492103872804, -3.122392838855148], [-41.764916092316874, -3.122392838855148]]</t>
+          <t>[[-41.76492103872804, -3.122392838855148], [-41.76491609231681, -3.122392838855148]]</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>[[-41.76492103872804, -3.122392838855148], [-41.76492103872804, -3.1223857799923027]]</t>
+          <t>[[-41.76492103872804, -3.122392838855148], [-41.76492103872804, -3.122399897717969]]</t>
         </is>
       </c>
       <c r="H372" t="n">
@@ -14229,12 +14229,12 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>[[-41.76492103874365, -3.122435797540355], [-41.764916092332285, -3.122435797540355]]</t>
+          <t>[[-41.76492103874365, -3.122435797540355], [-41.76491609233222, -3.122435797540355]]</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>[[-41.76492103874365, -3.122435797540355], [-41.76492103874365, -3.1224287386775167]]</t>
+          <t>[[-41.76492103874365, -3.122435797540355], [-41.76492103874365, -3.12244285640317]]</t>
         </is>
       </c>
       <c r="H373" t="n">
@@ -14266,12 +14266,12 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>[[-41.764844976430574, -3.122179977958786], [-41.7648400300204, -3.122179977958786]]</t>
+          <t>[[-41.764844976430574, -3.122179977958786], [-41.76484003002034, -3.122179977958786]]</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>[[-41.764844976430574, -3.122179977958786], [-41.764844976430574, -3.122172919095914]]</t>
+          <t>[[-41.764844976430574, -3.122179977958786], [-41.764844976430574, -3.122187036821636]]</t>
         </is>
       </c>
       <c r="H374" t="n">
@@ -14303,12 +14303,12 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>[[-41.76484497644422, -3.1222268029651783], [-41.76484003003383, -3.1222268029651783]]</t>
+          <t>[[-41.76484497644422, -3.1222268029651783], [-41.76484003003377, -3.1222268029651783]]</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>[[-41.76484497644422, -3.1222268029651783], [-41.76484497644422, -3.1222197441023116]]</t>
+          <t>[[-41.76484497644422, -3.1222268029651783], [-41.76484497644422, -3.122233861828021]]</t>
         </is>
       </c>
       <c r="H375" t="n">
@@ -14340,12 +14340,12 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>[[-41.76484497645661, -3.1222693320822965], [-41.764840030046024, -3.1222693320822965]]</t>
+          <t>[[-41.76484497645661, -3.1222693320822965], [-41.76484003004595, -3.1222693320822965]]</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>[[-41.76484497645661, -3.1222693320822965], [-41.76484497645661, -3.122262273219436]]</t>
+          <t>[[-41.76484497645661, -3.1222693320822965], [-41.76484497645661, -3.122276390945134]]</t>
         </is>
       </c>
       <c r="H376" t="n">
@@ -14377,12 +14377,12 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>[[-41.76484497646825, -3.122309283859032], [-41.76484003005747, -3.122309283859032]]</t>
+          <t>[[-41.76484497646825, -3.122309283859032], [-41.76484003005741, -3.122309283859032]]</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>[[-41.76484497646825, -3.122309283859032], [-41.76484497646825, -3.122302224996176]]</t>
+          <t>[[-41.76484497646825, -3.122309283859032], [-41.76484497646825, -3.1223163427218643]]</t>
         </is>
       </c>
       <c r="H377" t="n">
@@ -14414,12 +14414,12 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>[[-41.76484497648038, -3.122350953839637], [-41.764840030069415, -3.122350953839637]]</t>
+          <t>[[-41.76484497648038, -3.122350953839637], [-41.764840030069344, -3.122350953839637]]</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>[[-41.76484497648038, -3.122350953839637], [-41.76484497648038, -3.1223438949767868]]</t>
+          <t>[[-41.76484497648038, -3.122350953839637], [-41.76484497648038, -3.1223580127024624]]</t>
         </is>
       </c>
       <c r="H378" t="n">
@@ -14451,12 +14451,12 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>[[-41.764844976505536, -3.1224373009852937], [-41.76484003009416, -3.1224373009852937]]</t>
+          <t>[[-41.764844976505536, -3.1224373009852937], [-41.7648400300941, -3.1224373009852937]]</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>[[-41.764844976505536, -3.1224373009852937], [-41.764844976505536, -3.122430242122455]]</t>
+          <t>[[-41.764844976505536, -3.1224373009852937], [-41.764844976505536, -3.122444359848109]]</t>
         </is>
       </c>
       <c r="H379" t="n">
@@ -14488,12 +14488,12 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>[[-41.76492103865143, -3.122181914164455], [-41.76491609224125, -3.122181914164455]]</t>
+          <t>[[-41.76492103865143, -3.122181914164455], [-41.76491609224119, -3.122181914164455]]</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>[[-41.76492103865143, -3.122181914164455], [-41.76492103865143, -3.1221748553015822]]</t>
+          <t>[[-41.76492103865143, -3.122181914164455], [-41.76492103865143, -3.1221889730273045]]</t>
         </is>
       </c>
       <c r="H380" t="n">
@@ -14525,12 +14525,12 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>[[-41.76499550086907, -3.1221808481484334], [-41.7649905544589, -3.1221808481484334]]</t>
+          <t>[[-41.76499550086907, -3.1221808481484334], [-41.76499055445883, -3.1221808481484334]]</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>[[-41.76499550086907, -3.1221808481484334], [-41.76499550086907, -3.122173789319925]]</t>
+          <t>[[-41.76499550086907, -3.1221808481484334], [-41.76499550086907, -3.1221879069769165]]</t>
         </is>
       </c>
       <c r="H381" t="n">
@@ -14562,12 +14562,12 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>[[-41.76499550090685, -3.122267968461979], [-41.764990554496265, -3.122267968461979]]</t>
+          <t>[[-41.76499550090685, -3.122267968461979], [-41.7649905544962, -3.122267968461979]]</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>[[-41.76499550090685, -3.122267968461979], [-41.76499550090685, -3.122260909633483]]</t>
+          <t>[[-41.76499550090685, -3.122267968461979], [-41.76499550090685, -3.1222750272904514]]</t>
         </is>
       </c>
       <c r="H382" t="n">
@@ -14599,12 +14599,12 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>[[-41.764995500942426, -3.1223500074372854], [-41.76499055453146, -3.1223500074372854]]</t>
+          <t>[[-41.764995500942426, -3.1223500074372854], [-41.764990554531394, -3.1223500074372854]]</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>[[-41.764995500942426, -3.1223500074372854], [-41.764995500942426, -3.1223429486087992]]</t>
+          <t>[[-41.764995500942426, -3.1223500074372854], [-41.764995500942426, -3.122357066265746]]</t>
         </is>
       </c>
       <c r="H383" t="n">
@@ -14636,12 +14636,12 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>[[-41.76499550096028, -3.122391176300928], [-41.76499055454912, -3.122391176300928]]</t>
+          <t>[[-41.76499550096028, -3.122391176300928], [-41.76499055454906, -3.122391176300928]]</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>[[-41.76499550096028, -3.122391176300928], [-41.76499550096028, -3.1223841174724476]]</t>
+          <t>[[-41.76499550096028, -3.122391176300928], [-41.76499550096028, -3.122398235129383]]</t>
         </is>
       </c>
       <c r="H384" t="n">
@@ -14673,12 +14673,12 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>[[-41.76499550097968, -3.1224359250147207], [-41.764990554568314, -3.1224359250147207]]</t>
+          <t>[[-41.76499550097968, -3.1224359250147207], [-41.76499055456825, -3.1224359250147207]]</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>[[-41.76499550097968, -3.1224359250147207], [-41.76499550097968, -3.1224288661862474]]</t>
+          <t>[[-41.76499550097968, -3.1224359250147207], [-41.76499550097968, -3.1224429838431695]]</t>
         </is>
       </c>
       <c r="H385" t="n">
@@ -14710,12 +14710,12 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>[[-41.763821919111415, -3.122528918456491], [-41.763816972699615, -3.122528918456491]]</t>
+          <t>[[-41.763821919111415, -3.122528918456491], [-41.763816972699544, -3.122528918456491]]</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>[[-41.763821919111415, -3.122528918456491], [-41.763821919111415, -3.122521859593665]]</t>
+          <t>[[-41.763821919111415, -3.122528918456491], [-41.763821919111415, -3.122535977319294]]</t>
         </is>
       </c>
       <c r="H386" t="n">
@@ -14747,12 +14747,12 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>[[-41.76389798132243, -3.12252877575328], [-41.76389303491063, -3.12252877575328]]</t>
+          <t>[[-41.76389798132243, -3.12252877575328], [-41.76389303491056, -3.12252877575328]]</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>[[-41.76389798132243, -3.12252877575328], [-41.76389798132243, -3.122521716890454]]</t>
+          <t>[[-41.76389798132243, -3.12252877575328], [-41.76389798132243, -3.122535834616082]]</t>
         </is>
       </c>
       <c r="H387" t="n">
@@ -14784,12 +14784,12 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>[[-41.763972443600075, -3.122527297214837], [-41.76396749718828, -3.122527297214837]]</t>
+          <t>[[-41.763972443600075, -3.122527297214837], [-41.76396749718821, -3.122527297214837]]</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>[[-41.763972443600075, -3.122527297214837], [-41.763972443600075, -3.1225202383863753]]</t>
+          <t>[[-41.763972443600075, -3.122527297214837], [-41.763972443600075, -3.122534356043274]]</t>
         </is>
       </c>
       <c r="H388" t="n">
@@ -14821,12 +14821,12 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>[[-41.76382191917206, -3.122439245917531], [-41.76381697276068, -3.122439245917531]]</t>
+          <t>[[-41.76382191917206, -3.122439245917531], [-41.76381697276061, -3.122439245917531]]</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>[[-41.76382191917206, -3.122439245917531], [-41.76382191917206, -3.122432187054693]]</t>
+          <t>[[-41.76382191917206, -3.122439245917531], [-41.76382191917206, -3.1224463047803455]]</t>
         </is>
       </c>
       <c r="H389" t="n">
@@ -14858,12 +14858,12 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>[[-41.76389798137662, -3.122439103007333], [-41.76389303496524, -3.122439103007333]]</t>
+          <t>[[-41.76389798137662, -3.122439103007333], [-41.76389303496517, -3.122439103007333]]</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>[[-41.76389798137662, -3.122439103007333], [-41.76389798137662, -3.122432044144494]]</t>
+          <t>[[-41.76389798137662, -3.122439103007333], [-41.76389798137662, -3.122446161870147]]</t>
         </is>
       </c>
       <c r="H390" t="n">
@@ -14895,12 +14895,12 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>[[-41.76397244364795, -3.1224376243998915], [-41.76396749723658, -3.1224376243998915]]</t>
+          <t>[[-41.76397244364795, -3.1224376243998915], [-41.76396749723651, -3.1224376243998915]]</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>[[-41.76397244364795, -3.1224376243998915], [-41.76397244364795, -3.122430565571418]]</t>
+          <t>[[-41.76397244364795, -3.1224376243998915], [-41.76397244364795, -3.1224446832283412]]</t>
         </is>
       </c>
       <c r="H391" t="n">
@@ -14932,12 +14932,12 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>[[-41.76382191922943, -3.1223544202685813], [-41.76381697281845, -3.1223544202685813]]</t>
+          <t>[[-41.76382191922943, -3.1223544202685813], [-41.763816972818375, -3.1223544202685813]]</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>[[-41.76382191922943, -3.1223544202685813], [-41.76382191922943, -3.1223473614057324]]</t>
+          <t>[[-41.76382191922943, -3.1223544202685813], [-41.76382191922943, -3.1223614791314076]]</t>
         </is>
       </c>
       <c r="H392" t="n">
@@ -14969,12 +14969,12 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>[[-41.763897981427895, -3.1223542772893857], [-41.76389303501691, -3.1223542772893857]]</t>
+          <t>[[-41.763897981427895, -3.1223542772893857], [-41.76389303501684, -3.1223542772893857]]</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>[[-41.763897981427895, -3.1223542772893857], [-41.763897981427895, -3.122347218426535]]</t>
+          <t>[[-41.763897981427895, -3.1223542772893857], [-41.763897981427895, -3.122361336152211]]</t>
         </is>
       </c>
       <c r="H393" t="n">
@@ -15006,12 +15006,12 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>[[-41.76397244369324, -3.122352798888929], [-41.763967497282266, -3.122352798888929]]</t>
+          <t>[[-41.76397244369324, -3.122352798888929], [-41.763967497282195, -3.122352798888929]]</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>[[-41.76397244369324, -3.122352798888929], [-41.76397244369324, -3.1223457400604437]]</t>
+          <t>[[-41.76397244369324, -3.122352798888929], [-41.76397244369324, -3.12235985771739]]</t>
         </is>
       </c>
       <c r="H394" t="n">
@@ -15043,12 +15043,12 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>[[-41.76382191928559, -3.122271390029763], [-41.76381697287499, -3.122271390029763]]</t>
+          <t>[[-41.76382191928559, -3.122271390029763], [-41.76381697287493, -3.122271390029763]]</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>[[-41.76382191928559, -3.122271390029763], [-41.76382191928559, -3.1222643311669027]]</t>
+          <t>[[-41.76382191928559, -3.122271390029763], [-41.76382191928559, -3.1222784488925996]]</t>
         </is>
       </c>
       <c r="H395" t="n">
@@ -15080,12 +15080,12 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>[[-41.76389798147808, -3.1222712470505667], [-41.76389303506748, -3.1222712470505667]]</t>
+          <t>[[-41.76389798147808, -3.1222712470505667], [-41.76389303506742, -3.1222712470505667]]</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>[[-41.76389798147808, -3.1222712470505667], [-41.76389798147808, -3.1222641881877067]]</t>
+          <t>[[-41.76389798147808, -3.1222712470505667], [-41.76389798147808, -3.1222783059134045]]</t>
         </is>
       </c>
       <c r="H396" t="n">
@@ -15117,12 +15117,12 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>[[-41.76382191934516, -3.1221833105357786], [-41.763816972934976, -3.1221833105357786]]</t>
+          <t>[[-41.76382191934516, -3.1221833105357786], [-41.76381697293491, -3.1221833105357786]]</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>[[-41.76382191934516, -3.1221833105357786], [-41.76382191934516, -3.122176251672907]]</t>
+          <t>[[-41.76382191934516, -3.1221833105357786], [-41.76382191934516, -3.122190369398628]]</t>
         </is>
       </c>
       <c r="H397" t="n">
@@ -15154,12 +15154,12 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>[[-41.765232120325294, -3.1223786005710847], [-41.7652271739142, -3.1223786005710847]]</t>
+          <t>[[-41.765232120325294, -3.1223786005710847], [-41.76522717391413, -3.1223786005710847]]</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>[[-41.765232120325294, -3.1223786005710847], [-41.765232120325294, -3.1223715417082385]]</t>
+          <t>[[-41.765232120325294, -3.1223786005710847], [-41.765232120325294, -3.122385659433907]]</t>
         </is>
       </c>
       <c r="H398" t="n">
@@ -15191,12 +15191,12 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>[[-41.76523212028047, -3.1223104216911604], [-41.76522717386969, -3.1223104216911604]]</t>
+          <t>[[-41.76523212028047, -3.1223104216911604], [-41.765227173869626, -3.1223104216911604]]</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>[[-41.76523212028047, -3.1223104216911604], [-41.76523212028047, -3.1223033628283043]]</t>
+          <t>[[-41.76523212028047, -3.1223104216911604], [-41.76523212028047, -3.122317480553991]]</t>
         </is>
       </c>
       <c r="H399" t="n">
@@ -15228,12 +15228,12 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>[[-41.76523212023493, -3.1222411603350984], [-41.76522717382447, -3.1222411603350984]]</t>
+          <t>[[-41.76523212023493, -3.1222411603350984], [-41.76522717382441, -3.1222411603350984]]</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>[[-41.76523212023493, -3.1222411603350984], [-41.76523212023493, -3.1222341014722335]]</t>
+          <t>[[-41.76523212023493, -3.1222411603350984], [-41.76523212023493, -3.12224821919794]]</t>
         </is>
       </c>
       <c r="H400" t="n">
@@ -15265,12 +15265,12 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>[[-41.7653004829762, -3.122241160287446], [-41.765295536565745, -3.122241160287446]]</t>
+          <t>[[-41.7653004829762, -3.122241160287446], [-41.76529553656568, -3.122241160287446]]</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>[[-41.7653004829762, -3.122241160287446], [-41.7653004829762, -3.1222341014245814]]</t>
+          <t>[[-41.7653004829762, -3.122241160287446], [-41.7653004829762, -3.122248219150287]]</t>
         </is>
       </c>
       <c r="H401" t="n">
@@ -15302,12 +15302,12 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>[[-41.76530048288894, -3.122310421643508], [-41.765295536478156, -3.122310421643508]]</t>
+          <t>[[-41.76530048288894, -3.122310421643508], [-41.76529553647809, -3.122310421643508]]</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>[[-41.76530048288894, -3.122310421643508], [-41.76530048288894, -3.122303362780651]]</t>
+          <t>[[-41.76530048288894, -3.122310421643508], [-41.76530048288894, -3.1223174805063385]]</t>
         </is>
       </c>
       <c r="H402" t="n">
@@ -15339,12 +15339,12 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>[[-41.76530048307545, -3.1223786005234317], [-41.765295536664354, -3.1223786005234317]]</t>
+          <t>[[-41.76530048307545, -3.1223786005234317], [-41.76529553666428, -3.1223786005234317]]</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>[[-41.76530048307545, -3.1223786005234317], [-41.76530048307545, -3.122371541660585]]</t>
+          <t>[[-41.76530048307545, -3.1223786005234317], [-41.76530048307545, -3.1223856593862545]]</t>
         </is>
       </c>
       <c r="H403" t="n">
@@ -15376,12 +15376,12 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>[[-41.76536907696818, -3.1225179566527808], [-41.76536413055643, -3.1225179566527808]]</t>
+          <t>[[-41.76536907696818, -3.1225179566527808], [-41.76536413055636, -3.1225179566527808]]</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>[[-41.76536907696818, -3.1225179566527808], [-41.76536907696818, -3.122510897789953]]</t>
+          <t>[[-41.76536907696818, -3.1225179566527808], [-41.76536907696818, -3.1225250155155844]]</t>
         </is>
       </c>
       <c r="H404" t="n">
@@ -15413,12 +15413,12 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>[[-41.76542721219874, -3.122481334844528], [-41.76542226578716, -3.122481334844528]]</t>
+          <t>[[-41.76542721219874, -3.122481334844528], [-41.765422265787095, -3.122481334844528]]</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>[[-41.76542721219874, -3.122481334844528], [-41.76542721219874, -3.1224742759816966]]</t>
+          <t>[[-41.76542721219874, -3.122481334844528], [-41.76542721219874, -3.122488393707338]]</t>
         </is>
       </c>
       <c r="H405" t="n">
@@ -15450,12 +15450,12 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>[[-41.76547914639092, -3.122517956559451], [-41.765474199979174, -3.122517956559451]]</t>
+          <t>[[-41.76547914639092, -3.122517956559451], [-41.7654741999791, -3.122517956559451]]</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>[[-41.76547914639092, -3.122517956559451], [-41.76547914639092, -3.1225108976966234]]</t>
+          <t>[[-41.76547914639092, -3.122517956559451], [-41.76547914639092, -3.1225250154222555]]</t>
         </is>
       </c>
       <c r="H406" t="n">
@@ -15487,12 +15487,12 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>[[-41.765498524962005, -3.122457179813897], [-41.76549357855054, -3.122457179813897]]</t>
+          <t>[[-41.765498524962005, -3.122457179813897], [-41.76549357855047, -3.122457179813897]]</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>[[-41.765498524962005, -3.122457179813897], [-41.765498524962005, -3.1224501209510604]]</t>
+          <t>[[-41.765498524962005, -3.122457179813897], [-41.765498524962005, -3.122464238676709]]</t>
         </is>
       </c>
       <c r="H407" t="n">
@@ -15524,12 +15524,12 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>[[-41.76549852486635, -3.1223519894849683], [-41.76549357845538, -3.1223519894849683]]</t>
+          <t>[[-41.76549852486635, -3.1223519894849683], [-41.76549357845531, -3.1223519894849683]]</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>[[-41.76549852486635, -3.1223519894849683], [-41.76549852486635, -3.1223449306221185]]</t>
+          <t>[[-41.76549852486635, -3.1223519894849683], [-41.76549852486635, -3.122359048347794]]</t>
         </is>
       </c>
       <c r="H408" t="n">
@@ -15561,12 +15561,12 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>[[-41.7654985247668, -3.1222425136849687], [-41.765493578356335, -3.1222425136849687]]</t>
+          <t>[[-41.7654985247668, -3.1222425136849687], [-41.76549357835627, -3.1222425136849687]]</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>[[-41.7654985247668, -3.1222425136849687], [-41.7654985247668, -3.122235454822104]]</t>
+          <t>[[-41.7654985247668, -3.1222425136849687], [-41.7654985247668, -3.1222495725478097]]</t>
         </is>
       </c>
       <c r="H409" t="n">
@@ -15598,12 +15598,12 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>[[-41.765445427737376, -3.1222078395869626], [-41.765440481327076, -3.1222078395869626]]</t>
+          <t>[[-41.765445427737376, -3.1222078395869626], [-41.76544048132701, -3.1222078395869626]]</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>[[-41.765445427737376, -3.1222078395869626], [-41.765445427737376, -3.1222007807240932]]</t>
+          <t>[[-41.765445427737376, -3.1222078395869626], [-41.765445427737376, -3.1222148984498084]]</t>
         </is>
       </c>
       <c r="H410" t="n">
@@ -15635,12 +15635,12 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>[[-41.76544542781705, -3.1223005631232432], [-41.765440481406316, -3.1223005631232432]]</t>
+          <t>[[-41.76544542781705, -3.1223005631232432], [-41.76544048140625, -3.1223005631232432]]</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>[[-41.76544542781705, -3.1223005631232432], [-41.76544542781705, -3.122293504260387]]</t>
+          <t>[[-41.76544542781705, -3.1223005631232432], [-41.76544542781705, -3.122307621986076]]</t>
         </is>
       </c>
       <c r="H411" t="n">
@@ -15672,12 +15672,12 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>[[-41.76544542789337, -3.1223893905321507], [-41.76544048148222, -3.1223893905321507]]</t>
+          <t>[[-41.76544542789337, -3.1223893905321507], [-41.76544048148215, -3.1223893905321507]]</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>[[-41.76544542789337, -3.1223893905321507], [-41.76544542789337, -3.122382331669306]]</t>
+          <t>[[-41.76544542789337, -3.1223893905321507], [-41.76544542789337, -3.1223964493949716]]</t>
         </is>
       </c>
       <c r="H412" t="n">
@@ -15709,12 +15709,12 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>[[-41.765395819188925, -3.1224154935017125], [-41.76539087277765, -3.1224154935017125]]</t>
+          <t>[[-41.765395819188925, -3.1224154935017125], [-41.76539087277759, -3.1224154935017125]]</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>[[-41.765395819188925, -3.1224154935017125], [-41.765395819188925, -3.122408434638871]]</t>
+          <t>[[-41.765395819188925, -3.1224154935017125], [-41.765395819188925, -3.12242255236453]]</t>
         </is>
       </c>
       <c r="H413" t="n">
@@ -15746,12 +15746,12 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>[[-41.76539581910444, -3.12231147189357], [-41.76539087269366, -3.12231147189357]]</t>
+          <t>[[-41.76539581910444, -3.12231147189357], [-41.76539087269359, -3.12231147189357]]</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>[[-41.76539581910444, -3.12231147189357], [-41.76539581910444, -3.1223044130307143]]</t>
+          <t>[[-41.76539581910444, -3.12231147189357], [-41.76539581910444, -3.1223185307564014]]</t>
         </is>
       </c>
       <c r="H414" t="n">
@@ -15783,12 +15783,12 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>[[-41.7653958191177, -3.12224329266858], [-41.765390872707236, -3.12224329266858]]</t>
+          <t>[[-41.7653958191177, -3.12224329266858], [-41.765390872707165, -3.12224329266858]]</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>[[-41.7653958191177, -3.12224329266858], [-41.7653958191177, -3.1222362338057152]]</t>
+          <t>[[-41.7653958191177, -3.12224329266858], [-41.7653958191177, -3.1222503515314206]]</t>
         </is>
       </c>
       <c r="H415" t="n">
@@ -15820,12 +15820,12 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>[[-41.7651141283065, -3.12309457992975], [-41.76510918189205, -3.12309457992975]]</t>
+          <t>[[-41.7651141283065, -3.12309457992975], [-41.76510918189199, -3.12309457992975]]</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>[[-41.7651141283065, -3.12309457992975], [-41.7651141283065, -3.1230875210669993]]</t>
+          <t>[[-41.7651141283065, -3.12309457992975], [-41.7651141283065, -3.123101638792476]]</t>
         </is>
       </c>
       <c r="H416" t="n">
@@ -15852,17 +15852,17 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>[[-41.765104785836925, -3.122181507391675], [-41.765104785836925, -3.122438340671765]]</t>
+          <t>[[-41.765104785836925, -3.122438340671765], [-41.765104785836925, -3.122181507391675]]</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>[[[-41.765104785836925, -3.122181507391675], [-41.76509309049459, -3.122181507391675]], [[-41.765104785836925, -3.122438340671765], [-41.76511648118265, -3.122438340671765]]]</t>
+          <t>[[[-41.765104785836925, -3.122438340671765], [-41.7650930904912, -3.122438340671765]], [[-41.765104785836925, -3.122181507391675], [-41.76511648117926, -3.122181507391675]]]</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>[[[-41.765104785836925, -3.122181507391675], [-41.765104785836925, -3.12215672840607]], [[-41.765104785836925, -3.122438340671765], [-41.765104785836925, -3.1224631196571067]]]</t>
+          <t>[[[-41.765104785836925, -3.122438340671765], [-41.765104785836925, -3.1224631196571067]], [[-41.765104785836925, -3.122181507391675], [-41.765104785836925, -3.12215672840607]]]</t>
         </is>
       </c>
       <c r="H417" t="n">
@@ -15889,17 +15889,17 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>[[-41.76451054655462, -3.1221815075454047], [-41.76451054655462, -3.1224383408254948]]</t>
+          <t>[[-41.76451054655462, -3.1224383408254948], [-41.76451054655462, -3.1221815075454047]]</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>[[[-41.76451054655462, -3.1221815075454047], [-41.76449885121228, -3.1221815075454047]], [[-41.76451054655462, -3.1224383408254948], [-41.764522241900345, -3.1224383408254948]]]</t>
+          <t>[[[-41.76451054655462, -3.1224383408254948], [-41.76449885120889, -3.1224383408254948]], [[-41.76451054655462, -3.1221815075454047], [-41.764522241896955, -3.1221815075454047]]]</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>[[[-41.76451054655462, -3.1221815075454047], [-41.76451054655462, -3.1221567285597986]], [[-41.76451054655462, -3.1224383408254948], [-41.76451054655462, -3.122463119810836]]]</t>
+          <t>[[[-41.76451054655462, -3.1224383408254948], [-41.76451054655462, -3.122463119810836]], [[-41.76451054655462, -3.1221815075454047], [-41.76451054655462, -3.1221567285597986]]]</t>
         </is>
       </c>
       <c r="H418" t="n">
@@ -15926,17 +15926,17 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>[[-41.76371062599241, -3.1221759654029064], [-41.76371062599241, -3.1224327986830236]]</t>
+          <t>[[-41.76371062599241, -3.1224327986830236], [-41.76371062599241, -3.1221759654029064]]</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>[[[-41.76371062599241, -3.1221759654029064], [-41.763698930650136, -3.1221759654029064]], [[-41.76371062599241, -3.1224327986830236], [-41.76372232133807, -3.1224327986830236]]]</t>
+          <t>[[[-41.76371062599241, -3.1224327986830236], [-41.76369893064675, -3.1224327986830236]], [[-41.76371062599241, -3.1221759654029064], [-41.76372232133468, -3.1221759654029064]]]</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>[[[-41.76371062599241, -3.1221759654029064], [-41.76371062599241, -3.1221511864172986]], [[-41.76371062599241, -3.1224327986830236], [-41.76371062599241, -3.1224575776683676]]]</t>
+          <t>[[[-41.76371062599241, -3.1224327986830236], [-41.76371062599241, -3.1224575776683676]], [[-41.76371062599241, -3.1221759654029064], [-41.76371062599241, -3.1221511864172986]]]</t>
         </is>
       </c>
       <c r="H419" t="n">
@@ -15963,17 +15963,17 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>[[-41.76577880700872, -3.123778556193977], [-41.76577880700872, -3.1235235316054797], [-41.76577880700872, -3.1240335807812327]]</t>
+          <t>[[-41.76577880700872, -3.123778556193977], [-41.76577880700872, -3.1240335807812327], [-41.76577880700872, -3.1235235316054797]]</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>[[[-41.76577880700872, -3.123778556193977], [-41.76576711164872, -3.123778556193977]], [[-41.76577880700872, -3.1235235316054797], [-41.76576711165154, -3.1235235316054797]], [[-41.76577880700872, -3.1240335807812327], [-41.76579050237209, -3.1240335807812327]]]</t>
+          <t>[[[-41.76577880700872, -3.123778556193977], [-41.765767111648174, -3.123778556193977]], [[-41.76577880700872, -3.1240335807812327], [-41.76576711164535, -3.1240335807812327]], [[-41.76577880700872, -3.1235235316054797], [-41.7657905023659, -3.1235235316054797]]]</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>[[[-41.76577880700872, -3.123778556193977], [-41.76577880700872, -3.1237537772091257]], [[-41.76577880700872, -3.1235235316054797], [-41.76577880700872, -3.123498752620509]], [[-41.76577880700872, -3.1240335807812327], [-41.76577880700872, -3.12405835976582]]]</t>
+          <t>[[[-41.76577880700872, -3.123778556193977], [-41.76577880700872, -3.123803335178684]], [[-41.76577880700872, -3.1240335807812327], [-41.76577880700872, -3.12405835976582]], [[-41.76577880700872, -3.1235235316054797], [-41.76577880700872, -3.123498752620509]]]</t>
         </is>
       </c>
       <c r="H420" t="n">
@@ -16005,12 +16005,12 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>[[-41.76590491763308, -3.12397468421425], [-41.765899356430694, -3.12397468421425]]</t>
+          <t>[[-41.76590491763308, -3.12397468421425], [-41.76589935643062, -3.12397468421425]]</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>[[-41.76590491763308, -3.12397468421425], [-41.76590491763308, -3.123968470447028]]</t>
+          <t>[[-41.76590491763308, -3.12397468421425], [-41.76590491763308, -3.1239808979814434]]</t>
         </is>
       </c>
       <c r="H421" t="n">
@@ -16042,12 +16042,12 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>[[-41.76590491754292, -3.1239050196485985], [-41.765899356340896, -3.1239050196485985]]</t>
+          <t>[[-41.76590491754292, -3.1239050196485985], [-41.76589935634083, -3.1239050196485985]]</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>[[-41.76590491754292, -3.1239050196485985], [-41.76590491754292, -3.123898805881367]]</t>
+          <t>[[-41.76590491754292, -3.1239050196485985], [-41.76590491754292, -3.1239112334157997]]</t>
         </is>
       </c>
       <c r="H422" t="n">
@@ -16079,12 +16079,12 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>[[-41.76590491745515, -3.1238372078286263], [-41.76589935625349, -3.1238372078286263]]</t>
+          <t>[[-41.76590491745515, -3.1238372078286263], [-41.76589935625342, -3.1238372078286263]]</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>[[-41.76590491745515, -3.1238372078286263], [-41.76590491745515, -3.1238309940613878]]</t>
+          <t>[[-41.76590491745515, -3.1238372078286263], [-41.76590491745515, -3.1238434215958355]]</t>
         </is>
       </c>
       <c r="H423" t="n">
@@ -16116,12 +16116,12 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>[[-41.765904917301846, -3.123718748288041], [-41.7658993561008, -3.123718748288041]]</t>
+          <t>[[-41.765904917301846, -3.123718748288041], [-41.76589935610074, -3.123718748288041]]</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>[[-41.765904917301846, -3.123718748288041], [-41.765904917301846, -3.1237125345207892]]</t>
+          <t>[[-41.765904917301846, -3.123718748288041], [-41.765904917301846, -3.123724962055265]]</t>
         </is>
       </c>
       <c r="H424" t="n">
@@ -16153,12 +16153,12 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>[[-41.7659049172136, -3.1236505556106917], [-41.765899356012916, -3.1236505556106917]]</t>
+          <t>[[-41.7659049172136, -3.1236505556106917], [-41.765899356012845, -3.1236505556106917]]</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>[[-41.7659049172136, -3.1236505556106917], [-41.7659049172136, -3.12364434184343]]</t>
+          <t>[[-41.7659049172136, -3.1236505556106917], [-41.7659049172136, -3.1236567693779222]]</t>
         </is>
       </c>
       <c r="H425" t="n">
@@ -16190,12 +16190,12 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>[[-41.765904917124075, -3.123581370910804], [-41.76589935592376, -3.123581370910804]]</t>
+          <t>[[-41.765904917124075, -3.123581370910804], [-41.76589935592369, -3.123581370910804]]</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>[[-41.765904917124075, -3.123581370910804], [-41.765904917124075, -3.123575157143534]]</t>
+          <t>[[-41.765904917124075, -3.123581370910804], [-41.765904917124075, -3.123587584678042]]</t>
         </is>
       </c>
       <c r="H426" t="n">
@@ -16227,12 +16227,12 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>[[-41.765851182287285, -3.1239742106265758], [-41.76584418505455, -3.1239742106265758]]</t>
+          <t>[[-41.765851182287285, -3.1239742106265758], [-41.76584418505444, -3.1239742106265758]]</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>[[-41.765851182287285, -3.1239742106265758], [-41.765851182287285, -3.1239663925674943]]</t>
+          <t>[[-41.765851182287285, -3.1239742106265758], [-41.765851182287285, -3.12398202868561]]</t>
         </is>
       </c>
       <c r="H427" t="n">
@@ -16264,12 +16264,12 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>[[-41.76585118220254, -3.123906044029991], [-41.765844184970256, -3.123906044029991]]</t>
+          <t>[[-41.76585118220254, -3.123906044029991], [-41.76584418497015, -3.123906044029991]]</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>[[-41.76585118220254, -3.123906044029991], [-41.76585118220254, -3.123898225970898]]</t>
+          <t>[[-41.76585118220254, -3.123906044029991], [-41.76585118220254, -3.1239138620890357]]</t>
         </is>
       </c>
       <c r="H428" t="n">
@@ -16301,12 +16301,12 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>[[-41.76585118211743, -3.1238375948262846], [-41.765844184885594, -3.1238375948262846]]</t>
+          <t>[[-41.76585118211743, -3.1238375948262846], [-41.765844184885495, -3.1238375948262846]]</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>[[-41.76585118211743, -3.1238375948262846], [-41.76585118211743, -3.1238297767671823]]</t>
+          <t>[[-41.76585118211743, -3.1238375948262846], [-41.76585118211743, -3.123845412885339]]</t>
         </is>
       </c>
       <c r="H429" t="n">
@@ -16338,12 +16338,12 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>[[-41.765851181969055, -3.123718255347024], [-41.765844184738015, -3.123718255347024]]</t>
+          <t>[[-41.765851181969055, -3.123718255347024], [-41.76584418473791, -3.123718255347024]]</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>[[-41.765851181969055, -3.123718255347024], [-41.765851181969055, -3.1237104372879037]]</t>
+          <t>[[-41.765851181969055, -3.123718255347024], [-41.765851181969055, -3.123726073406097]]</t>
         </is>
       </c>
       <c r="H430" t="n">
@@ -16375,12 +16375,12 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>[[-41.76585118188499, -3.12365064326982], [-41.7658441846544, -3.12365064326982]]</t>
+          <t>[[-41.76585118188499, -3.12365064326982], [-41.76584418465429, -3.12365064326982]]</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>[[-41.76585118188499, -3.12365064326982], [-41.76585118188499, -3.1236428252106885]]</t>
+          <t>[[-41.76585118188499, -3.12365064326982], [-41.76585118188499, -3.1236584613289025]]</t>
         </is>
       </c>
       <c r="H431" t="n">
@@ -16412,12 +16412,12 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>[[-41.765851181799405, -3.1235818092413803], [-41.76584418456927, -3.1235818092413803]]</t>
+          <t>[[-41.765851181799405, -3.1235818092413803], [-41.76584418456916, -3.1235818092413803]]</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>[[-41.765851181799405, -3.1235818092413803], [-41.765851181799405, -3.1235739911822393]]</t>
+          <t>[[-41.765851181799405, -3.1235818092413803], [-41.765851181799405, -3.123589627300473]]</t>
         </is>
       </c>
       <c r="H432" t="n">
@@ -16449,12 +16449,12 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>[[-41.765398188955565, -3.1240975133188567], [-41.76539262775253, -3.1240975133188567]]</t>
+          <t>[[-41.765398188955565, -3.1240975133188567], [-41.76539262775247, -3.1240975133188567]]</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>[[-41.765398188955565, -3.1240975133188567], [-41.765398188955565, -3.1240912995516483]]</t>
+          <t>[[-41.765398188955565, -3.1240975133188567], [-41.765398188955565, -3.124103727086035]]</t>
         </is>
       </c>
       <c r="H433" t="n">
@@ -16486,12 +16486,12 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>[[-41.76548891372495, -3.124096739727672], [-41.7654614338757, -3.124096739727672]]</t>
+          <t>[[-41.76548891372495, -3.124096739727672], [-41.76546143387498, -3.124096739727672]]</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>[[-41.76548891372495, -3.124096739727672], [-41.76548891372495, -3.1240828621755763]]</t>
+          <t>[[-41.76548891372495, -3.124096739727672], [-41.76548891372495, -3.1241106172790407]]</t>
         </is>
       </c>
       <c r="H434" t="n">
@@ -16523,12 +16523,12 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>[[-41.765362587689566, -3.1232584774076484], [-41.765335107862114, -3.1232584774076484]]</t>
+          <t>[[-41.765362587689566, -3.1232584774076484], [-41.76533510786139, -3.1232584774076484]]</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>[[-41.765362587689566, -3.1232584774076484], [-41.765362587689566, -3.123244599855332]]</t>
+          <t>[[-41.765362587689566, -3.1232584774076484], [-41.765362587689566, -3.1232723549592403]]</t>
         </is>
       </c>
       <c r="H435" t="n">
@@ -16560,12 +16560,12 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>[[-41.76532008473322, -3.12325523002087], [-41.76531452353462, -3.12325523002087]]</t>
+          <t>[[-41.76532008473322, -3.12325523002087], [-41.76531452353455, -3.12325523002087]]</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>[[-41.76532008473322, -3.12325523002087], [-41.76532008473322, -3.123249016253561]]</t>
+          <t>[[-41.76532008473322, -3.12325523002087], [-41.76532008473322, -3.1232614437881474]]</t>
         </is>
       </c>
       <c r="H436" t="n">
@@ -16599,7 +16599,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>ARGO_PARNAIBAIII_V2_LD::BASE::DIVERSOS</t>
+          <t>ARGO_PARNAIBAIII_V2_LD::BASE::canaleta1</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -16611,16 +16611,32 @@
       <c r="D438" t="n">
         <v>77</v>
       </c>
-      <c r="E438" t="inlineStr"/>
-      <c r="F438" t="inlineStr"/>
-      <c r="G438" t="inlineStr"/>
-      <c r="H438" t="inlineStr"/>
-      <c r="I438" t="inlineStr"/>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>[-41.7656455157099, -3.1231948421139673]</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>[[-41.7656455157099, -3.1231948421139673], [2.0000183003388368, -3.1231948421139673]]</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>[[-41.7656455157099, -3.1231948421139673], [-41.7656455157099, 10.99990055572398]]</t>
+        </is>
+      </c>
+      <c r="H438" t="n">
+        <v>11</v>
+      </c>
+      <c r="I438" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>ARGO_PARNAIBAIII_V2_LD::BASE::fence</t>
+          <t>ARGO_PARNAIBAIII_V2_LD::BASE::canaleta2</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -16632,16 +16648,32 @@
       <c r="D439" t="n">
         <v>77</v>
       </c>
-      <c r="E439" t="inlineStr"/>
-      <c r="F439" t="inlineStr"/>
-      <c r="G439" t="inlineStr"/>
-      <c r="H439" t="inlineStr"/>
-      <c r="I439" t="inlineStr"/>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>[-41.76560570893609, -3.1230794202592365]</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>[[-41.76560570893609, -3.1230794202592365], [23.600212130764774, -3.1230794202592365]]</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>[[-41.76560570893609, -3.1230794202592365], [-41.76560570893609, 1.9999819128178828]]</t>
+        </is>
+      </c>
+      <c r="H439" t="n">
+        <v>2</v>
+      </c>
+      <c r="I439" t="n">
+        <v>23.6</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>ARGO_PARNAIBAIII_V2_LD::BASE::gravel</t>
+          <t>ARGO_PARNAIBAIII_V2_LD::BASE::canaleta3</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -16653,16 +16685,32 @@
       <c r="D440" t="n">
         <v>77.00000164634547</v>
       </c>
-      <c r="E440" t="inlineStr"/>
-      <c r="F440" t="inlineStr"/>
-      <c r="G440" t="inlineStr"/>
-      <c r="H440" t="inlineStr"/>
-      <c r="I440" t="inlineStr"/>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>[-41.76560507135899, -3.1232748542583657]</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>[[-41.76560507135899, -3.1232748542583657], [16.620149390394513, -3.1232748542583657]]</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>[[-41.76560507135899, -3.1232748542583657], [-41.76560507135899, 1.999981912824834]]</t>
+        </is>
+      </c>
+      <c r="H440" t="n">
+        <v>2</v>
+      </c>
+      <c r="I440" t="n">
+        <v>16.62</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ARGO_PARNAIBAIII_V2_LD::BASE::path</t>
+          <t>ARGO_PARNAIBAIII_V2_LD::BASE::canaleta4</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -16674,16 +16722,32 @@
       <c r="D441" t="n">
         <v>77</v>
       </c>
-      <c r="E441" t="inlineStr"/>
-      <c r="F441" t="inlineStr"/>
-      <c r="G441" t="inlineStr"/>
-      <c r="H441" t="inlineStr"/>
-      <c r="I441" t="inlineStr"/>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>[-41.76515772704716, -3.123352738044054]</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>[[-41.76515772704716, -3.123352738044054], [NaN, -3.123352738044054]]</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>[[-41.76515772704716, -3.123352738044054], [-41.76515772704716, NaN]]</t>
+        </is>
+      </c>
+      <c r="H441" t="n">
+        <v>101</v>
+      </c>
+      <c r="I441" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>ARGO_PARNAIBAIII_V2_LD::BASE::SVC</t>
+          <t>ARGO_PARNAIBAIII_V2_LD::BASE::canaleta5</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -16695,16 +16759,32 @@
       <c r="D442" t="n">
         <v>77</v>
       </c>
-      <c r="E442" t="inlineStr"/>
-      <c r="F442" t="inlineStr"/>
-      <c r="G442" t="inlineStr"/>
-      <c r="H442" t="inlineStr"/>
-      <c r="I442" t="inlineStr"/>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>[-41.76542763672894, -3.123728522775757]</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>[[-41.76542763672894, -3.123728522775757], [83.00074605311339, -3.123728522775757]]</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>[[-41.76542763672894, -3.123728522775757], [-41.76542763672894, 1.9999819126611214]]</t>
+        </is>
+      </c>
+      <c r="H442" t="n">
+        <v>2</v>
+      </c>
+      <c r="I442" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>rover_argo_NZero::base_link</t>
+          <t>ARGO_PARNAIBAIII_V2_LD::BASE::canaleta6</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -16716,16 +16796,32 @@
       <c r="D443" t="n">
         <v>77.08908914322646</v>
       </c>
-      <c r="E443" t="inlineStr"/>
-      <c r="F443" t="inlineStr"/>
-      <c r="G443" t="inlineStr"/>
-      <c r="H443" t="inlineStr"/>
-      <c r="I443" t="inlineStr"/>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>[-41.76471152716128, -3.1224090431687053]</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>[[-41.76471152716128, -3.1224090431687053], [NaN, -3.1224090431687053]]</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>[[-41.76471152716128, -3.1224090431687053], [-41.76471152716128, NaN]]</t>
+        </is>
+      </c>
+      <c r="H443" t="n">
+        <v>101</v>
+      </c>
+      <c r="I443" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>rover_argo_NZero::front_left_wheel_link</t>
+          <t>ARGO_PARNAIBAIII_V2_LD::BASE::canaleta7</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -16737,16 +16833,32 @@
       <c r="D444" t="n">
         <v>77.09647951281582</v>
       </c>
-      <c r="E444" t="inlineStr"/>
-      <c r="F444" t="inlineStr"/>
-      <c r="G444" t="inlineStr"/>
-      <c r="H444" t="inlineStr"/>
-      <c r="I444" t="inlineStr"/>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>[-41.76472592490721, -3.1229762091163935]</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>[[-41.76472592490721, -3.1229762091163935], [123.00110559678248, -3.1229762091163935]]</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>[[-41.76472592490721, -3.1229762091163935], [-41.76472592490721, 1.9999819124571236]]</t>
+        </is>
+      </c>
+      <c r="H444" t="n">
+        <v>2</v>
+      </c>
+      <c r="I444" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>rover_argo_NZero::front_right_wheel_link</t>
+          <t>ARGO_PARNAIBAIII_V2_LD::BASE::canaleta8</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -16758,16 +16870,32 @@
       <c r="D445" t="n">
         <v>77.09656326588573</v>
       </c>
-      <c r="E445" t="inlineStr"/>
-      <c r="F445" t="inlineStr"/>
-      <c r="G445" t="inlineStr"/>
-      <c r="H445" t="inlineStr"/>
-      <c r="I445" t="inlineStr"/>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>[-41.764294096417586, -3.123543183817039]</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>[[-41.764294096417586, -3.123543183817039], [NaN, -3.123543183817039]]</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>[[-41.764294096417586, -3.123543183817039], [-41.764294096417586, NaN]]</t>
+        </is>
+      </c>
+      <c r="H445" t="n">
+        <v>202</v>
+      </c>
+      <c r="I445" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>rover_argo_NZero::rear_right_wheel_link</t>
+          <t>ARGO_PARNAIBAIII_V2_LD::BASE::talude1</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -16779,16 +16907,32 @@
       <c r="D446" t="n">
         <v>77.09650856597437</v>
       </c>
-      <c r="E446" t="inlineStr"/>
-      <c r="F446" t="inlineStr"/>
-      <c r="G446" t="inlineStr"/>
-      <c r="H446" t="inlineStr"/>
-      <c r="I446" t="inlineStr"/>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>[-41.76520363282922, -3.1223398743864013]</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>[[-41.76520363282922, -3.1223398743864013], [50.00044942958638, -3.1223398743864013]]</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>[[-41.76520363282922, -3.1223398743864013], [-41.76520363282922, 1.9999819127697798]]</t>
+        </is>
+      </c>
+      <c r="H446" t="n">
+        <v>2</v>
+      </c>
+      <c r="I446" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>rover_argo_NZero::rear_left_wheel_link</t>
+          <t>ARGO_PARNAIBAIII_V2_LD::BASE::talude2</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -16800,16 +16944,32 @@
       <c r="D447" t="n">
         <v>77.09641663519906</v>
       </c>
-      <c r="E447" t="inlineStr"/>
-      <c r="F447" t="inlineStr"/>
-      <c r="G447" t="inlineStr"/>
-      <c r="H447" t="inlineStr"/>
-      <c r="I447" t="inlineStr"/>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>[-41.76440205369237, -3.122547873372714]</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>[[-41.76440205369237, -3.122547873372714], [NaN, -3.122547873372714]]</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>[[-41.76440205369237, -3.122547873372714], [-41.76440205369237, NaN]]</t>
+        </is>
+      </c>
+      <c r="H447" t="n">
+        <v>180</v>
+      </c>
+      <c r="I447" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>rover_argo_NZero::imu_link</t>
+          <t>ARGO_PARNAIBAIII_V2_LD::BASE::talude3</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -16821,11 +16981,58 @@
       <c r="D448" t="n">
         <v>77.08908914286209</v>
       </c>
-      <c r="E448" t="inlineStr"/>
-      <c r="F448" t="inlineStr"/>
-      <c r="G448" t="inlineStr"/>
-      <c r="H448" t="inlineStr"/>
-      <c r="I448" t="inlineStr"/>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>[-41.76444703572238, -3.1234002758930957]</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>[[-41.76444703572238, -3.1234002758930957], [NaN, -3.1234002758930957]]</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>[[-41.76444703572238, -3.1234002758930957], [-41.76444703572238, NaN]]</t>
+        </is>
+      </c>
+      <c r="H448" t="n">
+        <v>250</v>
+      </c>
+      <c r="I448" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>ARGO_PARNAIBAIII_V2_LD::BASE::talude4</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr"/>
+      <c r="C449" t="inlineStr"/>
+      <c r="D449" t="inlineStr"/>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>[-41.7635473934309, -3.122882479648937]</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>[[-41.7635473934309, -3.122882479648937], [100.00089885917275, -3.122882479648937]]</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>[[-41.7635473934309, -3.122882479648937], [-41.7635473934309, 1.999981912584102]]</t>
+        </is>
+      </c>
+      <c r="H449" t="n">
+        <v>2</v>
+      </c>
+      <c r="I449" t="n">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
